--- a/updated_script/Graphtext_032619.xlsx
+++ b/updated_script/Graphtext_032619.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A197909-D7B3-BC48-A663-FAAAF496515E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E76574A-7367-6546-BDF7-434FFD880C59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="654">
   <si>
     <t>section</t>
   </si>
@@ -1187,9 +1187,6 @@
     <t>pre-college income and savings</t>
   </si>
   <si>
-    <t>U.S. Census Bureau, Current Population Survey, 2016 Annual Social and Economic Supplement, Table FINC-01</t>
-  </si>
-  <si>
     <t>Median Total Income of Families by Race/Ethnicity, Geographical Region, and Age, 2015</t>
   </si>
   <si>
@@ -1223,21 +1220,12 @@
     <t>050105.csv</t>
   </si>
   <si>
-    <t>bar chart</t>
-  </si>
-  <si>
-    <t>ACS 5 year sample</t>
-  </si>
-  <si>
     <t>Median family Income by state, families with children ages 15 to 17</t>
   </si>
   <si>
     <t>050106.csv</t>
   </si>
   <si>
-    <t>U.S. Census Bureau, Historical Income Tables: Families, Table F-11</t>
-  </si>
-  <si>
     <t xml:space="preserve">Median Income of Families by Age Group in 2015 dollars, 1985 to 2015 </t>
   </si>
   <si>
@@ -1256,9 +1244,6 @@
     <t>savings</t>
   </si>
   <si>
-    <t>United States Bureau of Economic Analysis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Personal Savings Rate, 1959 - 2015 </t>
   </si>
   <si>
@@ -1286,25 +1271,16 @@
     <t>050203.csv</t>
   </si>
   <si>
-    <t xml:space="preserve">United States Census Bureau </t>
-  </si>
-  <si>
     <t>Distribution of Net Worth by Family Income Groups</t>
   </si>
   <si>
     <t>050204.csv</t>
   </si>
   <si>
-    <t>Survey of Consumer Finances, 1989-2013 survey</t>
-  </si>
-  <si>
     <t>Median Net Worth of Families by Race and Ethnicity, 1989–2013</t>
   </si>
   <si>
     <t>050205.csv</t>
-  </si>
-  <si>
-    <t>Survey of Consumer Finances, 1989–2013 surveys</t>
   </si>
   <si>
     <t>Median Net Worth of Families by Parents’ Highest Educational Attainment 1989–2013</t>
@@ -2030,6 +2006,33 @@
   </si>
   <si>
     <t>Billions</t>
+  </si>
+  <si>
+    <t>U.S. Census Bureau, Current Population Survey, 2016 Annual Social and Economic Supplement, Table FINC-01.</t>
+  </si>
+  <si>
+    <t>missing "less than hs"?</t>
+  </si>
+  <si>
+    <t>ACS 5 year sample.</t>
+  </si>
+  <si>
+    <t>U.S. Census Bureau, Historical Income Tables: Families, Table F-11.</t>
+  </si>
+  <si>
+    <t>United States Bureau of Economic Analysis.</t>
+  </si>
+  <si>
+    <t>United States Census Bureau .</t>
+  </si>
+  <si>
+    <t>Survey of Consumer Finances, 1989-2013 surveys.</t>
+  </si>
+  <si>
+    <t>confused by title, please check</t>
+  </si>
+  <si>
+    <t>check source…verbose enough?</t>
   </si>
 </sst>
 </file>
@@ -2582,9 +2585,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I186" sqref="I186"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F153" sqref="F153:F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2630,7 +2633,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>7</v>
@@ -2760,7 +2763,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>44</v>
@@ -2838,7 +2841,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>50</v>
@@ -2914,7 +2917,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>50</v>
@@ -2990,7 +2993,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>56</v>
@@ -3070,7 +3073,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>50</v>
@@ -3148,7 +3151,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>50</v>
@@ -3226,7 +3229,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>50</v>
@@ -3304,7 +3307,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>50</v>
@@ -3382,7 +3385,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>50</v>
@@ -3460,7 +3463,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>50</v>
@@ -3538,7 +3541,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>50</v>
@@ -3618,7 +3621,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>50</v>
@@ -3696,7 +3699,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>50</v>
@@ -3774,7 +3777,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>50</v>
@@ -3853,7 +3856,7 @@
         <v>87</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>87</v>
@@ -3944,7 +3947,7 @@
         <v>87</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>87</v>
@@ -4035,7 +4038,7 @@
         <v>87</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>87</v>
@@ -4126,7 +4129,7 @@
         <v>87</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>87</v>
@@ -4217,7 +4220,7 @@
         <v>87</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>87</v>
@@ -4308,7 +4311,7 @@
         <v>87</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>87</v>
@@ -4399,7 +4402,7 @@
         <v>87</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>87</v>
@@ -4490,7 +4493,7 @@
         <v>87</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>87</v>
@@ -4562,7 +4565,7 @@
         <v>87</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>87</v>
@@ -4633,7 +4636,7 @@
         <v>87</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>87</v>
@@ -4704,7 +4707,7 @@
         <v>87</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>87</v>
@@ -4778,7 +4781,7 @@
         <v>117</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>56</v>
@@ -4952,7 +4955,7 @@
         <v>117</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>44</v>
@@ -5033,7 +5036,7 @@
         <v>87</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>87</v>
@@ -5121,7 +5124,7 @@
         <v>87</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>87</v>
@@ -5212,7 +5215,7 @@
         <v>87</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>87</v>
@@ -5303,7 +5306,7 @@
         <v>87</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>87</v>
@@ -5391,7 +5394,7 @@
         <v>87</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>87</v>
@@ -5482,10 +5485,10 @@
         <v>87</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="I35" s="30" t="s">
         <v>44</v>
@@ -5563,10 +5566,10 @@
         <v>87</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="I36" s="28" t="s">
         <v>44</v>
@@ -5645,10 +5648,10 @@
         <v>87</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I37" s="35" t="s">
         <v>160</v>
@@ -5727,10 +5730,10 @@
         <v>87</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I38" s="28" t="s">
         <v>56</v>
@@ -5812,13 +5815,13 @@
         <v>3</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I39" s="28" t="s">
         <v>44</v>
@@ -5901,10 +5904,10 @@
         <v>87</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I40" s="28" t="s">
         <v>44</v>
@@ -5983,10 +5986,10 @@
         <v>87</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I41" s="28" t="s">
         <v>44</v>
@@ -6065,10 +6068,10 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>617</v>
       </c>
       <c r="I42" s="28" t="s">
         <v>50</v>
@@ -6145,10 +6148,10 @@
         <v>87</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I43" s="28" t="s">
         <v>160</v>
@@ -6223,10 +6226,10 @@
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I44" s="28" t="s">
         <v>44</v>
@@ -6303,10 +6306,10 @@
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="37" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I45" s="28" t="s">
         <v>44</v>
@@ -6388,7 +6391,7 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I46" s="28" t="s">
         <v>56</v>
@@ -6467,10 +6470,10 @@
         <v>87</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I47" s="30" t="s">
         <v>147</v>
@@ -6549,7 +6552,7 @@
         <v>87</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>87</v>
@@ -6562,7 +6565,7 @@
         <v>177</v>
       </c>
       <c r="L48" s="38" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="M48" s="30"/>
       <c r="N48" s="30">
@@ -6638,7 +6641,7 @@
         <v>87</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>87</v>
@@ -6727,7 +6730,7 @@
         <v>87</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>87</v>
@@ -6814,7 +6817,7 @@
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="37" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>87</v>
@@ -6905,10 +6908,10 @@
         <v>87</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I52" s="28" t="s">
         <v>56</v>
@@ -6949,7 +6952,7 @@
       <c r="AC52" s="28"/>
       <c r="AD52" s="28"/>
       <c r="AE52" s="38" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="AF52" s="28"/>
       <c r="AG52" s="28"/>
@@ -6989,10 +6992,10 @@
         <v>87</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I53" s="28" t="s">
         <v>56</v>
@@ -7071,7 +7074,7 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I54" s="28" t="s">
         <v>50</v>
@@ -7102,7 +7105,7 @@
       <c r="S54" s="38"/>
       <c r="T54" s="28"/>
       <c r="U54" s="38" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="V54" s="28"/>
       <c r="W54" s="28"/>
@@ -7673,7 +7676,7 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I61" s="28" t="s">
         <v>56</v>
@@ -7755,7 +7758,7 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I62" s="28" t="s">
         <v>56</v>
@@ -7833,13 +7836,13 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G63" s="37" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="I63" s="30" t="s">
         <v>50</v>
@@ -7912,13 +7915,13 @@
         <v>2</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G64" s="37" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="I64" s="30" t="s">
         <v>50</v>
@@ -7993,7 +7996,7 @@
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>87</v>
@@ -8046,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="AE65" s="40" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="AF65" s="28"/>
       <c r="AG65" s="28"/>
@@ -8082,7 +8085,7 @@
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>87</v>
@@ -8135,7 +8138,7 @@
         <v>0</v>
       </c>
       <c r="AE66" s="40" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="AF66" s="28"/>
       <c r="AG66" s="28"/>
@@ -8171,7 +8174,7 @@
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>87</v>
@@ -8224,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="AE67" s="40" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="AF67" s="28"/>
       <c r="AG67" s="28"/>
@@ -8260,7 +8263,7 @@
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>87</v>
@@ -8313,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="AE68" s="40" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="AF68" s="28"/>
       <c r="AG68" s="28"/>
@@ -8351,7 +8354,7 @@
         <v>87</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>87</v>
@@ -8363,7 +8366,7 @@
         <v>291</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="L69" s="28" t="s">
         <v>232</v>
@@ -8441,7 +8444,7 @@
         <v>87</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>87</v>
@@ -8453,7 +8456,7 @@
         <v>291</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="L70" s="28" t="s">
         <v>234</v>
@@ -8532,7 +8535,7 @@
         <v>87</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>87</v>
@@ -8544,7 +8547,7 @@
         <v>291</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="L71" s="28" t="s">
         <v>236</v>
@@ -8623,7 +8626,7 @@
         <v>87</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>87</v>
@@ -8635,7 +8638,7 @@
         <v>291</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>238</v>
@@ -8692,7 +8695,7 @@
         <v>87</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>87</v>
@@ -8704,7 +8707,7 @@
         <v>291</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>240</v>
@@ -8760,7 +8763,7 @@
         <v>87</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>87</v>
@@ -8772,7 +8775,7 @@
         <v>291</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="L74" s="28" t="s">
         <v>232</v>
@@ -8828,7 +8831,7 @@
         <v>87</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>87</v>
@@ -8840,7 +8843,7 @@
         <v>291</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="L75" s="28" t="s">
         <v>234</v>
@@ -8852,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="P75" s="14" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="Q75" s="28">
         <v>0</v>
@@ -8896,7 +8899,7 @@
         <v>87</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>87</v>
@@ -8908,7 +8911,7 @@
         <v>291</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="L76" s="28" t="s">
         <v>236</v>
@@ -8920,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="P76" s="14" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="Q76" s="28">
         <v>0</v>
@@ -8964,7 +8967,7 @@
         <v>87</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>87</v>
@@ -8976,7 +8979,7 @@
         <v>291</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="L77" s="7" t="s">
         <v>238</v>
@@ -9032,7 +9035,7 @@
         <v>87</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>87</v>
@@ -9044,7 +9047,7 @@
         <v>291</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="L78" s="7" t="s">
         <v>240</v>
@@ -9100,7 +9103,7 @@
         <v>87</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>87</v>
@@ -9112,7 +9115,7 @@
         <v>291</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="L79" s="28" t="s">
         <v>232</v>
@@ -9168,7 +9171,7 @@
         <v>87</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>87</v>
@@ -9180,7 +9183,7 @@
         <v>291</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="L80" s="28" t="s">
         <v>234</v>
@@ -9236,7 +9239,7 @@
         <v>87</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>87</v>
@@ -9248,7 +9251,7 @@
         <v>291</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="L81" s="28" t="s">
         <v>236</v>
@@ -9304,7 +9307,7 @@
         <v>87</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>87</v>
@@ -9316,7 +9319,7 @@
         <v>291</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>238</v>
@@ -9372,7 +9375,7 @@
         <v>87</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>87</v>
@@ -9384,7 +9387,7 @@
         <v>291</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>240</v>
@@ -9440,7 +9443,7 @@
         <v>87</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>87</v>
@@ -9452,7 +9455,7 @@
         <v>291</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="L84" s="28" t="s">
         <v>232</v>
@@ -9508,7 +9511,7 @@
         <v>87</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>87</v>
@@ -9520,7 +9523,7 @@
         <v>291</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="L85" s="28" t="s">
         <v>234</v>
@@ -9576,7 +9579,7 @@
         <v>87</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>87</v>
@@ -9588,7 +9591,7 @@
         <v>291</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="L86" s="28" t="s">
         <v>236</v>
@@ -9644,7 +9647,7 @@
         <v>87</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>87</v>
@@ -9656,7 +9659,7 @@
         <v>291</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="L87" s="7" t="s">
         <v>238</v>
@@ -9712,7 +9715,7 @@
         <v>87</v>
       </c>
       <c r="G88" s="37" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>87</v>
@@ -9724,7 +9727,7 @@
         <v>291</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="L88" s="7" t="s">
         <v>240</v>
@@ -9783,10 +9786,10 @@
         <v>87</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I89" s="30" t="s">
         <v>44</v>
@@ -9816,10 +9819,10 @@
       </c>
       <c r="T89" s="28"/>
       <c r="U89" s="40" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="V89" s="40" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="W89" s="28"/>
       <c r="X89" s="28"/>
@@ -9871,7 +9874,7 @@
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I90" s="30" t="s">
         <v>160</v>
@@ -10401,7 +10404,7 @@
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I96" s="30" t="s">
         <v>44</v>
@@ -10478,10 +10481,10 @@
         <v>87</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I97" s="30" t="s">
         <v>50</v>
@@ -10558,7 +10561,7 @@
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="37" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>87</v>
@@ -10734,10 +10737,10 @@
         <v>87</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I100" s="30" t="s">
         <v>50</v>
@@ -10815,10 +10818,10 @@
       </c>
       <c r="F101" s="44"/>
       <c r="G101" s="44" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="H101" s="44" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I101" s="44" t="s">
         <v>50</v>
@@ -10893,10 +10896,10 @@
       </c>
       <c r="F102" s="44"/>
       <c r="G102" s="44" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="H102" s="44" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I102" s="44" t="s">
         <v>50</v>
@@ -10972,10 +10975,10 @@
       </c>
       <c r="F103" s="44"/>
       <c r="G103" s="44" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="H103" s="44" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I103" s="44" t="s">
         <v>50</v>
@@ -11051,10 +11054,10 @@
       </c>
       <c r="F104" s="44"/>
       <c r="G104" s="44" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="H104" s="44" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I104" s="44" t="s">
         <v>50</v>
@@ -11108,7 +11111,7 @@
         <v>87</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>87</v>
@@ -11161,7 +11164,7 @@
         <v>0</v>
       </c>
       <c r="AE105" s="40" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="AF105" s="28"/>
       <c r="AG105" s="28"/>
@@ -11199,7 +11202,7 @@
         <v>87</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>87</v>
@@ -11251,7 +11254,7 @@
         <v>0</v>
       </c>
       <c r="AE106" s="40" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="AF106" s="28"/>
       <c r="AG106" s="28"/>
@@ -11289,7 +11292,7 @@
         <v>87</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>87</v>
@@ -11342,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="AE107" s="40" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="AF107" s="28"/>
       <c r="AG107" s="28"/>
@@ -11380,7 +11383,7 @@
         <v>87</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>87</v>
@@ -11433,7 +11436,7 @@
         <v>0</v>
       </c>
       <c r="AE108" s="40" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="AF108" s="28"/>
       <c r="AG108" s="28"/>
@@ -11471,7 +11474,7 @@
         <v>87</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>87</v>
@@ -11524,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="AE109" s="40" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="AF109" s="28"/>
       <c r="AG109" s="28"/>
@@ -11562,7 +11565,7 @@
         <v>87</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>87</v>
@@ -11615,7 +11618,7 @@
         <v>0</v>
       </c>
       <c r="AE110" s="40" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="AF110" s="28"/>
       <c r="AG110" s="28"/>
@@ -11654,7 +11657,7 @@
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I111" s="30" t="s">
         <v>56</v>
@@ -11732,7 +11735,7 @@
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I112" s="30" t="s">
         <v>160</v>
@@ -11810,7 +11813,7 @@
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I113" s="30" t="s">
         <v>56</v>
@@ -11890,7 +11893,7 @@
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I114" s="30" t="s">
         <v>44</v>
@@ -11969,10 +11972,10 @@
         <v>87</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I115" s="30" t="s">
         <v>44</v>
@@ -12922,7 +12925,7 @@
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I126" s="41" t="s">
         <v>336</v>
@@ -13006,7 +13009,7 @@
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I127" s="30" t="s">
         <v>44</v>
@@ -13036,7 +13039,7 @@
       </c>
       <c r="T127" s="28"/>
       <c r="U127" s="40" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="V127" s="28"/>
       <c r="W127" s="28"/>
@@ -13084,10 +13087,10 @@
         <v>87</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I128" s="30" t="s">
         <v>50</v>
@@ -13165,10 +13168,10 @@
         <v>87</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I129" s="30" t="s">
         <v>50</v>
@@ -13199,7 +13202,7 @@
       <c r="S129" s="28"/>
       <c r="T129" s="28"/>
       <c r="U129" s="40" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="V129" s="28"/>
       <c r="W129" s="28"/>
@@ -14896,10 +14899,10 @@
         <v>87</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I149" s="41" t="s">
         <v>336</v>
@@ -14929,7 +14932,7 @@
       <c r="T149" s="28"/>
       <c r="U149" s="28"/>
       <c r="V149" s="40" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="W149" s="28"/>
       <c r="X149" s="28"/>
@@ -14979,7 +14982,7 @@
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I150" s="30" t="s">
         <v>44</v>
@@ -15054,10 +15057,10 @@
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I151" s="30" t="s">
         <v>44</v>
@@ -15130,10 +15133,10 @@
       </c>
       <c r="F152" s="37"/>
       <c r="G152" s="42" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H152" s="37" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I152" s="33" t="s">
         <v>44</v>
@@ -15141,7 +15144,7 @@
       <c r="J152" s="33"/>
       <c r="K152" s="33"/>
       <c r="L152" s="42" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="M152" s="33"/>
       <c r="N152" s="33">
@@ -15151,7 +15154,7 @@
         <v>0</v>
       </c>
       <c r="P152" s="43" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="Q152" s="28">
         <v>1</v>
@@ -15204,20 +15207,24 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="F153" s="1"/>
+      <c r="F153" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1" t="s">
-        <v>618</v>
+        <v>87</v>
       </c>
       <c r="I153" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J153" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="K153" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="K153" s="11"/>
-      <c r="L153" s="10" t="s">
-        <v>387</v>
+      <c r="L153" s="28" t="s">
+        <v>388</v>
       </c>
       <c r="M153" s="32"/>
       <c r="N153" s="30">
@@ -15227,16 +15234,13 @@
         <v>0</v>
       </c>
       <c r="P153" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q153" s="28">
         <v>1</v>
       </c>
       <c r="R153" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S153" s="28" t="s">
-        <v>389</v>
       </c>
       <c r="T153" s="28"/>
       <c r="U153" s="28"/>
@@ -15246,12 +15250,20 @@
       </c>
       <c r="X153" s="28"/>
       <c r="Y153" s="28"/>
-      <c r="Z153" s="28"/>
+      <c r="Z153" s="28">
+        <v>4</v>
+      </c>
       <c r="AA153" s="28"/>
       <c r="AB153" s="28"/>
-      <c r="AC153" s="28"/>
-      <c r="AD153" s="28"/>
-      <c r="AE153" s="28"/>
+      <c r="AC153" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD153" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE153" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF153" s="28"/>
       <c r="AG153" s="28"/>
       <c r="AH153" s="28"/>
@@ -15286,20 +15298,24 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="F154" s="1"/>
+      <c r="F154" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1" t="s">
-        <v>618</v>
+        <v>87</v>
       </c>
       <c r="I154" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J154" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="K154" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="K154" s="11"/>
-      <c r="L154" s="10" t="s">
-        <v>387</v>
+      <c r="L154" s="28" t="s">
+        <v>390</v>
       </c>
       <c r="M154" s="32"/>
       <c r="N154" s="30">
@@ -15309,16 +15325,13 @@
         <v>0</v>
       </c>
       <c r="P154" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q154" s="28">
         <v>1</v>
       </c>
       <c r="R154" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S154" s="28" t="s">
-        <v>391</v>
       </c>
       <c r="T154" s="28"/>
       <c r="U154" s="28"/>
@@ -15328,12 +15341,20 @@
       </c>
       <c r="X154" s="28"/>
       <c r="Y154" s="28"/>
-      <c r="Z154" s="28"/>
+      <c r="Z154" s="28">
+        <v>4</v>
+      </c>
       <c r="AA154" s="28"/>
       <c r="AB154" s="28"/>
-      <c r="AC154" s="28"/>
-      <c r="AD154" s="28"/>
-      <c r="AE154" s="28"/>
+      <c r="AC154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE154" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="AF154" s="28"/>
       <c r="AG154" s="28"/>
       <c r="AH154" s="28"/>
@@ -15366,20 +15387,24 @@
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="F155" s="1"/>
+      <c r="F155" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1" t="s">
-        <v>618</v>
+        <v>87</v>
       </c>
       <c r="I155" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J155" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="K155" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="K155" s="11"/>
-      <c r="L155" s="10" t="s">
-        <v>387</v>
+      <c r="L155" s="28" t="s">
+        <v>392</v>
       </c>
       <c r="M155" s="32"/>
       <c r="N155" s="30">
@@ -15389,16 +15414,13 @@
         <v>0</v>
       </c>
       <c r="P155" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q155" s="28">
         <v>1</v>
       </c>
       <c r="R155" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S155" s="28" t="s">
-        <v>393</v>
       </c>
       <c r="T155" s="28"/>
       <c r="U155" s="28"/>
@@ -15408,12 +15430,20 @@
       </c>
       <c r="X155" s="28"/>
       <c r="Y155" s="28"/>
-      <c r="Z155" s="28"/>
+      <c r="Z155" s="28">
+        <v>4</v>
+      </c>
       <c r="AA155" s="28"/>
       <c r="AB155" s="28"/>
-      <c r="AC155" s="28"/>
-      <c r="AD155" s="28"/>
-      <c r="AE155" s="28"/>
+      <c r="AC155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE155" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="AF155" s="28"/>
       <c r="AG155" s="28"/>
       <c r="AH155" s="28"/>
@@ -15446,20 +15476,24 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="F156" s="1"/>
+      <c r="F156" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1" t="s">
-        <v>618</v>
+        <v>87</v>
       </c>
       <c r="I156" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J156" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="K156" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="K156" s="11"/>
-      <c r="L156" s="10" t="s">
-        <v>387</v>
+      <c r="L156" s="28" t="s">
+        <v>394</v>
       </c>
       <c r="M156" s="32"/>
       <c r="N156" s="30">
@@ -15469,16 +15503,13 @@
         <v>0</v>
       </c>
       <c r="P156" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q156" s="28">
         <v>1</v>
       </c>
       <c r="R156" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S156" s="28" t="s">
-        <v>395</v>
       </c>
       <c r="T156" s="28"/>
       <c r="U156" s="28"/>
@@ -15488,12 +15519,20 @@
       </c>
       <c r="X156" s="28"/>
       <c r="Y156" s="28"/>
-      <c r="Z156" s="28"/>
+      <c r="Z156" s="28">
+        <v>4</v>
+      </c>
       <c r="AA156" s="28"/>
       <c r="AB156" s="28"/>
-      <c r="AC156" s="28"/>
-      <c r="AD156" s="28"/>
-      <c r="AE156" s="28"/>
+      <c r="AC156" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD156" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE156" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="AF156" s="28"/>
       <c r="AG156" s="28"/>
       <c r="AH156" s="28"/>
@@ -15526,20 +15565,24 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
+      <c r="F157" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>646</v>
+      </c>
       <c r="H157" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I157" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J157" s="11" t="s">
-        <v>386</v>
+        <v>645</v>
       </c>
       <c r="K157" s="11"/>
       <c r="L157" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M157" s="32"/>
       <c r="N157" s="30">
@@ -15549,7 +15592,7 @@
         <v>0</v>
       </c>
       <c r="P157" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q157" s="28">
         <v>1</v>
@@ -15575,7 +15618,9 @@
       <c r="AH157" s="28"/>
       <c r="AI157" s="28"/>
       <c r="AJ157" s="28"/>
-      <c r="AK157" s="28"/>
+      <c r="AK157" s="28">
+        <v>20</v>
+      </c>
       <c r="AL157" s="28"/>
       <c r="AM157" s="28"/>
       <c r="AN157" s="28"/>
@@ -15602,20 +15647,24 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
+      <c r="F158" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>653</v>
+      </c>
       <c r="H158" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="I158" s="30" t="s">
-        <v>398</v>
+        <v>609</v>
+      </c>
+      <c r="I158" s="41" t="s">
+        <v>44</v>
       </c>
       <c r="J158" s="11" t="s">
-        <v>399</v>
+        <v>647</v>
       </c>
       <c r="K158" s="11"/>
       <c r="L158" s="10" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M158" s="28"/>
       <c r="N158" s="30">
@@ -15625,7 +15674,7 @@
         <v>0</v>
       </c>
       <c r="P158" s="12" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q158" s="28">
         <v>1</v>
@@ -15649,7 +15698,9 @@
       <c r="AF158" s="28"/>
       <c r="AG158" s="28"/>
       <c r="AH158" s="28"/>
-      <c r="AI158" s="28"/>
+      <c r="AI158" s="28">
+        <v>26</v>
+      </c>
       <c r="AJ158" s="28"/>
       <c r="AK158" s="28"/>
       <c r="AL158" s="28"/>
@@ -15678,20 +15729,22 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="F159" s="1"/>
+      <c r="F159" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G159" s="1"/>
       <c r="H159" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I159" s="30" t="s">
         <v>56</v>
       </c>
       <c r="J159" s="11" t="s">
-        <v>402</v>
+        <v>648</v>
       </c>
       <c r="K159" s="11"/>
       <c r="L159" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M159" s="28"/>
       <c r="N159" s="28">
@@ -15701,7 +15754,7 @@
         <v>0</v>
       </c>
       <c r="P159" s="12" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Q159" s="28">
         <v>1</v>
@@ -15754,20 +15807,24 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
+      <c r="F160" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>652</v>
+      </c>
       <c r="H160" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I160" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J160" s="11" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K160" s="11"/>
       <c r="L160" s="11" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M160" s="11"/>
       <c r="N160" s="28">
@@ -15777,7 +15834,7 @@
         <v>0</v>
       </c>
       <c r="P160" s="12" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="Q160" s="28">
         <v>1</v>
@@ -15816,7 +15873,7 @@
         <v>384</v>
       </c>
       <c r="B161" s="30" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C161" s="30">
         <f t="shared" si="6"/>
@@ -15833,20 +15890,20 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I161" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="J161" s="28" t="s">
-        <v>409</v>
+      <c r="J161" s="40" t="s">
+        <v>649</v>
       </c>
       <c r="K161" s="28"/>
       <c r="L161" s="30" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="M161" s="28" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="N161" s="28">
         <v>0</v>
@@ -15855,7 +15912,7 @@
         <v>0</v>
       </c>
       <c r="P161" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="Q161" s="28">
         <v>1</v>
@@ -15894,7 +15951,7 @@
         <v>384</v>
       </c>
       <c r="B162" s="30" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C162" s="30">
         <f t="shared" si="6"/>
@@ -15911,17 +15968,17 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I162" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J162" s="28" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K162" s="28"/>
       <c r="L162" s="30" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M162" s="28"/>
       <c r="N162" s="28">
@@ -15931,7 +15988,7 @@
         <v>0</v>
       </c>
       <c r="P162" s="28" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="Q162" s="28">
         <v>1</v>
@@ -15970,7 +16027,7 @@
         <v>384</v>
       </c>
       <c r="B163" s="30" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C163" s="30">
         <f t="shared" si="6"/>
@@ -15987,17 +16044,17 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I163" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J163" s="28" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="K163" s="28"/>
       <c r="L163" s="30" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M163" s="28"/>
       <c r="N163" s="28">
@@ -16007,7 +16064,7 @@
         <v>0</v>
       </c>
       <c r="P163" s="28" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="Q163" s="28">
         <v>1</v>
@@ -16046,7 +16103,7 @@
         <v>384</v>
       </c>
       <c r="B164" s="30" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C164" s="30">
         <f t="shared" si="6"/>
@@ -16063,17 +16120,17 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I164" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="J164" s="28" t="s">
-        <v>419</v>
+      <c r="J164" s="40" t="s">
+        <v>650</v>
       </c>
       <c r="K164" s="28"/>
       <c r="L164" s="30" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="M164" s="28"/>
       <c r="N164" s="28">
@@ -16083,7 +16140,7 @@
         <v>0</v>
       </c>
       <c r="P164" s="12" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="Q164" s="28">
         <v>1</v>
@@ -16122,7 +16179,7 @@
         <v>384</v>
       </c>
       <c r="B165" s="30" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C165" s="30">
         <f t="shared" si="6"/>
@@ -16139,17 +16196,17 @@
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I165" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="J165" s="28" t="s">
-        <v>422</v>
+      <c r="J165" s="40" t="s">
+        <v>651</v>
       </c>
       <c r="K165" s="28"/>
       <c r="L165" s="30" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="M165" s="28"/>
       <c r="N165" s="28">
@@ -16159,7 +16216,7 @@
         <v>0</v>
       </c>
       <c r="P165" s="28" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="Q165" s="28">
         <v>1</v>
@@ -16200,7 +16257,7 @@
         <v>384</v>
       </c>
       <c r="B166" s="30" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C166" s="30">
         <f t="shared" si="6"/>
@@ -16217,17 +16274,17 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I166" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="J166" s="28" t="s">
-        <v>425</v>
+      <c r="J166" s="40" t="s">
+        <v>651</v>
       </c>
       <c r="K166" s="28"/>
       <c r="L166" s="30" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="M166" s="28"/>
       <c r="N166" s="28">
@@ -16237,7 +16294,7 @@
         <v>0</v>
       </c>
       <c r="P166" s="12" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="Q166" s="28">
         <v>1</v>
@@ -16276,7 +16333,7 @@
         <v>384</v>
       </c>
       <c r="B167" s="30" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C167" s="30">
         <f t="shared" si="6"/>
@@ -16293,7 +16350,7 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I167" s="28" t="s">
         <v>160</v>
@@ -16301,7 +16358,7 @@
       <c r="J167" s="28"/>
       <c r="K167" s="28"/>
       <c r="L167" s="30" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="M167" s="28"/>
       <c r="N167" s="28">
@@ -16311,7 +16368,7 @@
         <v>0</v>
       </c>
       <c r="P167" s="28" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="Q167" s="28">
         <v>1</v>
@@ -16350,7 +16407,7 @@
         <v>384</v>
       </c>
       <c r="B168" s="30" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C168" s="30">
         <f t="shared" si="6"/>
@@ -16367,13 +16424,13 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I168" s="30" t="s">
         <v>160</v>
       </c>
       <c r="L168" s="30" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="N168" s="30">
         <v>0</v>
@@ -16382,7 +16439,7 @@
         <v>0</v>
       </c>
       <c r="P168" s="28" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="Q168" s="28">
         <v>1</v>
@@ -16396,7 +16453,7 @@
         <v>384</v>
       </c>
       <c r="B169" s="30" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C169" s="30">
         <f t="shared" si="6"/>
@@ -16413,17 +16470,17 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I169" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J169" s="28" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="K169" s="28"/>
       <c r="L169" s="30" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="M169" s="28"/>
       <c r="N169" s="28">
@@ -16433,7 +16490,7 @@
         <v>0</v>
       </c>
       <c r="P169" s="30" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="Q169" s="28">
         <v>1</v>
@@ -16472,7 +16529,7 @@
         <v>384</v>
       </c>
       <c r="B170" s="30" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C170" s="30">
         <f t="shared" si="6"/>
@@ -16489,17 +16546,17 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I170" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J170" s="11" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="K170" s="11"/>
       <c r="L170" s="23" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="M170" s="23"/>
       <c r="N170" s="28">
@@ -16509,7 +16566,7 @@
         <v>0</v>
       </c>
       <c r="P170" s="28" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="Q170" s="28">
         <v>1</v>
@@ -16548,7 +16605,7 @@
         <v>384</v>
       </c>
       <c r="B171" s="30" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C171" s="30">
         <f t="shared" si="6"/>
@@ -16565,17 +16622,17 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I171" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J171" s="28" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K171" s="28"/>
       <c r="L171" s="28" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="M171" s="24"/>
       <c r="N171" s="28">
@@ -16585,13 +16642,13 @@
         <v>0</v>
       </c>
       <c r="P171" s="28" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="Q171" s="28">
         <v>1</v>
       </c>
       <c r="R171" s="28" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="S171" s="28"/>
       <c r="T171" s="28"/>
@@ -16624,7 +16681,7 @@
         <v>384</v>
       </c>
       <c r="B172" s="30" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C172" s="30">
         <f t="shared" si="6"/>
@@ -16641,17 +16698,17 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I172" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J172" s="28" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="K172" s="28"/>
       <c r="L172" s="23" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="M172" s="19"/>
       <c r="N172" s="28">
@@ -16661,7 +16718,7 @@
         <v>0</v>
       </c>
       <c r="P172" s="28" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="Q172" s="28">
         <v>1</v>
@@ -16702,7 +16759,7 @@
         <v>384</v>
       </c>
       <c r="B173" s="30" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C173" s="30">
         <f t="shared" si="6"/>
@@ -16719,7 +16776,7 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I173" s="28" t="s">
         <v>50</v>
@@ -16729,7 +16786,7 @@
       </c>
       <c r="K173" s="28"/>
       <c r="L173" s="28" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="M173" s="28"/>
       <c r="N173" s="28">
@@ -16739,7 +16796,7 @@
         <v>0</v>
       </c>
       <c r="P173" s="28" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="Q173" s="28">
         <v>1</v>
@@ -16778,7 +16835,7 @@
         <v>384</v>
       </c>
       <c r="B174" s="30" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C174" s="30">
         <f t="shared" si="6"/>
@@ -16795,7 +16852,7 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I174" s="28" t="s">
         <v>50</v>
@@ -16805,7 +16862,7 @@
       </c>
       <c r="K174" s="28"/>
       <c r="L174" s="28" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="M174" s="28"/>
       <c r="N174" s="28">
@@ -16815,7 +16872,7 @@
         <v>0</v>
       </c>
       <c r="P174" s="28" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="Q174" s="28">
         <v>1</v>
@@ -16854,7 +16911,7 @@
         <v>384</v>
       </c>
       <c r="B175" s="33" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C175" s="33">
         <f t="shared" si="6"/>
@@ -16870,10 +16927,10 @@
       </c>
       <c r="F175" s="37"/>
       <c r="G175" s="42" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H175" s="37" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I175" s="33" t="s">
         <v>44</v>
@@ -16883,7 +16940,7 @@
       </c>
       <c r="K175" s="33"/>
       <c r="L175" s="33" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="M175" s="46"/>
       <c r="N175" s="33">
@@ -16893,7 +16950,7 @@
         <v>1</v>
       </c>
       <c r="P175" s="43" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="Q175" s="33">
         <v>1</v>
@@ -16936,7 +16993,7 @@
         <v>384</v>
       </c>
       <c r="B176" s="30" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C176" s="30">
         <f t="shared" si="6"/>
@@ -16953,7 +17010,7 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I176" s="30" t="s">
         <v>147</v>
@@ -16963,7 +17020,7 @@
       </c>
       <c r="K176" s="28"/>
       <c r="L176" s="28" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="M176" s="28"/>
       <c r="N176" s="30">
@@ -16973,7 +17030,7 @@
         <v>0</v>
       </c>
       <c r="P176" s="12" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="Q176" s="28">
         <v>1</v>
@@ -17011,7 +17068,7 @@
         <v>384</v>
       </c>
       <c r="B177" s="30" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C177" s="30">
         <f t="shared" si="6"/>
@@ -17028,17 +17085,17 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="I177" s="30" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="J177" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K177" s="28"/>
       <c r="L177" s="30" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="M177" s="28"/>
       <c r="N177" s="30">
@@ -17048,7 +17105,7 @@
         <v>0</v>
       </c>
       <c r="P177" s="12" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="Q177" s="28">
         <v>1</v>
@@ -17091,7 +17148,7 @@
         <v>384</v>
       </c>
       <c r="B178" s="30" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C178" s="30">
         <f t="shared" si="6"/>
@@ -17108,17 +17165,17 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="I178" s="30" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="J178" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K178" s="28"/>
       <c r="L178" s="30" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="M178" s="28"/>
       <c r="N178" s="30">
@@ -17128,7 +17185,7 @@
         <v>0</v>
       </c>
       <c r="P178" s="12" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Q178" s="28">
         <v>1</v>
@@ -17171,7 +17228,7 @@
         <v>384</v>
       </c>
       <c r="B179" s="30" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C179" s="30">
         <f t="shared" si="6"/>
@@ -17188,17 +17245,17 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="I179" s="30" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="J179" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K179" s="28"/>
       <c r="L179" s="30" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="M179" s="28"/>
       <c r="N179" s="30">
@@ -17208,7 +17265,7 @@
         <v>0</v>
       </c>
       <c r="P179" s="12" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="Q179" s="28">
         <v>1</v>
@@ -17251,7 +17308,7 @@
         <v>384</v>
       </c>
       <c r="B180" s="30" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C180" s="30">
         <f t="shared" si="6"/>
@@ -17268,17 +17325,17 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="I180" s="30" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="J180" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K180" s="28"/>
       <c r="L180" s="30" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="M180" s="30"/>
       <c r="N180" s="30">
@@ -17288,7 +17345,7 @@
         <v>0</v>
       </c>
       <c r="P180" s="12" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="Q180" s="28">
         <v>1</v>
@@ -17297,7 +17354,7 @@
         <v>60</v>
       </c>
       <c r="S180" s="28" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="T180" s="28"/>
       <c r="U180" s="28"/>
@@ -17329,7 +17386,7 @@
         <v>384</v>
       </c>
       <c r="B181" s="30" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C181" s="30">
         <f t="shared" si="6"/>
@@ -17346,17 +17403,17 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J181" s="12" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="K181" s="12"/>
       <c r="L181" s="10" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="M181" s="1"/>
       <c r="N181" s="1">
@@ -17366,7 +17423,7 @@
         <v>0</v>
       </c>
       <c r="P181" s="12" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="Q181" s="28">
         <v>1</v>
@@ -17407,7 +17464,7 @@
         <v>384</v>
       </c>
       <c r="B182" s="30" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C182" s="30">
         <f t="shared" si="6"/>
@@ -17424,17 +17481,17 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I182" s="1" t="s">
         <v>160</v>
       </c>
       <c r="J182" s="11" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="K182" s="11"/>
       <c r="L182" s="10" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="M182" s="1"/>
       <c r="N182" s="1">
@@ -17444,7 +17501,7 @@
         <v>0</v>
       </c>
       <c r="P182" s="12" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="Q182" s="28">
         <v>1</v>
@@ -17483,7 +17540,7 @@
         <v>384</v>
       </c>
       <c r="B183" s="30" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C183" s="30">
         <f t="shared" si="6"/>
@@ -17500,7 +17557,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>160</v>
@@ -17510,7 +17567,7 @@
       </c>
       <c r="K183" s="11"/>
       <c r="L183" s="11" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="M183" s="28"/>
       <c r="N183" s="1">
@@ -17520,7 +17577,7 @@
         <v>0</v>
       </c>
       <c r="P183" s="12" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="Q183" s="28">
         <v>1</v>
@@ -17559,7 +17616,7 @@
         <v>384</v>
       </c>
       <c r="B184" s="30" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C184" s="30">
         <f t="shared" si="6"/>
@@ -17576,17 +17633,17 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I184" s="1" t="s">
         <v>160</v>
       </c>
       <c r="J184" s="28" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="K184" s="28"/>
       <c r="L184" s="11" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="M184" s="19"/>
       <c r="N184" s="1">
@@ -17596,7 +17653,7 @@
         <v>0</v>
       </c>
       <c r="P184" s="12" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="Q184" s="28">
         <v>1</v>
@@ -17635,7 +17692,7 @@
         <v>384</v>
       </c>
       <c r="B185" s="30" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C185" s="30">
         <f t="shared" si="6"/>
@@ -17652,7 +17709,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>44</v>
@@ -17662,7 +17719,7 @@
       </c>
       <c r="K185" s="28"/>
       <c r="L185" s="28" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="M185" s="19"/>
       <c r="N185" s="1">
@@ -17672,7 +17729,7 @@
         <v>0</v>
       </c>
       <c r="P185" s="12" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="Q185" s="28">
         <v>1</v>
@@ -17712,7 +17769,7 @@
         <v>384</v>
       </c>
       <c r="B186" s="30" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C186" s="30">
         <f t="shared" si="6"/>
@@ -17729,7 +17786,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="I186" s="1" t="s">
         <v>44</v>
@@ -17739,7 +17796,7 @@
       </c>
       <c r="K186" s="28"/>
       <c r="L186" s="28" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="M186" s="19"/>
       <c r="N186" s="1">
@@ -17749,7 +17806,7 @@
         <v>0</v>
       </c>
       <c r="P186" s="12" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="Q186" s="28">
         <v>1</v>
@@ -17789,7 +17846,7 @@
         <v>384</v>
       </c>
       <c r="B187" s="30" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C187" s="30">
         <f t="shared" si="6"/>
@@ -17806,7 +17863,7 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="I187" s="1" t="s">
         <v>44</v>
@@ -17816,7 +17873,7 @@
       </c>
       <c r="K187" s="28"/>
       <c r="L187" s="28" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="M187" s="28"/>
       <c r="N187" s="1">
@@ -17826,7 +17883,7 @@
         <v>0</v>
       </c>
       <c r="P187" s="12" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="Q187" s="28">
         <v>1</v>
@@ -17866,7 +17923,7 @@
         <v>384</v>
       </c>
       <c r="B188" s="30" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C188" s="30">
         <f t="shared" si="6"/>
@@ -17883,17 +17940,17 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I188" s="1" t="s">
         <v>147</v>
       </c>
       <c r="J188" s="28" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="K188" s="28"/>
       <c r="L188" s="28" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="M188" s="28"/>
       <c r="N188" s="1">
@@ -17903,7 +17960,7 @@
         <v>0</v>
       </c>
       <c r="P188" s="28" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="Q188" s="28">
         <v>1</v>
@@ -17942,7 +17999,7 @@
         <v>384</v>
       </c>
       <c r="B189" s="30" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C189" s="30">
         <f t="shared" si="6"/>
@@ -17959,7 +18016,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I189" s="1" t="s">
         <v>50</v>
@@ -17969,7 +18026,7 @@
       </c>
       <c r="K189" s="28"/>
       <c r="L189" s="28" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="M189" s="28"/>
       <c r="N189" s="1">
@@ -17979,7 +18036,7 @@
         <v>0</v>
       </c>
       <c r="P189" s="28" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="Q189" s="28">
         <v>1</v>
@@ -18018,7 +18075,7 @@
         <v>384</v>
       </c>
       <c r="B190" s="30" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C190" s="30">
         <f t="shared" si="6"/>
@@ -18035,7 +18092,7 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I190" s="1" t="s">
         <v>50</v>
@@ -18045,7 +18102,7 @@
       </c>
       <c r="K190" s="28"/>
       <c r="L190" s="28" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M190" s="28"/>
       <c r="N190" s="1">
@@ -18055,7 +18112,7 @@
         <v>0</v>
       </c>
       <c r="P190" s="28" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="Q190" s="28">
         <v>1</v>
@@ -18094,7 +18151,7 @@
         <v>384</v>
       </c>
       <c r="B191" s="30" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C191" s="30">
         <f t="shared" si="6"/>
@@ -18111,17 +18168,17 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="J191" s="28" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="K191" s="28"/>
       <c r="L191" s="28" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="M191" s="32"/>
       <c r="N191" s="1">
@@ -18131,7 +18188,7 @@
         <v>0</v>
       </c>
       <c r="P191" s="28" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="Q191" s="28">
         <v>1</v>
@@ -18170,7 +18227,7 @@
         <v>384</v>
       </c>
       <c r="B192" s="30" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C192" s="30">
         <f t="shared" si="6"/>
@@ -18187,17 +18244,17 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="J192" s="28" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="K192" s="28"/>
       <c r="L192" s="28" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="M192" s="32"/>
       <c r="N192" s="1">
@@ -18207,7 +18264,7 @@
         <v>0</v>
       </c>
       <c r="P192" s="28" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="Q192" s="28">
         <v>1</v>
@@ -18246,7 +18303,7 @@
         <v>384</v>
       </c>
       <c r="B193" s="30" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C193" s="30">
         <f t="shared" si="6"/>
@@ -18263,7 +18320,7 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I193" s="1" t="s">
         <v>50</v>
@@ -18273,7 +18330,7 @@
       </c>
       <c r="K193" s="28"/>
       <c r="L193" s="28" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="M193" s="28"/>
       <c r="N193" s="1">
@@ -18283,7 +18340,7 @@
         <v>0</v>
       </c>
       <c r="P193" s="28" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="Q193" s="28">
         <v>1</v>
@@ -18322,7 +18379,7 @@
         <v>384</v>
       </c>
       <c r="B194" s="30" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C194" s="30">
         <f t="shared" si="6"/>
@@ -18339,17 +18396,17 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I194" s="28" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="J194" s="28" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="K194" s="28"/>
       <c r="L194" s="30" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="M194" s="28"/>
       <c r="N194" s="28">
@@ -18359,7 +18416,7 @@
         <v>0</v>
       </c>
       <c r="P194" s="28" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="Q194" s="28">
         <v>1</v>
@@ -18398,7 +18455,7 @@
         <v>384</v>
       </c>
       <c r="B195" s="30" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C195" s="30">
         <f t="shared" si="6"/>
@@ -18415,17 +18472,17 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I195" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="27" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="M195" s="28"/>
       <c r="N195" s="28">
@@ -18435,7 +18492,7 @@
         <v>0</v>
       </c>
       <c r="P195" s="28" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="Q195" s="28">
         <v>1</v>
@@ -18473,10 +18530,10 @@
     </row>
     <row r="196" spans="1:45" ht="16">
       <c r="A196" s="30" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B196" s="30" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C196" s="30">
         <f t="shared" si="6"/>
@@ -18493,17 +18550,17 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I196" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J196" s="28" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="K196" s="28"/>
       <c r="L196" s="28" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="M196" s="28"/>
       <c r="N196" s="1">
@@ -18513,7 +18570,7 @@
         <v>0</v>
       </c>
       <c r="P196" s="28" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="Q196" s="28">
         <v>1</v>
@@ -18549,10 +18606,10 @@
     </row>
     <row r="197" spans="1:45" ht="16">
       <c r="A197" s="30" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B197" s="30" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C197" s="30">
         <f t="shared" si="6"/>
@@ -18569,17 +18626,17 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I197" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J197" s="28" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="K197" s="28"/>
       <c r="L197" s="28" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="M197" s="28"/>
       <c r="N197" s="1">
@@ -18589,7 +18646,7 @@
         <v>0</v>
       </c>
       <c r="P197" s="28" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="Q197" s="28">
         <v>1</v>
@@ -18625,10 +18682,10 @@
     </row>
     <row r="198" spans="1:45" ht="16">
       <c r="A198" s="30" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B198" s="30" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C198" s="30">
         <f t="shared" si="6"/>
@@ -18645,17 +18702,17 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I198" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J198" s="28" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="K198" s="28"/>
       <c r="L198" s="30" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="M198" s="28"/>
       <c r="N198" s="1">
@@ -18665,7 +18722,7 @@
         <v>0</v>
       </c>
       <c r="P198" s="28" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="Q198" s="28">
         <v>1</v>
@@ -18701,10 +18758,10 @@
     </row>
     <row r="199" spans="1:45" ht="16">
       <c r="A199" s="30" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B199" s="30" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C199" s="30">
         <f t="shared" si="6"/>
@@ -18721,17 +18778,17 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I199" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J199" s="28" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="K199" s="28"/>
       <c r="L199" s="28" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="M199" s="32"/>
       <c r="N199" s="1">
@@ -18741,7 +18798,7 @@
         <v>0</v>
       </c>
       <c r="P199" s="28" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="Q199" s="28">
         <v>1</v>
@@ -18777,10 +18834,10 @@
     </row>
     <row r="200" spans="1:45" ht="16">
       <c r="A200" s="30" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B200" s="30" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C200" s="30">
         <f t="shared" si="6"/>
@@ -18797,17 +18854,17 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I200" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J200" s="28" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="K200" s="28"/>
       <c r="L200" s="28" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="M200" s="32"/>
       <c r="N200" s="1">
@@ -18817,7 +18874,7 @@
         <v>0</v>
       </c>
       <c r="P200" s="28" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="Q200" s="28">
         <v>1</v>
@@ -18853,10 +18910,10 @@
     </row>
     <row r="201" spans="1:45" ht="16">
       <c r="A201" s="30" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B201" s="30" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C201" s="30">
         <f t="shared" si="6"/>
@@ -18873,17 +18930,17 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I201" s="28" t="s">
         <v>50</v>
       </c>
       <c r="J201" s="28" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="K201" s="28"/>
       <c r="L201" s="32" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="M201" s="28"/>
       <c r="N201" s="1">
@@ -18893,7 +18950,7 @@
         <v>0</v>
       </c>
       <c r="P201" s="28" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="Q201" s="28">
         <v>1</v>
@@ -18929,10 +18986,10 @@
     </row>
     <row r="202" spans="1:45" ht="19">
       <c r="A202" s="30" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B202" s="30" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C202" s="30">
         <f t="shared" si="6"/>
@@ -18949,17 +19006,17 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I202" s="25" t="s">
         <v>88</v>
       </c>
       <c r="J202" s="28" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="K202" s="28"/>
       <c r="L202" s="30" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="M202" s="30"/>
       <c r="N202" s="1">
@@ -18969,7 +19026,7 @@
         <v>0</v>
       </c>
       <c r="P202" s="28" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="Q202" s="28">
         <v>1</v>
@@ -19005,10 +19062,10 @@
     </row>
     <row r="203" spans="1:45" ht="16">
       <c r="A203" s="30" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B203" s="30" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C203" s="30">
         <f t="shared" si="6"/>
@@ -19025,17 +19082,17 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I203" s="12" t="s">
         <v>50</v>
       </c>
       <c r="J203" s="28" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="K203" s="28"/>
       <c r="L203" s="26" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="M203" s="26"/>
       <c r="N203" s="1">
@@ -19045,7 +19102,7 @@
         <v>0</v>
       </c>
       <c r="P203" s="28" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="Q203" s="28">
         <v>1</v>
@@ -19081,10 +19138,10 @@
     </row>
     <row r="204" spans="1:45" ht="16">
       <c r="A204" s="30" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B204" s="30" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C204" s="30">
         <f t="shared" si="6"/>
@@ -19101,17 +19158,17 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I204" s="12" t="s">
         <v>50</v>
       </c>
       <c r="J204" s="28" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="K204" s="28"/>
       <c r="L204" s="28" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="M204" s="28"/>
       <c r="N204" s="1">
@@ -19121,7 +19178,7 @@
         <v>0</v>
       </c>
       <c r="P204" s="28" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="Q204" s="28">
         <v>1</v>
@@ -19157,10 +19214,10 @@
     </row>
     <row r="205" spans="1:45" ht="16">
       <c r="A205" s="30" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B205" s="30" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C205" s="30">
         <f t="shared" si="6"/>
@@ -19177,7 +19234,7 @@
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I205" s="12" t="s">
         <v>50</v>
@@ -19187,7 +19244,7 @@
       </c>
       <c r="K205" s="28"/>
       <c r="L205" s="28" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="M205" s="28"/>
       <c r="N205" s="1">
@@ -19197,7 +19254,7 @@
         <v>0</v>
       </c>
       <c r="P205" s="28" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="Q205" s="28">
         <v>1</v>
@@ -19233,10 +19290,10 @@
     </row>
     <row r="206" spans="1:45" ht="16">
       <c r="A206" s="30" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B206" s="30" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C206" s="30">
         <f t="shared" si="6"/>
@@ -19253,7 +19310,7 @@
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I206" s="12" t="s">
         <v>50</v>
@@ -19263,7 +19320,7 @@
       </c>
       <c r="K206" s="28"/>
       <c r="L206" s="28" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="M206" s="28"/>
       <c r="N206" s="1">
@@ -19273,7 +19330,7 @@
         <v>0</v>
       </c>
       <c r="P206" s="28" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="Q206" s="28">
         <v>1</v>
@@ -19309,10 +19366,10 @@
     </row>
     <row r="207" spans="1:45" ht="16">
       <c r="A207" s="30" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B207" s="30" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C207" s="30">
         <f t="shared" si="6"/>
@@ -19329,7 +19386,7 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I207" s="12" t="s">
         <v>50</v>
@@ -19339,7 +19396,7 @@
       </c>
       <c r="K207" s="28"/>
       <c r="L207" s="28" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="M207" s="28"/>
       <c r="N207" s="1">
@@ -19349,7 +19406,7 @@
         <v>0</v>
       </c>
       <c r="P207" s="28" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="Q207" s="28">
         <v>1</v>
@@ -19385,10 +19442,10 @@
     </row>
     <row r="208" spans="1:45" ht="16">
       <c r="A208" s="30" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B208" s="30" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C208" s="30">
         <f t="shared" si="6"/>
@@ -19405,7 +19462,7 @@
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I208" s="12" t="s">
         <v>50</v>
@@ -19415,7 +19472,7 @@
       </c>
       <c r="K208" s="28"/>
       <c r="L208" s="28" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="M208" s="28"/>
       <c r="N208" s="1">
@@ -19425,7 +19482,7 @@
         <v>0</v>
       </c>
       <c r="P208" s="28" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="Q208" s="28">
         <v>1</v>
@@ -19461,10 +19518,10 @@
     </row>
     <row r="209" spans="1:43" ht="16">
       <c r="A209" s="30" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B209" s="30" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C209" s="30">
         <f t="shared" si="6"/>
@@ -19481,7 +19538,7 @@
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I209" s="12" t="s">
         <v>50</v>
@@ -19491,7 +19548,7 @@
       </c>
       <c r="K209" s="28"/>
       <c r="L209" s="28" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="M209" s="28"/>
       <c r="N209" s="1">
@@ -19501,7 +19558,7 @@
         <v>0</v>
       </c>
       <c r="P209" s="28" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="Q209" s="28">
         <v>1</v>
@@ -19537,10 +19594,10 @@
     </row>
     <row r="210" spans="1:43" ht="16">
       <c r="A210" s="30" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B210" s="30" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C210" s="30">
         <f t="shared" si="6"/>
@@ -19557,7 +19614,7 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I210" s="12" t="s">
         <v>50</v>
@@ -19567,7 +19624,7 @@
       </c>
       <c r="K210" s="28"/>
       <c r="L210" s="28" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="M210" s="28"/>
       <c r="N210" s="1">
@@ -19577,7 +19634,7 @@
         <v>0</v>
       </c>
       <c r="P210" s="28" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="Q210" s="28">
         <v>1</v>
@@ -19613,10 +19670,10 @@
     </row>
     <row r="211" spans="1:43" ht="16">
       <c r="A211" s="30" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B211" s="30" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C211" s="30">
         <f t="shared" ref="C211:C237" si="12">_xlfn.NUMBERVALUE(LEFT(P211,2))</f>
@@ -19633,17 +19690,17 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I211" s="12" t="s">
         <v>160</v>
       </c>
       <c r="J211" s="28" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="K211" s="28"/>
       <c r="L211" s="32" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="M211" s="28"/>
       <c r="N211" s="1">
@@ -19653,7 +19710,7 @@
         <v>0</v>
       </c>
       <c r="P211" s="28" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="Q211" s="28">
         <v>1</v>
@@ -19689,10 +19746,10 @@
     </row>
     <row r="212" spans="1:43" ht="16">
       <c r="A212" s="30" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B212" s="30" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C212" s="30">
         <f t="shared" si="12"/>
@@ -19709,17 +19766,17 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I212" s="12" t="s">
         <v>160</v>
       </c>
       <c r="J212" s="28" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="K212" s="28"/>
       <c r="L212" s="28" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="N212" s="1">
         <v>0</v>
@@ -19728,7 +19785,7 @@
         <v>0</v>
       </c>
       <c r="P212" s="28" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="Q212" s="30">
         <v>0</v>
@@ -19736,10 +19793,10 @@
     </row>
     <row r="213" spans="1:43" ht="16">
       <c r="A213" s="30" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B213" s="30" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C213" s="30">
         <f t="shared" si="12"/>
@@ -19756,17 +19813,17 @@
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I213" s="12" t="s">
         <v>147</v>
       </c>
       <c r="J213" s="28" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="K213" s="28"/>
       <c r="L213" s="32" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="M213" s="19"/>
       <c r="N213" s="1">
@@ -19776,7 +19833,7 @@
         <v>0</v>
       </c>
       <c r="P213" s="12" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="Q213" s="28">
         <v>1</v>
@@ -19812,10 +19869,10 @@
     </row>
     <row r="214" spans="1:43" ht="16">
       <c r="A214" s="30" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B214" s="30" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C214" s="30">
         <f t="shared" si="12"/>
@@ -19832,17 +19889,17 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I214" s="12" t="s">
         <v>160</v>
       </c>
       <c r="J214" s="28" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="K214" s="28"/>
       <c r="L214" s="28" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="M214" s="32"/>
       <c r="N214" s="1">
@@ -19852,7 +19909,7 @@
         <v>0</v>
       </c>
       <c r="P214" s="12" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="Q214" s="28">
         <v>1</v>
@@ -19888,10 +19945,10 @@
     </row>
     <row r="215" spans="1:43" ht="16">
       <c r="A215" s="30" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B215" s="30" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C215" s="30">
         <f t="shared" si="12"/>
@@ -19908,19 +19965,19 @@
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I215" s="12"/>
       <c r="J215" s="28"/>
       <c r="K215" s="28"/>
       <c r="L215" s="28" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="M215" s="32"/>
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
       <c r="P215" s="12" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="Q215" s="28">
         <v>0</v>
@@ -19954,10 +20011,10 @@
     </row>
     <row r="216" spans="1:43" ht="16">
       <c r="A216" s="30" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B216" s="30" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C216" s="30">
         <f t="shared" si="12"/>
@@ -19974,19 +20031,19 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I216" s="12"/>
       <c r="J216" s="28"/>
       <c r="K216" s="28"/>
       <c r="L216" s="28" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="M216" s="32"/>
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
       <c r="P216" s="12" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="Q216" s="28">
         <v>0</v>
@@ -20020,10 +20077,10 @@
     </row>
     <row r="217" spans="1:43" ht="16">
       <c r="A217" s="30" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="B217" s="30" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="C217" s="30">
         <f t="shared" si="12"/>
@@ -20040,17 +20097,17 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I217" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J217" s="28" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="K217" s="28"/>
       <c r="L217" s="28" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="M217" s="28"/>
       <c r="N217" s="28">
@@ -20060,7 +20117,7 @@
         <v>0</v>
       </c>
       <c r="P217" s="12" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="Q217" s="28">
         <v>1</v>
@@ -20096,7 +20153,7 @@
     </row>
     <row r="218" spans="1:43" ht="16">
       <c r="A218" s="30" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B218" s="30" t="s">
         <v>240</v>
@@ -20116,17 +20173,17 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="J218" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K218" s="28"/>
       <c r="L218" s="32" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="M218" s="30"/>
       <c r="N218" s="1">
@@ -20136,7 +20193,7 @@
         <v>0</v>
       </c>
       <c r="P218" s="28" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="Q218" s="28">
         <v>1</v>
@@ -20172,7 +20229,7 @@
     </row>
     <row r="219" spans="1:43" ht="16">
       <c r="A219" s="30" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B219" s="30" t="s">
         <v>240</v>
@@ -20192,17 +20249,17 @@
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="J219" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K219" s="28"/>
       <c r="L219" s="30" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="M219" s="30"/>
       <c r="N219" s="1">
@@ -20212,7 +20269,7 @@
         <v>0</v>
       </c>
       <c r="P219" s="8" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="Q219" s="28">
         <v>0</v>
@@ -20246,7 +20303,7 @@
     </row>
     <row r="220" spans="1:43" ht="16">
       <c r="A220" s="30" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B220" s="30" t="s">
         <v>240</v>
@@ -20266,7 +20323,7 @@
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I220" s="1" t="s">
         <v>88</v>
@@ -20276,7 +20333,7 @@
       </c>
       <c r="K220" s="28"/>
       <c r="L220" s="30" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="M220" s="30"/>
       <c r="N220" s="1">
@@ -20286,7 +20343,7 @@
         <v>1</v>
       </c>
       <c r="P220" s="8" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="Q220" s="28">
         <v>1</v>
@@ -20322,7 +20379,7 @@
     </row>
     <row r="221" spans="1:43" ht="16">
       <c r="A221" s="30" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B221" s="30" t="s">
         <v>240</v>
@@ -20342,7 +20399,7 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I221" s="1" t="s">
         <v>147</v>
@@ -20352,7 +20409,7 @@
       </c>
       <c r="K221" s="28"/>
       <c r="L221" s="30" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="M221" s="30"/>
       <c r="N221" s="1">
@@ -20362,7 +20419,7 @@
         <v>1</v>
       </c>
       <c r="P221" s="8" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="Q221" s="28">
         <v>1</v>
@@ -20398,10 +20455,10 @@
     </row>
     <row r="222" spans="1:43" ht="16">
       <c r="A222" s="30" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B222" s="30" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="C222" s="30">
         <f t="shared" si="12"/>
@@ -20418,17 +20475,17 @@
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="J222" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K222" s="28"/>
       <c r="L222" s="30" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="M222" s="30"/>
       <c r="N222" s="1">
@@ -20438,7 +20495,7 @@
         <v>0</v>
       </c>
       <c r="P222" s="8" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="Q222" s="28">
         <v>1</v>
@@ -20474,10 +20531,10 @@
     </row>
     <row r="223" spans="1:43" ht="16">
       <c r="A223" s="30" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B223" s="30" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="C223" s="30">
         <f t="shared" si="12"/>
@@ -20494,17 +20551,17 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="J223" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K223" s="28"/>
       <c r="L223" s="30" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="M223" s="30"/>
       <c r="N223" s="1">
@@ -20514,7 +20571,7 @@
         <v>0</v>
       </c>
       <c r="P223" s="8" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="Q223" s="28">
         <v>0</v>
@@ -20548,10 +20605,10 @@
     </row>
     <row r="224" spans="1:43" ht="16">
       <c r="A224" s="30" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B224" s="30" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="C224" s="30">
         <f t="shared" si="12"/>
@@ -20568,7 +20625,7 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I224" s="1" t="s">
         <v>88</v>
@@ -20578,7 +20635,7 @@
       </c>
       <c r="K224" s="28"/>
       <c r="L224" s="30" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="M224" s="30"/>
       <c r="N224" s="1">
@@ -20588,7 +20645,7 @@
         <v>1</v>
       </c>
       <c r="P224" s="8" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="Q224" s="28">
         <v>1</v>
@@ -20624,10 +20681,10 @@
     </row>
     <row r="225" spans="1:43" ht="16">
       <c r="A225" s="30" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B225" s="30" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="C225" s="30">
         <f t="shared" si="12"/>
@@ -20644,7 +20701,7 @@
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I225" s="1" t="s">
         <v>147</v>
@@ -20654,7 +20711,7 @@
       </c>
       <c r="K225" s="28"/>
       <c r="L225" s="30" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="M225" s="30"/>
       <c r="N225" s="1">
@@ -20664,7 +20721,7 @@
         <v>1</v>
       </c>
       <c r="P225" s="8" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="Q225" s="28">
         <v>0</v>
@@ -20698,10 +20755,10 @@
     </row>
     <row r="226" spans="1:43" ht="16">
       <c r="A226" s="30" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B226" s="30" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C226" s="30">
         <f t="shared" si="12"/>
@@ -20718,7 +20775,7 @@
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I226" s="1" t="s">
         <v>160</v>
@@ -20728,7 +20785,7 @@
       </c>
       <c r="K226" s="28"/>
       <c r="L226" s="30" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="M226" s="30"/>
       <c r="N226" s="1">
@@ -20738,7 +20795,7 @@
         <v>0</v>
       </c>
       <c r="P226" s="8" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="Q226" s="28">
         <v>1</v>
@@ -20774,10 +20831,10 @@
     </row>
     <row r="227" spans="1:43" ht="16">
       <c r="A227" s="30" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B227" s="30" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C227" s="30">
         <f t="shared" si="12"/>
@@ -20794,17 +20851,17 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="J227" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K227" s="28"/>
       <c r="L227" s="30" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="M227" s="30"/>
       <c r="N227" s="1">
@@ -20814,7 +20871,7 @@
         <v>0</v>
       </c>
       <c r="P227" s="8" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="Q227" s="28">
         <v>0</v>
@@ -20848,10 +20905,10 @@
     </row>
     <row r="228" spans="1:43" ht="16">
       <c r="A228" s="30" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B228" s="30" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C228" s="30">
         <f t="shared" si="12"/>
@@ -20868,7 +20925,7 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I228" s="1" t="s">
         <v>88</v>
@@ -20878,7 +20935,7 @@
       </c>
       <c r="K228" s="28"/>
       <c r="L228" s="30" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="M228" s="30"/>
       <c r="N228" s="1">
@@ -20888,7 +20945,7 @@
         <v>1</v>
       </c>
       <c r="P228" s="8" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="Q228" s="28">
         <v>1</v>
@@ -20924,10 +20981,10 @@
     </row>
     <row r="229" spans="1:43" ht="16">
       <c r="A229" s="30" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B229" s="28" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C229" s="30">
         <f t="shared" si="12"/>
@@ -20944,7 +21001,7 @@
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I229" s="28" t="s">
         <v>147</v>
@@ -20954,7 +21011,7 @@
       </c>
       <c r="K229" s="28"/>
       <c r="L229" s="28" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="M229" s="30"/>
       <c r="N229" s="28">
@@ -20964,7 +21021,7 @@
         <v>1</v>
       </c>
       <c r="P229" s="8" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="Q229" s="28">
         <v>1</v>
@@ -21000,10 +21057,10 @@
     </row>
     <row r="230" spans="1:43" ht="16">
       <c r="A230" s="30" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B230" s="28" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C230" s="30">
         <f t="shared" si="12"/>
@@ -21020,7 +21077,7 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="H230" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I230" s="28" t="s">
         <v>160</v>
@@ -21030,7 +21087,7 @@
       </c>
       <c r="K230" s="28"/>
       <c r="L230" s="28" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="M230" s="30"/>
       <c r="N230" s="28">
@@ -21040,7 +21097,7 @@
         <v>0</v>
       </c>
       <c r="P230" s="8" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="Q230" s="28">
         <v>1</v>
@@ -21076,10 +21133,10 @@
     </row>
     <row r="231" spans="1:43" ht="16">
       <c r="A231" s="28" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B231" s="28" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C231" s="30">
         <f t="shared" si="12"/>
@@ -21096,17 +21153,17 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I231" s="28" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="J231" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K231" s="28"/>
       <c r="L231" s="28" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="M231" s="30"/>
       <c r="N231" s="28">
@@ -21116,7 +21173,7 @@
         <v>0</v>
       </c>
       <c r="P231" s="8" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="Q231" s="28">
         <v>0</v>
@@ -21150,10 +21207,10 @@
     </row>
     <row r="232" spans="1:43" ht="16">
       <c r="A232" s="28" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B232" s="28" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C232" s="30">
         <f t="shared" si="12"/>
@@ -21170,7 +21227,7 @@
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I232" s="28" t="s">
         <v>88</v>
@@ -21180,7 +21237,7 @@
       </c>
       <c r="K232" s="28"/>
       <c r="L232" s="28" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="M232" s="30"/>
       <c r="N232" s="28">
@@ -21190,7 +21247,7 @@
         <v>1</v>
       </c>
       <c r="P232" s="8" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="Q232" s="28">
         <v>1</v>
@@ -21226,10 +21283,10 @@
     </row>
     <row r="233" spans="1:43" ht="16">
       <c r="A233" s="28" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B233" s="28" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C233" s="30">
         <f t="shared" si="12"/>
@@ -21246,7 +21303,7 @@
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I233" s="28" t="s">
         <v>147</v>
@@ -21256,7 +21313,7 @@
       </c>
       <c r="K233" s="28"/>
       <c r="L233" s="28" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="M233" s="30"/>
       <c r="N233" s="28">
@@ -21266,7 +21323,7 @@
         <v>1</v>
       </c>
       <c r="P233" s="8" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="Q233" s="28">
         <v>1</v>
@@ -21302,10 +21359,10 @@
     </row>
     <row r="234" spans="1:43" ht="16">
       <c r="A234" s="28" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B234" s="28" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="C234" s="30">
         <f t="shared" si="12"/>
@@ -21322,7 +21379,7 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I234" s="28" t="s">
         <v>160</v>
@@ -21332,7 +21389,7 @@
       </c>
       <c r="K234" s="28"/>
       <c r="L234" s="28" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="M234" s="30"/>
       <c r="N234" s="28">
@@ -21342,7 +21399,7 @@
         <v>0</v>
       </c>
       <c r="P234" s="8" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="Q234" s="28">
         <v>1</v>
@@ -21378,10 +21435,10 @@
     </row>
     <row r="235" spans="1:43" ht="16">
       <c r="A235" s="28" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B235" s="28" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="C235" s="30">
         <f t="shared" si="12"/>
@@ -21398,17 +21455,17 @@
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I235" s="28" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="J235" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K235" s="28"/>
       <c r="L235" s="28" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="M235" s="28"/>
       <c r="N235" s="28">
@@ -21418,7 +21475,7 @@
         <v>0</v>
       </c>
       <c r="P235" s="8" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="Q235" s="28">
         <v>0</v>
@@ -21452,10 +21509,10 @@
     </row>
     <row r="236" spans="1:43" ht="16">
       <c r="A236" s="28" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B236" s="28" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="C236" s="30">
         <f t="shared" si="12"/>
@@ -21472,7 +21529,7 @@
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I236" s="28" t="s">
         <v>88</v>
@@ -21482,7 +21539,7 @@
       </c>
       <c r="K236" s="28"/>
       <c r="L236" s="28" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="M236" s="28"/>
       <c r="N236" s="28">
@@ -21492,7 +21549,7 @@
         <v>1</v>
       </c>
       <c r="P236" s="8" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="Q236" s="28">
         <v>1</v>
@@ -21528,10 +21585,10 @@
     </row>
     <row r="237" spans="1:43" ht="16">
       <c r="A237" s="28" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B237" s="28" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="C237" s="30">
         <f t="shared" si="12"/>
@@ -21548,7 +21605,7 @@
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I237" s="28" t="s">
         <v>147</v>
@@ -21558,7 +21615,7 @@
       </c>
       <c r="K237" s="28"/>
       <c r="L237" s="28" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="M237" s="28"/>
       <c r="N237" s="28">
@@ -21568,7 +21625,7 @@
         <v>1</v>
       </c>
       <c r="P237" s="8" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="Q237" s="28">
         <v>1</v>

--- a/updated_script/Graphtext_032619.xlsx
+++ b/updated_script/Graphtext_032619.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E76574A-7367-6546-BDF7-434FFD880C59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A9D00D-74D0-F748-9D5F-4BECF203B89D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="659">
   <si>
     <t>section</t>
   </si>
@@ -1242,9 +1242,6 @@
   </si>
   <si>
     <t>savings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personal Savings Rate, 1959 - 2015 </t>
   </si>
   <si>
     <t>The personal savings rate measures the percentage of disposable personal income households save.</t>
@@ -2023,9 +2020,6 @@
     <t>United States Bureau of Economic Analysis.</t>
   </si>
   <si>
-    <t>United States Census Bureau .</t>
-  </si>
-  <si>
     <t>Survey of Consumer Finances, 1989-2013 surveys.</t>
   </si>
   <si>
@@ -2033,6 +2027,27 @@
   </si>
   <si>
     <t>check source…verbose enough?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal Savings Rate, 1959–2015 </t>
+  </si>
+  <si>
+    <t>noAxisPadding, customLabelPosition</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>made some major changes to this, as I think it is incorrect in current published version</t>
+  </si>
+  <si>
+    <t>United States Census Bureau.</t>
+  </si>
+  <si>
+    <t>In millions</t>
+  </si>
+  <si>
+    <t>no source?</t>
   </si>
 </sst>
 </file>
@@ -2585,9 +2600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F153" sqref="F153:F160"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O161" sqref="O161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2633,7 +2648,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>7</v>
@@ -2729,10 +2744,10 @@
         <v>37</v>
       </c>
       <c r="AN1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="AP1" s="3" t="s">
         <v>40</v>
@@ -2763,7 +2778,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>44</v>
@@ -2814,7 +2829,6 @@
       <c r="AK2" s="28"/>
       <c r="AL2" s="28"/>
       <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
       <c r="AO2" s="28"/>
       <c r="AP2" s="28"/>
       <c r="AQ2" s="28"/>
@@ -2841,7 +2855,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>50</v>
@@ -2890,7 +2904,6 @@
       <c r="AK3" s="28"/>
       <c r="AL3" s="28"/>
       <c r="AM3" s="28"/>
-      <c r="AN3" s="28"/>
       <c r="AO3" s="28"/>
       <c r="AP3" s="28"/>
       <c r="AQ3" s="28"/>
@@ -2917,7 +2930,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>50</v>
@@ -2966,7 +2979,6 @@
       <c r="AK4" s="28"/>
       <c r="AL4" s="28"/>
       <c r="AM4" s="28"/>
-      <c r="AN4" s="28"/>
       <c r="AO4" s="28"/>
       <c r="AP4" s="28"/>
       <c r="AQ4" s="28"/>
@@ -2993,7 +3005,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>56</v>
@@ -3044,7 +3056,6 @@
       <c r="AK5" s="28"/>
       <c r="AL5" s="28"/>
       <c r="AM5" s="28"/>
-      <c r="AN5" s="28"/>
       <c r="AO5" s="28"/>
       <c r="AP5" s="28"/>
       <c r="AQ5" s="28"/>
@@ -3073,7 +3084,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>50</v>
@@ -3124,7 +3135,6 @@
       <c r="AK6" s="28"/>
       <c r="AL6" s="28"/>
       <c r="AM6" s="28"/>
-      <c r="AN6" s="28"/>
       <c r="AO6" s="28"/>
       <c r="AP6" s="28"/>
       <c r="AQ6" s="28"/>
@@ -3151,7 +3161,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>50</v>
@@ -3202,7 +3212,6 @@
       <c r="AK7" s="28"/>
       <c r="AL7" s="28"/>
       <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
       <c r="AO7" s="28"/>
       <c r="AP7" s="28"/>
       <c r="AQ7" s="28"/>
@@ -3229,7 +3238,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>50</v>
@@ -3280,7 +3289,6 @@
       <c r="AK8" s="28"/>
       <c r="AL8" s="28"/>
       <c r="AM8" s="28"/>
-      <c r="AN8" s="28"/>
       <c r="AO8" s="28"/>
       <c r="AP8" s="28"/>
       <c r="AQ8" s="28"/>
@@ -3307,7 +3315,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>50</v>
@@ -3358,7 +3366,6 @@
       <c r="AK9" s="28"/>
       <c r="AL9" s="28"/>
       <c r="AM9" s="28"/>
-      <c r="AN9" s="28"/>
       <c r="AO9" s="28"/>
       <c r="AP9" s="28"/>
       <c r="AQ9" s="28"/>
@@ -3385,7 +3392,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>50</v>
@@ -3436,7 +3443,6 @@
       <c r="AK10" s="28"/>
       <c r="AL10" s="28"/>
       <c r="AM10" s="28"/>
-      <c r="AN10" s="28"/>
       <c r="AO10" s="28"/>
       <c r="AP10" s="28"/>
       <c r="AQ10" s="28"/>
@@ -3463,7 +3469,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>50</v>
@@ -3514,7 +3520,6 @@
       <c r="AK11" s="28"/>
       <c r="AL11" s="28"/>
       <c r="AM11" s="28"/>
-      <c r="AN11" s="28"/>
       <c r="AO11" s="28"/>
       <c r="AP11" s="28"/>
       <c r="AQ11" s="28"/>
@@ -3541,7 +3546,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>50</v>
@@ -3592,7 +3597,6 @@
       <c r="AK12" s="28"/>
       <c r="AL12" s="28"/>
       <c r="AM12" s="28"/>
-      <c r="AN12" s="28"/>
       <c r="AO12" s="28"/>
       <c r="AP12" s="28"/>
       <c r="AQ12" s="28"/>
@@ -3621,7 +3625,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>50</v>
@@ -3672,7 +3676,6 @@
       <c r="AK13" s="28"/>
       <c r="AL13" s="28"/>
       <c r="AM13" s="28"/>
-      <c r="AN13" s="28"/>
       <c r="AO13" s="28"/>
       <c r="AP13" s="28"/>
       <c r="AQ13" s="28"/>
@@ -3699,7 +3702,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>50</v>
@@ -3750,7 +3753,6 @@
       <c r="AK14" s="28"/>
       <c r="AL14" s="28"/>
       <c r="AM14" s="28"/>
-      <c r="AN14" s="28"/>
       <c r="AO14" s="28"/>
       <c r="AP14" s="28"/>
       <c r="AQ14" s="28"/>
@@ -3777,7 +3779,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>50</v>
@@ -3828,7 +3830,6 @@
       <c r="AK15" s="28"/>
       <c r="AL15" s="28"/>
       <c r="AM15" s="28"/>
-      <c r="AN15" s="28"/>
       <c r="AO15" s="28"/>
       <c r="AP15" s="28"/>
       <c r="AQ15" s="28"/>
@@ -3856,7 +3857,7 @@
         <v>87</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>87</v>
@@ -3919,7 +3920,6 @@
       <c r="AK16" s="28"/>
       <c r="AL16" s="28"/>
       <c r="AM16" s="28"/>
-      <c r="AN16" s="28"/>
       <c r="AO16" s="28"/>
       <c r="AP16" s="28"/>
       <c r="AQ16" s="28"/>
@@ -3947,7 +3947,7 @@
         <v>87</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>87</v>
@@ -4010,7 +4010,6 @@
       <c r="AK17" s="28"/>
       <c r="AL17" s="28"/>
       <c r="AM17" s="28"/>
-      <c r="AN17" s="28"/>
       <c r="AO17" s="28"/>
       <c r="AP17" s="28"/>
       <c r="AQ17" s="28"/>
@@ -4038,7 +4037,7 @@
         <v>87</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>87</v>
@@ -4101,7 +4100,6 @@
       <c r="AK18" s="28"/>
       <c r="AL18" s="28"/>
       <c r="AM18" s="28"/>
-      <c r="AN18" s="28"/>
       <c r="AO18" s="28"/>
       <c r="AP18" s="28"/>
       <c r="AQ18" s="28"/>
@@ -4129,7 +4127,7 @@
         <v>87</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>87</v>
@@ -4192,7 +4190,6 @@
       <c r="AK19" s="28"/>
       <c r="AL19" s="28"/>
       <c r="AM19" s="28"/>
-      <c r="AN19" s="28"/>
       <c r="AO19" s="28"/>
       <c r="AP19" s="28"/>
       <c r="AQ19" s="28"/>
@@ -4220,7 +4217,7 @@
         <v>87</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>87</v>
@@ -4283,7 +4280,6 @@
       <c r="AK20" s="28"/>
       <c r="AL20" s="28"/>
       <c r="AM20" s="28"/>
-      <c r="AN20" s="28"/>
       <c r="AO20" s="28"/>
       <c r="AP20" s="28"/>
       <c r="AQ20" s="28"/>
@@ -4311,7 +4307,7 @@
         <v>87</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>87</v>
@@ -4374,7 +4370,6 @@
       <c r="AK21" s="28"/>
       <c r="AL21" s="28"/>
       <c r="AM21" s="28"/>
-      <c r="AN21" s="28"/>
       <c r="AO21" s="28"/>
       <c r="AP21" s="28"/>
       <c r="AQ21" s="28"/>
@@ -4402,7 +4397,7 @@
         <v>87</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>87</v>
@@ -4465,7 +4460,6 @@
       <c r="AK22" s="28"/>
       <c r="AL22" s="28"/>
       <c r="AM22" s="28"/>
-      <c r="AN22" s="28"/>
       <c r="AO22" s="28"/>
       <c r="AP22" s="28"/>
       <c r="AQ22" s="28"/>
@@ -4493,7 +4487,7 @@
         <v>87</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>87</v>
@@ -4565,7 +4559,7 @@
         <v>87</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>87</v>
@@ -4636,7 +4630,7 @@
         <v>87</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>87</v>
@@ -4707,7 +4701,7 @@
         <v>87</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>87</v>
@@ -4781,7 +4775,7 @@
         <v>117</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>56</v>
@@ -4838,7 +4832,6 @@
       <c r="AK27" s="28"/>
       <c r="AL27" s="28"/>
       <c r="AM27" s="28"/>
-      <c r="AN27" s="28"/>
       <c r="AO27" s="28"/>
       <c r="AP27" s="28"/>
       <c r="AQ27" s="28"/>
@@ -4924,7 +4917,6 @@
       <c r="AK28" s="28"/>
       <c r="AL28" s="28"/>
       <c r="AM28" s="28"/>
-      <c r="AN28" s="28"/>
       <c r="AO28" s="28"/>
       <c r="AP28" s="28"/>
       <c r="AQ28" s="28"/>
@@ -4955,7 +4947,7 @@
         <v>117</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>44</v>
@@ -5008,7 +5000,6 @@
       <c r="AK29" s="28"/>
       <c r="AL29" s="28"/>
       <c r="AM29" s="28"/>
-      <c r="AN29" s="28"/>
       <c r="AO29" s="28"/>
       <c r="AP29" s="28"/>
       <c r="AQ29" s="28"/>
@@ -5036,7 +5027,7 @@
         <v>87</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>87</v>
@@ -5096,7 +5087,6 @@
       <c r="AK30" s="28"/>
       <c r="AL30" s="28"/>
       <c r="AM30" s="28"/>
-      <c r="AN30" s="28"/>
       <c r="AO30" s="28"/>
       <c r="AP30" s="28"/>
       <c r="AQ30" s="28"/>
@@ -5124,7 +5114,7 @@
         <v>87</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>87</v>
@@ -5187,7 +5177,6 @@
       <c r="AK31" s="28"/>
       <c r="AL31" s="28"/>
       <c r="AM31" s="28"/>
-      <c r="AN31" s="28"/>
       <c r="AO31" s="28"/>
       <c r="AP31" s="28"/>
       <c r="AQ31" s="28"/>
@@ -5215,7 +5204,7 @@
         <v>87</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>87</v>
@@ -5278,7 +5267,6 @@
       <c r="AK32" s="28"/>
       <c r="AL32" s="28"/>
       <c r="AM32" s="28"/>
-      <c r="AN32" s="28"/>
       <c r="AO32" s="28"/>
       <c r="AP32" s="28"/>
       <c r="AQ32" s="28"/>
@@ -5306,7 +5294,7 @@
         <v>87</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>87</v>
@@ -5366,7 +5354,6 @@
       <c r="AK33" s="28"/>
       <c r="AL33" s="28"/>
       <c r="AM33" s="28"/>
-      <c r="AN33" s="28"/>
       <c r="AO33" s="28"/>
       <c r="AP33" s="28"/>
       <c r="AQ33" s="28"/>
@@ -5394,7 +5381,7 @@
         <v>87</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>87</v>
@@ -5457,7 +5444,6 @@
       <c r="AK34" s="28"/>
       <c r="AL34" s="28"/>
       <c r="AM34" s="28"/>
-      <c r="AN34" s="28"/>
       <c r="AO34" s="28"/>
       <c r="AP34" s="28"/>
       <c r="AQ34" s="28"/>
@@ -5485,10 +5471,10 @@
         <v>87</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I35" s="30" t="s">
         <v>44</v>
@@ -5538,7 +5524,6 @@
       <c r="AK35" s="28"/>
       <c r="AL35" s="28"/>
       <c r="AM35" s="28"/>
-      <c r="AN35" s="28"/>
       <c r="AO35" s="28"/>
       <c r="AP35" s="28"/>
       <c r="AQ35" s="28"/>
@@ -5566,10 +5551,10 @@
         <v>87</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I36" s="28" t="s">
         <v>44</v>
@@ -5620,7 +5605,6 @@
       <c r="AK36" s="28"/>
       <c r="AL36" s="28"/>
       <c r="AM36" s="28"/>
-      <c r="AN36" s="28"/>
       <c r="AO36" s="28"/>
       <c r="AP36" s="28"/>
       <c r="AQ36" s="28"/>
@@ -5648,10 +5632,10 @@
         <v>87</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I37" s="35" t="s">
         <v>160</v>
@@ -5702,7 +5686,6 @@
       <c r="AK37" s="28"/>
       <c r="AL37" s="28"/>
       <c r="AM37" s="28"/>
-      <c r="AN37" s="28"/>
       <c r="AO37" s="28"/>
       <c r="AP37" s="28"/>
       <c r="AQ37" s="28"/>
@@ -5730,10 +5713,10 @@
         <v>87</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I38" s="28" t="s">
         <v>56</v>
@@ -5790,7 +5773,6 @@
       <c r="AK38" s="28"/>
       <c r="AL38" s="28"/>
       <c r="AM38" s="28"/>
-      <c r="AN38" s="28"/>
       <c r="AO38" s="28"/>
       <c r="AP38" s="28"/>
       <c r="AQ38" s="28"/>
@@ -5815,13 +5797,13 @@
         <v>3</v>
       </c>
       <c r="F39" s="36" t="s">
+        <v>597</v>
+      </c>
+      <c r="G39" s="36" t="s">
         <v>598</v>
       </c>
-      <c r="G39" s="36" t="s">
-        <v>599</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I39" s="28" t="s">
         <v>44</v>
@@ -5876,7 +5858,6 @@
       <c r="AK39" s="28"/>
       <c r="AL39" s="28"/>
       <c r="AM39" s="28"/>
-      <c r="AN39" s="28"/>
       <c r="AO39" s="28"/>
       <c r="AP39" s="28"/>
       <c r="AQ39" s="28"/>
@@ -5904,10 +5885,10 @@
         <v>87</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I40" s="28" t="s">
         <v>44</v>
@@ -5958,7 +5939,6 @@
       <c r="AK40" s="28"/>
       <c r="AL40" s="28"/>
       <c r="AM40" s="28"/>
-      <c r="AN40" s="28"/>
       <c r="AO40" s="28"/>
       <c r="AP40" s="28"/>
       <c r="AQ40" s="28"/>
@@ -5986,10 +5966,10 @@
         <v>87</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I41" s="28" t="s">
         <v>44</v>
@@ -6040,7 +6020,6 @@
       <c r="AK41" s="28"/>
       <c r="AL41" s="28"/>
       <c r="AM41" s="28"/>
-      <c r="AN41" s="28"/>
       <c r="AO41" s="28"/>
       <c r="AP41" s="28"/>
       <c r="AQ41" s="28"/>
@@ -6068,10 +6047,10 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="37" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I42" s="28" t="s">
         <v>50</v>
@@ -6120,7 +6099,6 @@
       <c r="AK42" s="28"/>
       <c r="AL42" s="28"/>
       <c r="AM42" s="28"/>
-      <c r="AN42" s="28"/>
       <c r="AO42" s="28"/>
       <c r="AP42" s="28"/>
       <c r="AQ42" s="28"/>
@@ -6148,10 +6126,10 @@
         <v>87</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I43" s="28" t="s">
         <v>160</v>
@@ -6200,7 +6178,6 @@
       <c r="AK43" s="28"/>
       <c r="AL43" s="28"/>
       <c r="AM43" s="28"/>
-      <c r="AN43" s="28"/>
       <c r="AO43" s="28"/>
       <c r="AP43" s="28"/>
       <c r="AQ43" s="28"/>
@@ -6226,10 +6203,10 @@
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I44" s="28" t="s">
         <v>44</v>
@@ -6280,7 +6257,6 @@
       <c r="AK44" s="28"/>
       <c r="AL44" s="28"/>
       <c r="AM44" s="28"/>
-      <c r="AN44" s="28"/>
       <c r="AO44" s="28"/>
       <c r="AP44" s="28"/>
       <c r="AQ44" s="28"/>
@@ -6306,10 +6282,10 @@
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="37" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I45" s="28" t="s">
         <v>44</v>
@@ -6362,7 +6338,6 @@
       <c r="AK45" s="28"/>
       <c r="AL45" s="28"/>
       <c r="AM45" s="28"/>
-      <c r="AN45" s="28"/>
       <c r="AO45" s="28"/>
       <c r="AP45" s="28"/>
       <c r="AQ45" s="28"/>
@@ -6391,7 +6366,7 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I46" s="28" t="s">
         <v>56</v>
@@ -6442,7 +6417,6 @@
       <c r="AK46" s="28"/>
       <c r="AL46" s="28"/>
       <c r="AM46" s="28"/>
-      <c r="AN46" s="28"/>
       <c r="AO46" s="28"/>
       <c r="AP46" s="28"/>
       <c r="AQ46" s="28"/>
@@ -6470,10 +6444,10 @@
         <v>87</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I47" s="30" t="s">
         <v>147</v>
@@ -6524,7 +6498,6 @@
       <c r="AK47" s="28"/>
       <c r="AL47" s="28"/>
       <c r="AM47" s="28"/>
-      <c r="AN47" s="28"/>
       <c r="AO47" s="28"/>
       <c r="AP47" s="28"/>
       <c r="AQ47" s="28"/>
@@ -6552,7 +6525,7 @@
         <v>87</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>87</v>
@@ -6565,7 +6538,7 @@
         <v>177</v>
       </c>
       <c r="L48" s="38" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M48" s="30"/>
       <c r="N48" s="30">
@@ -6613,7 +6586,6 @@
       <c r="AK48" s="28"/>
       <c r="AL48" s="28"/>
       <c r="AM48" s="28"/>
-      <c r="AN48" s="28"/>
       <c r="AO48" s="28"/>
       <c r="AP48" s="28"/>
       <c r="AQ48" s="28"/>
@@ -6641,7 +6613,7 @@
         <v>87</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>87</v>
@@ -6702,7 +6674,6 @@
       <c r="AK49" s="28"/>
       <c r="AL49" s="28"/>
       <c r="AM49" s="28"/>
-      <c r="AN49" s="28"/>
       <c r="AO49" s="28"/>
       <c r="AP49" s="28"/>
       <c r="AQ49" s="28"/>
@@ -6730,7 +6701,7 @@
         <v>87</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>87</v>
@@ -6791,7 +6762,6 @@
       <c r="AK50" s="28"/>
       <c r="AL50" s="28"/>
       <c r="AM50" s="28"/>
-      <c r="AN50" s="28"/>
       <c r="AO50" s="28"/>
       <c r="AP50" s="28"/>
       <c r="AQ50" s="28"/>
@@ -6817,7 +6787,7 @@
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="37" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>87</v>
@@ -6880,7 +6850,6 @@
       <c r="AK51" s="28"/>
       <c r="AL51" s="28"/>
       <c r="AM51" s="28"/>
-      <c r="AN51" s="28"/>
       <c r="AO51" s="28"/>
       <c r="AP51" s="28"/>
       <c r="AQ51" s="28"/>
@@ -6908,10 +6877,10 @@
         <v>87</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I52" s="28" t="s">
         <v>56</v>
@@ -6952,7 +6921,7 @@
       <c r="AC52" s="28"/>
       <c r="AD52" s="28"/>
       <c r="AE52" s="38" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AF52" s="28"/>
       <c r="AG52" s="28"/>
@@ -6962,7 +6931,6 @@
       <c r="AK52" s="28"/>
       <c r="AL52" s="28"/>
       <c r="AM52" s="28"/>
-      <c r="AN52" s="28"/>
       <c r="AO52" s="28"/>
       <c r="AP52" s="28"/>
       <c r="AQ52" s="28"/>
@@ -6992,10 +6960,10 @@
         <v>87</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I53" s="28" t="s">
         <v>56</v>
@@ -7044,7 +7012,7 @@
       <c r="AK53" s="28"/>
       <c r="AL53" s="28"/>
       <c r="AM53" s="28"/>
-      <c r="AN53" s="28">
+      <c r="AO53" s="28">
         <v>320</v>
       </c>
       <c r="AP53" s="28"/>
@@ -7074,7 +7042,7 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I54" s="28" t="s">
         <v>50</v>
@@ -7105,7 +7073,7 @@
       <c r="S54" s="38"/>
       <c r="T54" s="28"/>
       <c r="U54" s="38" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="V54" s="28"/>
       <c r="W54" s="28"/>
@@ -7127,7 +7095,6 @@
       <c r="AM54" s="28">
         <v>30</v>
       </c>
-      <c r="AN54" s="28"/>
       <c r="AO54" s="28"/>
       <c r="AP54" s="28"/>
       <c r="AQ54" s="28"/>
@@ -7214,7 +7181,6 @@
       <c r="AK55" s="28"/>
       <c r="AL55" s="28"/>
       <c r="AM55" s="28"/>
-      <c r="AN55" s="28"/>
       <c r="AO55" s="28"/>
       <c r="AP55" s="28"/>
       <c r="AQ55" s="28"/>
@@ -7301,7 +7267,6 @@
       <c r="AK56" s="28"/>
       <c r="AL56" s="28"/>
       <c r="AM56" s="28"/>
-      <c r="AN56" s="28"/>
       <c r="AO56" s="28"/>
       <c r="AP56" s="28"/>
       <c r="AQ56" s="28"/>
@@ -7388,7 +7353,6 @@
       <c r="AK57" s="28"/>
       <c r="AL57" s="28"/>
       <c r="AM57" s="28"/>
-      <c r="AN57" s="28"/>
       <c r="AO57" s="28"/>
       <c r="AP57" s="28"/>
       <c r="AQ57" s="28"/>
@@ -7475,7 +7439,6 @@
       <c r="AK58" s="28"/>
       <c r="AL58" s="28"/>
       <c r="AM58" s="28"/>
-      <c r="AN58" s="28"/>
       <c r="AO58" s="28"/>
       <c r="AP58" s="28"/>
       <c r="AQ58" s="28"/>
@@ -7561,7 +7524,6 @@
       <c r="AK59" s="28"/>
       <c r="AL59" s="28"/>
       <c r="AM59" s="28"/>
-      <c r="AN59" s="28"/>
       <c r="AO59" s="28"/>
       <c r="AP59" s="28"/>
       <c r="AQ59" s="28"/>
@@ -7647,7 +7609,6 @@
       <c r="AK60" s="28"/>
       <c r="AL60" s="28"/>
       <c r="AM60" s="28"/>
-      <c r="AN60" s="28"/>
       <c r="AO60" s="28"/>
       <c r="AP60" s="28"/>
       <c r="AQ60" s="28"/>
@@ -7676,7 +7637,7 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I61" s="28" t="s">
         <v>56</v>
@@ -7729,7 +7690,6 @@
       <c r="AK61" s="28"/>
       <c r="AL61" s="28"/>
       <c r="AM61" s="28"/>
-      <c r="AN61" s="28"/>
       <c r="AO61" s="28"/>
       <c r="AP61" s="28"/>
       <c r="AQ61" s="28"/>
@@ -7758,7 +7718,7 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I62" s="28" t="s">
         <v>56</v>
@@ -7811,7 +7771,6 @@
       <c r="AK62" s="28"/>
       <c r="AL62" s="28"/>
       <c r="AM62" s="28"/>
-      <c r="AN62" s="28"/>
       <c r="AO62" s="28"/>
       <c r="AP62" s="28"/>
       <c r="AQ62" s="28"/>
@@ -7836,13 +7795,13 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G63" s="37" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I63" s="30" t="s">
         <v>50</v>
@@ -7890,7 +7849,6 @@
       <c r="AK63" s="28"/>
       <c r="AL63" s="28"/>
       <c r="AM63" s="28"/>
-      <c r="AN63" s="28"/>
       <c r="AO63" s="28"/>
       <c r="AP63" s="28"/>
       <c r="AQ63" s="28"/>
@@ -7915,13 +7873,13 @@
         <v>2</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G64" s="37" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I64" s="30" t="s">
         <v>50</v>
@@ -7970,7 +7928,6 @@
       <c r="AK64" s="28"/>
       <c r="AL64" s="28"/>
       <c r="AM64" s="28"/>
-      <c r="AN64" s="28"/>
       <c r="AO64" s="28"/>
       <c r="AP64" s="28"/>
       <c r="AQ64" s="28"/>
@@ -7996,7 +7953,7 @@
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>87</v>
@@ -8049,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="AE65" s="40" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AF65" s="28"/>
       <c r="AG65" s="28"/>
@@ -8059,7 +8016,6 @@
       <c r="AK65" s="28"/>
       <c r="AL65" s="28"/>
       <c r="AM65" s="28"/>
-      <c r="AN65" s="28"/>
       <c r="AO65" s="28"/>
       <c r="AP65" s="28"/>
       <c r="AQ65" s="28"/>
@@ -8085,7 +8041,7 @@
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>87</v>
@@ -8138,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="AE66" s="40" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AF66" s="28"/>
       <c r="AG66" s="28"/>
@@ -8148,7 +8104,6 @@
       <c r="AK66" s="28"/>
       <c r="AL66" s="28"/>
       <c r="AM66" s="28"/>
-      <c r="AN66" s="28"/>
       <c r="AO66" s="28"/>
       <c r="AP66" s="28"/>
       <c r="AQ66" s="28"/>
@@ -8174,7 +8129,7 @@
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>87</v>
@@ -8227,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="AE67" s="40" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AF67" s="28"/>
       <c r="AG67" s="28"/>
@@ -8237,7 +8192,6 @@
       <c r="AK67" s="28"/>
       <c r="AL67" s="28"/>
       <c r="AM67" s="28"/>
-      <c r="AN67" s="28"/>
       <c r="AO67" s="28"/>
       <c r="AP67" s="28"/>
       <c r="AQ67" s="28"/>
@@ -8263,7 +8217,7 @@
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>87</v>
@@ -8316,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="AE68" s="40" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AF68" s="28"/>
       <c r="AG68" s="28"/>
@@ -8326,7 +8280,6 @@
       <c r="AK68" s="28"/>
       <c r="AL68" s="28"/>
       <c r="AM68" s="28"/>
-      <c r="AN68" s="28"/>
       <c r="AO68" s="28"/>
       <c r="AP68" s="28"/>
       <c r="AQ68" s="28"/>
@@ -8354,7 +8307,7 @@
         <v>87</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>87</v>
@@ -8366,7 +8319,7 @@
         <v>291</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L69" s="28" t="s">
         <v>232</v>
@@ -8416,7 +8369,6 @@
       <c r="AK69" s="28"/>
       <c r="AL69" s="28"/>
       <c r="AM69" s="28"/>
-      <c r="AN69" s="28"/>
       <c r="AO69" s="28"/>
       <c r="AP69" s="28"/>
       <c r="AQ69" s="28"/>
@@ -8444,7 +8396,7 @@
         <v>87</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>87</v>
@@ -8456,7 +8408,7 @@
         <v>291</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L70" s="28" t="s">
         <v>234</v>
@@ -8507,7 +8459,6 @@
       <c r="AK70" s="28"/>
       <c r="AL70" s="28"/>
       <c r="AM70" s="28"/>
-      <c r="AN70" s="28"/>
       <c r="AO70" s="28"/>
       <c r="AP70" s="28"/>
       <c r="AQ70" s="28"/>
@@ -8535,7 +8486,7 @@
         <v>87</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>87</v>
@@ -8547,7 +8498,7 @@
         <v>291</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L71" s="28" t="s">
         <v>236</v>
@@ -8598,7 +8549,6 @@
       <c r="AK71" s="28"/>
       <c r="AL71" s="28"/>
       <c r="AM71" s="28"/>
-      <c r="AN71" s="28"/>
       <c r="AO71" s="28"/>
       <c r="AP71" s="28"/>
       <c r="AQ71" s="28"/>
@@ -8626,7 +8576,7 @@
         <v>87</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>87</v>
@@ -8638,7 +8588,7 @@
         <v>291</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>238</v>
@@ -8695,7 +8645,7 @@
         <v>87</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>87</v>
@@ -8707,7 +8657,7 @@
         <v>291</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>240</v>
@@ -8763,7 +8713,7 @@
         <v>87</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>87</v>
@@ -8775,7 +8725,7 @@
         <v>291</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L74" s="28" t="s">
         <v>232</v>
@@ -8831,7 +8781,7 @@
         <v>87</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>87</v>
@@ -8843,7 +8793,7 @@
         <v>291</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L75" s="28" t="s">
         <v>234</v>
@@ -8855,7 +8805,7 @@
         <v>0</v>
       </c>
       <c r="P75" s="14" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Q75" s="28">
         <v>0</v>
@@ -8899,7 +8849,7 @@
         <v>87</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>87</v>
@@ -8911,7 +8861,7 @@
         <v>291</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L76" s="28" t="s">
         <v>236</v>
@@ -8923,7 +8873,7 @@
         <v>0</v>
       </c>
       <c r="P76" s="14" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="Q76" s="28">
         <v>0</v>
@@ -8967,7 +8917,7 @@
         <v>87</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>87</v>
@@ -8979,7 +8929,7 @@
         <v>291</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L77" s="7" t="s">
         <v>238</v>
@@ -9035,7 +8985,7 @@
         <v>87</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>87</v>
@@ -9047,7 +8997,7 @@
         <v>291</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L78" s="7" t="s">
         <v>240</v>
@@ -9103,7 +9053,7 @@
         <v>87</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>87</v>
@@ -9115,7 +9065,7 @@
         <v>291</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L79" s="28" t="s">
         <v>232</v>
@@ -9171,7 +9121,7 @@
         <v>87</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>87</v>
@@ -9183,7 +9133,7 @@
         <v>291</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L80" s="28" t="s">
         <v>234</v>
@@ -9239,7 +9189,7 @@
         <v>87</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>87</v>
@@ -9251,7 +9201,7 @@
         <v>291</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L81" s="28" t="s">
         <v>236</v>
@@ -9307,7 +9257,7 @@
         <v>87</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>87</v>
@@ -9319,7 +9269,7 @@
         <v>291</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>238</v>
@@ -9375,7 +9325,7 @@
         <v>87</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>87</v>
@@ -9387,7 +9337,7 @@
         <v>291</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>240</v>
@@ -9443,7 +9393,7 @@
         <v>87</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>87</v>
@@ -9455,7 +9405,7 @@
         <v>291</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L84" s="28" t="s">
         <v>232</v>
@@ -9511,7 +9461,7 @@
         <v>87</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>87</v>
@@ -9523,7 +9473,7 @@
         <v>291</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L85" s="28" t="s">
         <v>234</v>
@@ -9579,7 +9529,7 @@
         <v>87</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>87</v>
@@ -9591,7 +9541,7 @@
         <v>291</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L86" s="28" t="s">
         <v>236</v>
@@ -9647,7 +9597,7 @@
         <v>87</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>87</v>
@@ -9659,7 +9609,7 @@
         <v>291</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L87" s="7" t="s">
         <v>238</v>
@@ -9715,7 +9665,7 @@
         <v>87</v>
       </c>
       <c r="G88" s="37" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>87</v>
@@ -9727,7 +9677,7 @@
         <v>291</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L88" s="7" t="s">
         <v>240</v>
@@ -9786,10 +9736,10 @@
         <v>87</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I89" s="30" t="s">
         <v>44</v>
@@ -9819,10 +9769,10 @@
       </c>
       <c r="T89" s="28"/>
       <c r="U89" s="40" t="s">
+        <v>627</v>
+      </c>
+      <c r="V89" s="40" t="s">
         <v>628</v>
-      </c>
-      <c r="V89" s="40" t="s">
-        <v>629</v>
       </c>
       <c r="W89" s="28"/>
       <c r="X89" s="28"/>
@@ -9845,7 +9795,6 @@
       <c r="AM89" s="28">
         <v>30</v>
       </c>
-      <c r="AN89" s="28"/>
       <c r="AO89" s="28"/>
       <c r="AP89" s="28"/>
       <c r="AQ89" s="28"/>
@@ -9874,7 +9823,7 @@
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I90" s="30" t="s">
         <v>160</v>
@@ -9923,7 +9872,6 @@
       <c r="AK90" s="28"/>
       <c r="AL90" s="28"/>
       <c r="AM90" s="28"/>
-      <c r="AN90" s="28"/>
       <c r="AO90" s="28"/>
       <c r="AP90" s="28"/>
       <c r="AQ90" s="28"/>
@@ -10013,7 +9961,6 @@
       <c r="AK91" s="28"/>
       <c r="AL91" s="28"/>
       <c r="AM91" s="28"/>
-      <c r="AN91" s="28"/>
       <c r="AO91" s="28"/>
       <c r="AP91" s="28"/>
       <c r="AQ91" s="28"/>
@@ -10105,7 +10052,6 @@
       <c r="AK92" s="28"/>
       <c r="AL92" s="28"/>
       <c r="AM92" s="28"/>
-      <c r="AN92" s="28"/>
       <c r="AO92" s="28"/>
       <c r="AP92" s="28"/>
       <c r="AQ92" s="28"/>
@@ -10195,7 +10141,6 @@
       <c r="AK93" s="28"/>
       <c r="AL93" s="28"/>
       <c r="AM93" s="28"/>
-      <c r="AN93" s="28"/>
       <c r="AO93" s="28"/>
       <c r="AP93" s="28"/>
       <c r="AQ93" s="28"/>
@@ -10285,7 +10230,6 @@
       <c r="AK94" s="28"/>
       <c r="AL94" s="28"/>
       <c r="AM94" s="28"/>
-      <c r="AN94" s="28"/>
       <c r="AO94" s="28"/>
       <c r="AP94" s="28"/>
       <c r="AQ94" s="28"/>
@@ -10375,7 +10319,6 @@
       <c r="AK95" s="28"/>
       <c r="AL95" s="28"/>
       <c r="AM95" s="28"/>
-      <c r="AN95" s="28"/>
       <c r="AO95" s="28"/>
       <c r="AP95" s="28"/>
       <c r="AQ95" s="28"/>
@@ -10404,7 +10347,7 @@
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I96" s="30" t="s">
         <v>44</v>
@@ -10453,7 +10396,6 @@
       <c r="AK96" s="28"/>
       <c r="AL96" s="28"/>
       <c r="AM96" s="28"/>
-      <c r="AN96" s="28"/>
       <c r="AO96" s="28"/>
       <c r="AP96" s="28"/>
       <c r="AQ96" s="28"/>
@@ -10481,10 +10423,10 @@
         <v>87</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I97" s="30" t="s">
         <v>50</v>
@@ -10535,7 +10477,6 @@
       <c r="AK97" s="28"/>
       <c r="AL97" s="28"/>
       <c r="AM97" s="28"/>
-      <c r="AN97" s="28"/>
       <c r="AO97" s="28"/>
       <c r="AP97" s="28"/>
       <c r="AQ97" s="28"/>
@@ -10561,7 +10502,7 @@
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="37" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>87</v>
@@ -10622,7 +10563,6 @@
       <c r="AK98" s="28"/>
       <c r="AL98" s="28"/>
       <c r="AM98" s="28"/>
-      <c r="AN98" s="28"/>
       <c r="AO98" s="28"/>
       <c r="AP98" s="28"/>
       <c r="AQ98" s="28"/>
@@ -10709,7 +10649,6 @@
       <c r="AK99" s="28"/>
       <c r="AL99" s="28"/>
       <c r="AM99" s="28"/>
-      <c r="AN99" s="28"/>
       <c r="AO99" s="28"/>
       <c r="AP99" s="28"/>
       <c r="AQ99" s="28"/>
@@ -10737,10 +10676,10 @@
         <v>87</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I100" s="30" t="s">
         <v>50</v>
@@ -10790,7 +10729,6 @@
       <c r="AK100" s="28"/>
       <c r="AL100" s="28"/>
       <c r="AM100" s="28"/>
-      <c r="AN100" s="28"/>
       <c r="AO100" s="28"/>
       <c r="AP100" s="28"/>
       <c r="AQ100" s="28"/>
@@ -10818,10 +10756,10 @@
       </c>
       <c r="F101" s="44"/>
       <c r="G101" s="44" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H101" s="44" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I101" s="44" t="s">
         <v>50</v>
@@ -10870,7 +10808,6 @@
       <c r="AK101" s="28"/>
       <c r="AL101" s="28"/>
       <c r="AM101" s="28"/>
-      <c r="AN101" s="28"/>
       <c r="AO101" s="28"/>
       <c r="AP101" s="28"/>
       <c r="AQ101" s="28"/>
@@ -10896,10 +10833,10 @@
       </c>
       <c r="F102" s="44"/>
       <c r="G102" s="44" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H102" s="44" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I102" s="44" t="s">
         <v>50</v>
@@ -10949,7 +10886,6 @@
       <c r="AK102" s="28"/>
       <c r="AL102" s="28"/>
       <c r="AM102" s="28"/>
-      <c r="AN102" s="28"/>
       <c r="AO102" s="28"/>
       <c r="AP102" s="28"/>
       <c r="AQ102" s="28"/>
@@ -10975,10 +10911,10 @@
       </c>
       <c r="F103" s="44"/>
       <c r="G103" s="44" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H103" s="44" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I103" s="44" t="s">
         <v>50</v>
@@ -11028,7 +10964,6 @@
       <c r="AK103" s="28"/>
       <c r="AL103" s="28"/>
       <c r="AM103" s="28"/>
-      <c r="AN103" s="28"/>
       <c r="AO103" s="28"/>
       <c r="AP103" s="28"/>
       <c r="AQ103" s="28"/>
@@ -11054,10 +10989,10 @@
       </c>
       <c r="F104" s="44"/>
       <c r="G104" s="44" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H104" s="44" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I104" s="44" t="s">
         <v>50</v>
@@ -11111,7 +11046,7 @@
         <v>87</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>87</v>
@@ -11164,7 +11099,7 @@
         <v>0</v>
       </c>
       <c r="AE105" s="40" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AF105" s="28"/>
       <c r="AG105" s="28"/>
@@ -11174,7 +11109,6 @@
       <c r="AK105" s="28"/>
       <c r="AL105" s="28"/>
       <c r="AM105" s="28"/>
-      <c r="AN105" s="28"/>
       <c r="AO105" s="28"/>
       <c r="AP105" s="28"/>
       <c r="AQ105" s="28"/>
@@ -11202,7 +11136,7 @@
         <v>87</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>87</v>
@@ -11254,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="AE106" s="40" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AF106" s="28"/>
       <c r="AG106" s="28"/>
@@ -11264,7 +11198,6 @@
       <c r="AK106" s="28"/>
       <c r="AL106" s="28"/>
       <c r="AM106" s="28"/>
-      <c r="AN106" s="28"/>
       <c r="AO106" s="28"/>
       <c r="AP106" s="28"/>
       <c r="AQ106" s="28"/>
@@ -11292,7 +11225,7 @@
         <v>87</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>87</v>
@@ -11345,7 +11278,7 @@
         <v>0</v>
       </c>
       <c r="AE107" s="40" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AF107" s="28"/>
       <c r="AG107" s="28"/>
@@ -11355,7 +11288,6 @@
       <c r="AK107" s="28"/>
       <c r="AL107" s="28"/>
       <c r="AM107" s="28"/>
-      <c r="AN107" s="28"/>
       <c r="AO107" s="28"/>
       <c r="AP107" s="28"/>
       <c r="AQ107" s="28"/>
@@ -11383,7 +11315,7 @@
         <v>87</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>87</v>
@@ -11436,7 +11368,7 @@
         <v>0</v>
       </c>
       <c r="AE108" s="40" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AF108" s="28"/>
       <c r="AG108" s="28"/>
@@ -11446,7 +11378,6 @@
       <c r="AK108" s="28"/>
       <c r="AL108" s="28"/>
       <c r="AM108" s="28"/>
-      <c r="AN108" s="28"/>
       <c r="AO108" s="28"/>
       <c r="AP108" s="28"/>
       <c r="AQ108" s="28"/>
@@ -11474,7 +11405,7 @@
         <v>87</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>87</v>
@@ -11527,7 +11458,7 @@
         <v>0</v>
       </c>
       <c r="AE109" s="40" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AF109" s="28"/>
       <c r="AG109" s="28"/>
@@ -11537,7 +11468,6 @@
       <c r="AK109" s="28"/>
       <c r="AL109" s="28"/>
       <c r="AM109" s="28"/>
-      <c r="AN109" s="28"/>
       <c r="AO109" s="28"/>
       <c r="AP109" s="28"/>
       <c r="AQ109" s="28"/>
@@ -11565,7 +11495,7 @@
         <v>87</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>87</v>
@@ -11618,7 +11548,7 @@
         <v>0</v>
       </c>
       <c r="AE110" s="40" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AF110" s="28"/>
       <c r="AG110" s="28"/>
@@ -11628,7 +11558,6 @@
       <c r="AK110" s="28"/>
       <c r="AL110" s="28"/>
       <c r="AM110" s="28"/>
-      <c r="AN110" s="28"/>
       <c r="AO110" s="28"/>
       <c r="AP110" s="28"/>
       <c r="AQ110" s="28"/>
@@ -11657,7 +11586,7 @@
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I111" s="30" t="s">
         <v>56</v>
@@ -11706,7 +11635,6 @@
       <c r="AK111" s="28"/>
       <c r="AL111" s="28"/>
       <c r="AM111" s="28"/>
-      <c r="AN111" s="28"/>
       <c r="AO111" s="28"/>
       <c r="AP111" s="28"/>
       <c r="AQ111" s="28"/>
@@ -11735,7 +11663,7 @@
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I112" s="30" t="s">
         <v>160</v>
@@ -11784,7 +11712,6 @@
       <c r="AK112" s="28"/>
       <c r="AL112" s="28"/>
       <c r="AM112" s="28"/>
-      <c r="AN112" s="28"/>
       <c r="AO112" s="28"/>
       <c r="AP112" s="28"/>
       <c r="AQ112" s="28"/>
@@ -11813,7 +11740,7 @@
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I113" s="30" t="s">
         <v>56</v>
@@ -11862,7 +11789,6 @@
       <c r="AK113" s="28"/>
       <c r="AL113" s="28"/>
       <c r="AM113" s="28"/>
-      <c r="AN113" s="28"/>
       <c r="AO113" s="28"/>
       <c r="AP113" s="28"/>
       <c r="AQ113" s="28"/>
@@ -11893,7 +11819,7 @@
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I114" s="30" t="s">
         <v>44</v>
@@ -11944,7 +11870,6 @@
       <c r="AK114" s="28"/>
       <c r="AL114" s="28"/>
       <c r="AM114" s="28"/>
-      <c r="AN114" s="28"/>
       <c r="AO114" s="28"/>
       <c r="AP114" s="28"/>
       <c r="AQ114" s="28"/>
@@ -11972,10 +11897,10 @@
         <v>87</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I115" s="30" t="s">
         <v>44</v>
@@ -12026,7 +11951,6 @@
       <c r="AK115" s="28"/>
       <c r="AL115" s="28"/>
       <c r="AM115" s="28"/>
-      <c r="AN115" s="28"/>
       <c r="AO115" s="28"/>
       <c r="AP115" s="28"/>
       <c r="AQ115" s="28"/>
@@ -12115,7 +12039,6 @@
       <c r="AK116" s="28"/>
       <c r="AL116" s="28"/>
       <c r="AM116" s="28"/>
-      <c r="AN116" s="28"/>
       <c r="AO116" s="28"/>
       <c r="AP116" s="28"/>
       <c r="AQ116" s="28"/>
@@ -12204,7 +12127,6 @@
       <c r="AK117" s="28"/>
       <c r="AL117" s="28"/>
       <c r="AM117" s="28"/>
-      <c r="AN117" s="28"/>
       <c r="AO117" s="28"/>
       <c r="AP117" s="28"/>
       <c r="AQ117" s="28"/>
@@ -12293,7 +12215,6 @@
       <c r="AK118" s="28"/>
       <c r="AL118" s="28"/>
       <c r="AM118" s="28"/>
-      <c r="AN118" s="28"/>
       <c r="AO118" s="28"/>
       <c r="AP118" s="28"/>
       <c r="AQ118" s="28"/>
@@ -12382,7 +12303,6 @@
       <c r="AK119" s="28"/>
       <c r="AL119" s="28"/>
       <c r="AM119" s="28"/>
-      <c r="AN119" s="28"/>
       <c r="AO119" s="28"/>
       <c r="AP119" s="28"/>
       <c r="AQ119" s="28"/>
@@ -12471,7 +12391,6 @@
       <c r="AK120" s="28"/>
       <c r="AL120" s="28"/>
       <c r="AM120" s="28"/>
-      <c r="AN120" s="28"/>
       <c r="AO120" s="28"/>
       <c r="AP120" s="28"/>
       <c r="AQ120" s="28"/>
@@ -12560,7 +12479,6 @@
       <c r="AK121" s="28"/>
       <c r="AL121" s="28"/>
       <c r="AM121" s="28"/>
-      <c r="AN121" s="28"/>
       <c r="AO121" s="28"/>
       <c r="AP121" s="28"/>
       <c r="AQ121" s="28"/>
@@ -12718,7 +12636,6 @@
       <c r="AK123" s="28"/>
       <c r="AL123" s="28"/>
       <c r="AM123" s="28"/>
-      <c r="AN123" s="28"/>
       <c r="AO123" s="28"/>
       <c r="AP123" s="28"/>
       <c r="AQ123" s="28"/>
@@ -12807,7 +12724,6 @@
       <c r="AK124" s="28"/>
       <c r="AL124" s="28"/>
       <c r="AM124" s="28"/>
-      <c r="AN124" s="28"/>
       <c r="AO124" s="28"/>
       <c r="AP124" s="28"/>
       <c r="AQ124" s="28"/>
@@ -12896,7 +12812,6 @@
       <c r="AK125" s="28"/>
       <c r="AL125" s="28"/>
       <c r="AM125" s="28"/>
-      <c r="AN125" s="28"/>
       <c r="AO125" s="28"/>
       <c r="AP125" s="28"/>
       <c r="AQ125" s="28"/>
@@ -12925,7 +12840,7 @@
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I126" s="41" t="s">
         <v>336</v>
@@ -12980,7 +12895,6 @@
       <c r="AK126" s="28"/>
       <c r="AL126" s="28"/>
       <c r="AM126" s="28"/>
-      <c r="AN126" s="28"/>
       <c r="AO126" s="28"/>
       <c r="AP126" s="28"/>
       <c r="AQ126" s="28"/>
@@ -13009,7 +12923,7 @@
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I127" s="30" t="s">
         <v>44</v>
@@ -13039,7 +12953,7 @@
       </c>
       <c r="T127" s="28"/>
       <c r="U127" s="40" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="V127" s="28"/>
       <c r="W127" s="28"/>
@@ -13059,7 +12973,6 @@
       <c r="AK127" s="28"/>
       <c r="AL127" s="28"/>
       <c r="AM127" s="28"/>
-      <c r="AN127" s="28"/>
       <c r="AO127" s="28"/>
       <c r="AP127" s="28"/>
       <c r="AQ127" s="28"/>
@@ -13087,10 +13000,10 @@
         <v>87</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I128" s="30" t="s">
         <v>50</v>
@@ -13140,7 +13053,6 @@
       <c r="AK128" s="28"/>
       <c r="AL128" s="28"/>
       <c r="AM128" s="28"/>
-      <c r="AN128" s="28"/>
       <c r="AO128" s="28"/>
       <c r="AP128" s="28"/>
       <c r="AQ128" s="28"/>
@@ -13168,10 +13080,10 @@
         <v>87</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I129" s="30" t="s">
         <v>50</v>
@@ -13202,7 +13114,7 @@
       <c r="S129" s="28"/>
       <c r="T129" s="28"/>
       <c r="U129" s="40" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="V129" s="28"/>
       <c r="W129" s="28"/>
@@ -13222,7 +13134,6 @@
       <c r="AK129" s="28"/>
       <c r="AL129" s="28"/>
       <c r="AM129" s="28"/>
-      <c r="AN129" s="28"/>
       <c r="AO129" s="28"/>
       <c r="AP129" s="28"/>
       <c r="AQ129" s="28"/>
@@ -13311,7 +13222,6 @@
       <c r="AK130" s="28"/>
       <c r="AL130" s="28"/>
       <c r="AM130" s="28"/>
-      <c r="AN130" s="28"/>
       <c r="AO130" s="28"/>
       <c r="AP130" s="28"/>
       <c r="AQ130" s="28"/>
@@ -13400,7 +13310,6 @@
       <c r="AK131" s="28"/>
       <c r="AL131" s="28"/>
       <c r="AM131" s="28"/>
-      <c r="AN131" s="28"/>
       <c r="AO131" s="28"/>
       <c r="AP131" s="28"/>
       <c r="AQ131" s="28"/>
@@ -13489,7 +13398,6 @@
       <c r="AK132" s="28"/>
       <c r="AL132" s="28"/>
       <c r="AM132" s="28"/>
-      <c r="AN132" s="28"/>
       <c r="AO132" s="28"/>
       <c r="AP132" s="28"/>
       <c r="AQ132" s="28"/>
@@ -13724,7 +13632,6 @@
       <c r="AK135" s="7"/>
       <c r="AL135" s="7"/>
       <c r="AM135" s="7"/>
-      <c r="AN135" s="7"/>
       <c r="AO135" s="7"/>
       <c r="AP135" s="7"/>
       <c r="AQ135" s="7"/>
@@ -13888,7 +13795,6 @@
       <c r="AK137" s="28"/>
       <c r="AL137" s="28"/>
       <c r="AM137" s="28"/>
-      <c r="AN137" s="28"/>
       <c r="AO137" s="28"/>
       <c r="AP137" s="28"/>
       <c r="AQ137" s="28"/>
@@ -13977,7 +13883,6 @@
       <c r="AK138" s="28"/>
       <c r="AL138" s="28"/>
       <c r="AM138" s="28"/>
-      <c r="AN138" s="28"/>
       <c r="AO138" s="28"/>
       <c r="AP138" s="28"/>
       <c r="AQ138" s="28"/>
@@ -14068,7 +13973,6 @@
       <c r="AK139" s="28"/>
       <c r="AL139" s="28"/>
       <c r="AM139" s="28"/>
-      <c r="AN139" s="28"/>
       <c r="AO139" s="28"/>
       <c r="AP139" s="28"/>
       <c r="AQ139" s="28"/>
@@ -14157,7 +14061,6 @@
       <c r="AK140" s="28"/>
       <c r="AL140" s="28"/>
       <c r="AM140" s="28"/>
-      <c r="AN140" s="28"/>
       <c r="AO140" s="28"/>
       <c r="AP140" s="28"/>
       <c r="AQ140" s="28"/>
@@ -14246,7 +14149,6 @@
       <c r="AK141" s="28"/>
       <c r="AL141" s="28"/>
       <c r="AM141" s="28"/>
-      <c r="AN141" s="28"/>
       <c r="AO141" s="28"/>
       <c r="AP141" s="28"/>
       <c r="AQ141" s="28"/>
@@ -14335,7 +14237,6 @@
       <c r="AK142" s="28"/>
       <c r="AL142" s="28"/>
       <c r="AM142" s="28"/>
-      <c r="AN142" s="28"/>
       <c r="AO142" s="28"/>
       <c r="AP142" s="28"/>
       <c r="AQ142" s="28"/>
@@ -14424,7 +14325,6 @@
       <c r="AK143" s="28"/>
       <c r="AL143" s="28"/>
       <c r="AM143" s="28"/>
-      <c r="AN143" s="28"/>
       <c r="AO143" s="28"/>
       <c r="AP143" s="28"/>
       <c r="AQ143" s="28"/>
@@ -14513,7 +14413,6 @@
       <c r="AK144" s="28"/>
       <c r="AL144" s="28"/>
       <c r="AM144" s="28"/>
-      <c r="AN144" s="28"/>
       <c r="AO144" s="28"/>
       <c r="AP144" s="28"/>
       <c r="AQ144" s="28"/>
@@ -14602,7 +14501,6 @@
       <c r="AK145" s="28"/>
       <c r="AL145" s="28"/>
       <c r="AM145" s="28"/>
-      <c r="AN145" s="28"/>
       <c r="AO145" s="28"/>
       <c r="AP145" s="28"/>
       <c r="AQ145" s="28"/>
@@ -14691,7 +14589,6 @@
       <c r="AK146" s="28"/>
       <c r="AL146" s="28"/>
       <c r="AM146" s="28"/>
-      <c r="AN146" s="28"/>
       <c r="AO146" s="28"/>
       <c r="AP146" s="28"/>
       <c r="AQ146" s="28"/>
@@ -14782,7 +14679,6 @@
       <c r="AK147" s="28"/>
       <c r="AL147" s="28"/>
       <c r="AM147" s="28"/>
-      <c r="AN147" s="28"/>
       <c r="AO147" s="28"/>
       <c r="AP147" s="28"/>
       <c r="AQ147" s="28"/>
@@ -14871,7 +14767,6 @@
       <c r="AK148" s="28"/>
       <c r="AL148" s="28"/>
       <c r="AM148" s="28"/>
-      <c r="AN148" s="28"/>
       <c r="AO148" s="28"/>
       <c r="AP148" s="28"/>
       <c r="AQ148" s="28"/>
@@ -14899,10 +14794,10 @@
         <v>87</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I149" s="41" t="s">
         <v>336</v>
@@ -14932,7 +14827,7 @@
       <c r="T149" s="28"/>
       <c r="U149" s="28"/>
       <c r="V149" s="40" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="W149" s="28"/>
       <c r="X149" s="28"/>
@@ -14953,7 +14848,6 @@
       <c r="AK149" s="28"/>
       <c r="AL149" s="28"/>
       <c r="AM149" s="28"/>
-      <c r="AN149" s="28"/>
       <c r="AO149" s="28"/>
       <c r="AP149" s="28"/>
       <c r="AQ149" s="28"/>
@@ -14982,7 +14876,7 @@
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I150" s="30" t="s">
         <v>44</v>
@@ -15031,7 +14925,6 @@
       <c r="AK150" s="28"/>
       <c r="AL150" s="28"/>
       <c r="AM150" s="28"/>
-      <c r="AN150" s="28"/>
       <c r="AO150" s="28"/>
       <c r="AP150" s="28"/>
       <c r="AQ150" s="28"/>
@@ -15057,10 +14950,10 @@
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I151" s="30" t="s">
         <v>44</v>
@@ -15107,7 +15000,6 @@
       <c r="AK151" s="28"/>
       <c r="AL151" s="28"/>
       <c r="AM151" s="28"/>
-      <c r="AN151" s="28"/>
       <c r="AO151" s="28"/>
       <c r="AP151" s="28"/>
       <c r="AQ151" s="28"/>
@@ -15133,10 +15025,10 @@
       </c>
       <c r="F152" s="37"/>
       <c r="G152" s="42" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H152" s="37" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I152" s="33" t="s">
         <v>44</v>
@@ -15144,7 +15036,7 @@
       <c r="J152" s="33"/>
       <c r="K152" s="33"/>
       <c r="L152" s="42" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M152" s="33"/>
       <c r="N152" s="33">
@@ -15154,7 +15046,7 @@
         <v>0</v>
       </c>
       <c r="P152" s="43" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Q152" s="28">
         <v>1</v>
@@ -15183,7 +15075,6 @@
       <c r="AK152" s="28"/>
       <c r="AL152" s="28"/>
       <c r="AM152" s="28"/>
-      <c r="AN152" s="28"/>
       <c r="AO152" s="28"/>
       <c r="AP152" s="28"/>
       <c r="AQ152" s="28"/>
@@ -15218,7 +15109,7 @@
         <v>44</v>
       </c>
       <c r="J153" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K153" s="10" t="s">
         <v>386</v>
@@ -15272,7 +15163,6 @@
       <c r="AK153" s="28"/>
       <c r="AL153" s="28"/>
       <c r="AM153" s="28"/>
-      <c r="AN153" s="28"/>
       <c r="AO153" s="28"/>
       <c r="AP153" s="28"/>
       <c r="AQ153" s="28"/>
@@ -15309,7 +15199,7 @@
         <v>44</v>
       </c>
       <c r="J154" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K154" s="10" t="s">
         <v>386</v>
@@ -15363,7 +15253,6 @@
       <c r="AK154" s="28"/>
       <c r="AL154" s="28"/>
       <c r="AM154" s="28"/>
-      <c r="AN154" s="28"/>
       <c r="AO154" s="28"/>
       <c r="AP154" s="28"/>
       <c r="AQ154" s="28"/>
@@ -15398,7 +15287,7 @@
         <v>44</v>
       </c>
       <c r="J155" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K155" s="10" t="s">
         <v>386</v>
@@ -15452,7 +15341,6 @@
       <c r="AK155" s="28"/>
       <c r="AL155" s="28"/>
       <c r="AM155" s="28"/>
-      <c r="AN155" s="28"/>
       <c r="AO155" s="28"/>
       <c r="AP155" s="28"/>
       <c r="AQ155" s="28"/>
@@ -15487,7 +15375,7 @@
         <v>44</v>
       </c>
       <c r="J156" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K156" s="10" t="s">
         <v>386</v>
@@ -15541,7 +15429,6 @@
       <c r="AK156" s="28"/>
       <c r="AL156" s="28"/>
       <c r="AM156" s="28"/>
-      <c r="AN156" s="28"/>
       <c r="AO156" s="28"/>
       <c r="AP156" s="28"/>
       <c r="AQ156" s="28"/>
@@ -15569,16 +15456,16 @@
         <v>87</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I157" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J157" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K157" s="11"/>
       <c r="L157" s="17" t="s">
@@ -15623,7 +15510,6 @@
       </c>
       <c r="AL157" s="28"/>
       <c r="AM157" s="28"/>
-      <c r="AN157" s="28"/>
       <c r="AO157" s="28"/>
       <c r="AP157" s="28"/>
       <c r="AQ157" s="28"/>
@@ -15651,16 +15537,16 @@
         <v>87</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I158" s="41" t="s">
         <v>44</v>
       </c>
       <c r="J158" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K158" s="11"/>
       <c r="L158" s="10" t="s">
@@ -15705,7 +15591,6 @@
       <c r="AK158" s="28"/>
       <c r="AL158" s="28"/>
       <c r="AM158" s="28"/>
-      <c r="AN158" s="28"/>
       <c r="AO158" s="28"/>
       <c r="AP158" s="28"/>
       <c r="AQ158" s="28"/>
@@ -15734,13 +15619,13 @@
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I159" s="30" t="s">
         <v>56</v>
       </c>
       <c r="J159" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K159" s="11"/>
       <c r="L159" s="11" t="s">
@@ -15783,7 +15668,6 @@
       <c r="AK159" s="28"/>
       <c r="AL159" s="28"/>
       <c r="AM159" s="28"/>
-      <c r="AN159" s="28"/>
       <c r="AO159" s="28"/>
       <c r="AP159" s="28"/>
       <c r="AQ159" s="28"/>
@@ -15811,10 +15695,10 @@
         <v>87</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I160" s="28" t="s">
         <v>56</v>
@@ -15863,7 +15747,6 @@
       <c r="AK160" s="28"/>
       <c r="AL160" s="28"/>
       <c r="AM160" s="28"/>
-      <c r="AN160" s="28"/>
       <c r="AO160" s="28"/>
       <c r="AP160" s="28"/>
       <c r="AQ160" s="28"/>
@@ -15887,32 +15770,34 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="F161" s="1"/>
+      <c r="F161" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I161" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J161" s="40" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K161" s="28"/>
-      <c r="L161" s="30" t="s">
+      <c r="L161" s="41" t="s">
+        <v>652</v>
+      </c>
+      <c r="M161" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="M161" s="28" t="s">
+      <c r="N161" s="28">
+        <v>0</v>
+      </c>
+      <c r="O161" s="28">
+        <v>0</v>
+      </c>
+      <c r="P161" s="28" t="s">
         <v>406</v>
-      </c>
-      <c r="N161" s="28">
-        <v>0</v>
-      </c>
-      <c r="O161" s="28">
-        <v>0</v>
-      </c>
-      <c r="P161" s="28" t="s">
-        <v>407</v>
       </c>
       <c r="Q161" s="28">
         <v>1</v>
@@ -15925,24 +15810,33 @@
       <c r="U161" s="28"/>
       <c r="V161" s="28"/>
       <c r="W161" s="28"/>
-      <c r="X161" s="28"/>
+      <c r="X161" s="28">
+        <v>10</v>
+      </c>
       <c r="Y161" s="28"/>
       <c r="Z161" s="28"/>
       <c r="AA161" s="28"/>
       <c r="AB161" s="28"/>
-      <c r="AC161" s="28"/>
-      <c r="AD161" s="28"/>
-      <c r="AE161" s="28"/>
+      <c r="AC161" s="2"/>
+      <c r="AD161" s="2"/>
+      <c r="AE161" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="AF161" s="28"/>
-      <c r="AG161" s="28"/>
-      <c r="AH161" s="28"/>
+      <c r="AG161" s="28">
+        <v>2</v>
+      </c>
+      <c r="AH161" s="28">
+        <v>2</v>
+      </c>
       <c r="AI161" s="28"/>
       <c r="AJ161" s="28"/>
       <c r="AK161" s="28"/>
       <c r="AL161" s="28"/>
       <c r="AM161" s="28"/>
-      <c r="AN161" s="28"/>
-      <c r="AO161" s="28"/>
+      <c r="AO161" s="28">
+        <v>400</v>
+      </c>
       <c r="AP161" s="28"/>
       <c r="AQ161" s="28"/>
     </row>
@@ -15965,20 +15859,22 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="F162" s="1"/>
+      <c r="F162" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G162" s="1"/>
       <c r="H162" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I162" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J162" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K162" s="28"/>
       <c r="L162" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M162" s="28"/>
       <c r="N162" s="28">
@@ -15988,17 +15884,19 @@
         <v>0</v>
       </c>
       <c r="P162" s="28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Q162" s="28">
         <v>1</v>
       </c>
       <c r="R162" s="28" t="s">
-        <v>304</v>
+        <v>60</v>
       </c>
       <c r="S162" s="28"/>
       <c r="T162" s="28"/>
-      <c r="U162" s="28"/>
+      <c r="U162" s="40" t="s">
+        <v>654</v>
+      </c>
       <c r="V162" s="28"/>
       <c r="W162" s="28"/>
       <c r="X162" s="28"/>
@@ -16006,9 +15904,11 @@
       <c r="Z162" s="28"/>
       <c r="AA162" s="28"/>
       <c r="AB162" s="28"/>
-      <c r="AC162" s="28"/>
-      <c r="AD162" s="28"/>
-      <c r="AE162" s="28"/>
+      <c r="AC162" s="2"/>
+      <c r="AD162" s="2"/>
+      <c r="AE162" s="40" t="s">
+        <v>653</v>
+      </c>
       <c r="AF162" s="28"/>
       <c r="AG162" s="28"/>
       <c r="AH162" s="28"/>
@@ -16017,8 +15917,9 @@
       <c r="AK162" s="28"/>
       <c r="AL162" s="28"/>
       <c r="AM162" s="28"/>
-      <c r="AN162" s="28"/>
-      <c r="AO162" s="28"/>
+      <c r="AO162" s="28">
+        <v>400</v>
+      </c>
       <c r="AP162" s="28"/>
       <c r="AQ162" s="28"/>
     </row>
@@ -16041,20 +15942,22 @@
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="F163" s="1"/>
+      <c r="F163" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G163" s="1"/>
       <c r="H163" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I163" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J163" s="28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K163" s="28"/>
       <c r="L163" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M163" s="28"/>
       <c r="N163" s="28">
@@ -16064,13 +15967,13 @@
         <v>0</v>
       </c>
       <c r="P163" s="28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Q163" s="28">
         <v>1</v>
       </c>
       <c r="R163" s="28" t="s">
-        <v>304</v>
+        <v>60</v>
       </c>
       <c r="S163" s="28"/>
       <c r="T163" s="28"/>
@@ -16093,8 +15996,9 @@
       <c r="AK163" s="28"/>
       <c r="AL163" s="28"/>
       <c r="AM163" s="28"/>
-      <c r="AN163" s="28"/>
-      <c r="AO163" s="28"/>
+      <c r="AO163" s="28">
+        <v>400</v>
+      </c>
       <c r="AP163" s="28"/>
       <c r="AQ163" s="28"/>
     </row>
@@ -16117,20 +16021,24 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
+      <c r="F164" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>655</v>
+      </c>
       <c r="H164" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I164" s="28" t="s">
         <v>147</v>
       </c>
       <c r="J164" s="40" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="K164" s="28"/>
       <c r="L164" s="30" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M164" s="28"/>
       <c r="N164" s="28">
@@ -16140,13 +16048,13 @@
         <v>0</v>
       </c>
       <c r="P164" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Q164" s="28">
-        <v>1</v>
-      </c>
-      <c r="R164" s="28" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="R164" s="40" t="s">
+        <v>53</v>
       </c>
       <c r="S164" s="28"/>
       <c r="T164" s="28"/>
@@ -16170,7 +16078,9 @@
       <c r="AL164" s="28"/>
       <c r="AM164" s="28"/>
       <c r="AN164" s="28"/>
-      <c r="AO164" s="28"/>
+      <c r="AO164" s="28">
+        <v>400</v>
+      </c>
       <c r="AP164" s="28"/>
       <c r="AQ164" s="28"/>
     </row>
@@ -16193,20 +16103,22 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="F165" s="1"/>
+      <c r="F165" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I165" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J165" s="40" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="K165" s="28"/>
       <c r="L165" s="30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M165" s="28"/>
       <c r="N165" s="28">
@@ -16216,7 +16128,7 @@
         <v>0</v>
       </c>
       <c r="P165" s="28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q165" s="28">
         <v>1</v>
@@ -16246,7 +16158,9 @@
       <c r="AL165" s="28"/>
       <c r="AM165" s="28"/>
       <c r="AN165" s="28"/>
-      <c r="AO165" s="28"/>
+      <c r="AO165" s="28">
+        <v>400</v>
+      </c>
       <c r="AP165" s="28"/>
       <c r="AQ165" s="28"/>
       <c r="AR165" s="7"/>
@@ -16271,20 +16185,22 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="F166" s="1"/>
+      <c r="F166" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G166" s="1"/>
       <c r="H166" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I166" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J166" s="40" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="K166" s="28"/>
       <c r="L166" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M166" s="28"/>
       <c r="N166" s="28">
@@ -16294,7 +16210,7 @@
         <v>0</v>
       </c>
       <c r="P166" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q166" s="28">
         <v>1</v>
@@ -16347,10 +16263,14 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
+      <c r="F167" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>658</v>
+      </c>
       <c r="H167" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I167" s="28" t="s">
         <v>160</v>
@@ -16358,7 +16278,7 @@
       <c r="J167" s="28"/>
       <c r="K167" s="28"/>
       <c r="L167" s="30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M167" s="28"/>
       <c r="N167" s="28">
@@ -16368,7 +16288,7 @@
         <v>0</v>
       </c>
       <c r="P167" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Q167" s="28">
         <v>1</v>
@@ -16378,8 +16298,10 @@
       </c>
       <c r="S167" s="28"/>
       <c r="T167" s="28"/>
-      <c r="U167" s="28"/>
-      <c r="V167" s="28"/>
+      <c r="U167" s="40"/>
+      <c r="V167" s="40" t="s">
+        <v>657</v>
+      </c>
       <c r="W167" s="28"/>
       <c r="X167" s="28"/>
       <c r="Y167" s="28"/>
@@ -16421,25 +16343,29 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
+      <c r="F168" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>658</v>
+      </c>
       <c r="H168" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I168" s="30" t="s">
         <v>160</v>
       </c>
       <c r="L168" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="N168" s="30">
+        <v>0</v>
+      </c>
+      <c r="O168" s="30">
+        <v>0</v>
+      </c>
+      <c r="P168" s="28" t="s">
         <v>422</v>
-      </c>
-      <c r="N168" s="30">
-        <v>0</v>
-      </c>
-      <c r="O168" s="30">
-        <v>0</v>
-      </c>
-      <c r="P168" s="28" t="s">
-        <v>423</v>
       </c>
       <c r="Q168" s="28">
         <v>1</v>
@@ -16467,20 +16393,22 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="F169" s="1"/>
+      <c r="F169" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G169" s="1"/>
       <c r="H169" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I169" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J169" s="28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K169" s="28"/>
       <c r="L169" s="30" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M169" s="28"/>
       <c r="N169" s="28">
@@ -16490,7 +16418,7 @@
         <v>0</v>
       </c>
       <c r="P169" s="30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q169" s="28">
         <v>1</v>
@@ -16529,7 +16457,7 @@
         <v>384</v>
       </c>
       <c r="B170" s="30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C170" s="30">
         <f t="shared" si="6"/>
@@ -16546,17 +16474,17 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I170" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J170" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K170" s="11"/>
       <c r="L170" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M170" s="23"/>
       <c r="N170" s="28">
@@ -16566,7 +16494,7 @@
         <v>0</v>
       </c>
       <c r="P170" s="28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q170" s="28">
         <v>1</v>
@@ -16605,7 +16533,7 @@
         <v>384</v>
       </c>
       <c r="B171" s="30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C171" s="30">
         <f t="shared" si="6"/>
@@ -16622,17 +16550,17 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I171" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J171" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K171" s="28"/>
       <c r="L171" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M171" s="24"/>
       <c r="N171" s="28">
@@ -16642,13 +16570,13 @@
         <v>0</v>
       </c>
       <c r="P171" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q171" s="28">
+        <v>1</v>
+      </c>
+      <c r="R171" s="28" t="s">
         <v>433</v>
-      </c>
-      <c r="Q171" s="28">
-        <v>1</v>
-      </c>
-      <c r="R171" s="28" t="s">
-        <v>434</v>
       </c>
       <c r="S171" s="28"/>
       <c r="T171" s="28"/>
@@ -16681,7 +16609,7 @@
         <v>384</v>
       </c>
       <c r="B172" s="30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C172" s="30">
         <f t="shared" si="6"/>
@@ -16698,17 +16626,17 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I172" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J172" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K172" s="28"/>
       <c r="L172" s="23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M172" s="19"/>
       <c r="N172" s="28">
@@ -16718,7 +16646,7 @@
         <v>0</v>
       </c>
       <c r="P172" s="28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Q172" s="28">
         <v>1</v>
@@ -16759,7 +16687,7 @@
         <v>384</v>
       </c>
       <c r="B173" s="30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C173" s="30">
         <f t="shared" si="6"/>
@@ -16776,7 +16704,7 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I173" s="28" t="s">
         <v>50</v>
@@ -16786,7 +16714,7 @@
       </c>
       <c r="K173" s="28"/>
       <c r="L173" s="28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M173" s="28"/>
       <c r="N173" s="28">
@@ -16796,7 +16724,7 @@
         <v>0</v>
       </c>
       <c r="P173" s="28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q173" s="28">
         <v>1</v>
@@ -16835,7 +16763,7 @@
         <v>384</v>
       </c>
       <c r="B174" s="30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C174" s="30">
         <f t="shared" si="6"/>
@@ -16852,7 +16780,7 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I174" s="28" t="s">
         <v>50</v>
@@ -16862,7 +16790,7 @@
       </c>
       <c r="K174" s="28"/>
       <c r="L174" s="28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M174" s="28"/>
       <c r="N174" s="28">
@@ -16872,7 +16800,7 @@
         <v>0</v>
       </c>
       <c r="P174" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Q174" s="28">
         <v>1</v>
@@ -16911,7 +16839,7 @@
         <v>384</v>
       </c>
       <c r="B175" s="33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C175" s="33">
         <f t="shared" si="6"/>
@@ -16927,10 +16855,10 @@
       </c>
       <c r="F175" s="37"/>
       <c r="G175" s="42" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H175" s="37" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I175" s="33" t="s">
         <v>44</v>
@@ -16940,7 +16868,7 @@
       </c>
       <c r="K175" s="33"/>
       <c r="L175" s="33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M175" s="46"/>
       <c r="N175" s="33">
@@ -16950,7 +16878,7 @@
         <v>1</v>
       </c>
       <c r="P175" s="43" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q175" s="33">
         <v>1</v>
@@ -16993,7 +16921,7 @@
         <v>384</v>
       </c>
       <c r="B176" s="30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C176" s="30">
         <f t="shared" si="6"/>
@@ -17010,7 +16938,7 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I176" s="30" t="s">
         <v>147</v>
@@ -17020,7 +16948,7 @@
       </c>
       <c r="K176" s="28"/>
       <c r="L176" s="28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M176" s="28"/>
       <c r="N176" s="30">
@@ -17030,7 +16958,7 @@
         <v>0</v>
       </c>
       <c r="P176" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q176" s="28">
         <v>1</v>
@@ -17068,7 +16996,7 @@
         <v>384</v>
       </c>
       <c r="B177" s="30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C177" s="30">
         <f t="shared" si="6"/>
@@ -17085,17 +17013,17 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I177" s="30" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J177" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K177" s="28"/>
       <c r="L177" s="30" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M177" s="28"/>
       <c r="N177" s="30">
@@ -17105,7 +17033,7 @@
         <v>0</v>
       </c>
       <c r="P177" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Q177" s="28">
         <v>1</v>
@@ -17148,7 +17076,7 @@
         <v>384</v>
       </c>
       <c r="B178" s="30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C178" s="30">
         <f t="shared" si="6"/>
@@ -17165,17 +17093,17 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I178" s="30" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J178" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K178" s="28"/>
       <c r="L178" s="30" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M178" s="28"/>
       <c r="N178" s="30">
@@ -17185,7 +17113,7 @@
         <v>0</v>
       </c>
       <c r="P178" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q178" s="28">
         <v>1</v>
@@ -17228,7 +17156,7 @@
         <v>384</v>
       </c>
       <c r="B179" s="30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C179" s="30">
         <f t="shared" si="6"/>
@@ -17245,17 +17173,17 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I179" s="30" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J179" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K179" s="28"/>
       <c r="L179" s="30" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M179" s="28"/>
       <c r="N179" s="30">
@@ -17265,7 +17193,7 @@
         <v>0</v>
       </c>
       <c r="P179" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q179" s="28">
         <v>1</v>
@@ -17308,7 +17236,7 @@
         <v>384</v>
       </c>
       <c r="B180" s="30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C180" s="30">
         <f t="shared" si="6"/>
@@ -17325,17 +17253,17 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I180" s="30" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J180" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K180" s="28"/>
       <c r="L180" s="30" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M180" s="30"/>
       <c r="N180" s="30">
@@ -17345,7 +17273,7 @@
         <v>0</v>
       </c>
       <c r="P180" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q180" s="28">
         <v>1</v>
@@ -17354,7 +17282,7 @@
         <v>60</v>
       </c>
       <c r="S180" s="28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="T180" s="28"/>
       <c r="U180" s="28"/>
@@ -17386,7 +17314,7 @@
         <v>384</v>
       </c>
       <c r="B181" s="30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C181" s="30">
         <f t="shared" si="6"/>
@@ -17403,17 +17331,17 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J181" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K181" s="12"/>
       <c r="L181" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M181" s="1"/>
       <c r="N181" s="1">
@@ -17423,7 +17351,7 @@
         <v>0</v>
       </c>
       <c r="P181" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Q181" s="28">
         <v>1</v>
@@ -17464,7 +17392,7 @@
         <v>384</v>
       </c>
       <c r="B182" s="30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C182" s="30">
         <f t="shared" si="6"/>
@@ -17481,17 +17409,17 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I182" s="1" t="s">
         <v>160</v>
       </c>
       <c r="J182" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K182" s="11"/>
       <c r="L182" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M182" s="1"/>
       <c r="N182" s="1">
@@ -17501,7 +17429,7 @@
         <v>0</v>
       </c>
       <c r="P182" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Q182" s="28">
         <v>1</v>
@@ -17540,7 +17468,7 @@
         <v>384</v>
       </c>
       <c r="B183" s="30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C183" s="30">
         <f t="shared" si="6"/>
@@ -17557,7 +17485,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>160</v>
@@ -17567,7 +17495,7 @@
       </c>
       <c r="K183" s="11"/>
       <c r="L183" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M183" s="28"/>
       <c r="N183" s="1">
@@ -17577,7 +17505,7 @@
         <v>0</v>
       </c>
       <c r="P183" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q183" s="28">
         <v>1</v>
@@ -17616,7 +17544,7 @@
         <v>384</v>
       </c>
       <c r="B184" s="30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C184" s="30">
         <f t="shared" si="6"/>
@@ -17633,17 +17561,17 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I184" s="1" t="s">
         <v>160</v>
       </c>
       <c r="J184" s="28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K184" s="28"/>
       <c r="L184" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M184" s="19"/>
       <c r="N184" s="1">
@@ -17653,7 +17581,7 @@
         <v>0</v>
       </c>
       <c r="P184" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Q184" s="28">
         <v>1</v>
@@ -17692,7 +17620,7 @@
         <v>384</v>
       </c>
       <c r="B185" s="30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C185" s="30">
         <f t="shared" si="6"/>
@@ -17709,7 +17637,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>44</v>
@@ -17719,7 +17647,7 @@
       </c>
       <c r="K185" s="28"/>
       <c r="L185" s="28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M185" s="19"/>
       <c r="N185" s="1">
@@ -17729,7 +17657,7 @@
         <v>0</v>
       </c>
       <c r="P185" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q185" s="28">
         <v>1</v>
@@ -17769,7 +17697,7 @@
         <v>384</v>
       </c>
       <c r="B186" s="30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C186" s="30">
         <f t="shared" si="6"/>
@@ -17786,7 +17714,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I186" s="1" t="s">
         <v>44</v>
@@ -17796,7 +17724,7 @@
       </c>
       <c r="K186" s="28"/>
       <c r="L186" s="28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M186" s="19"/>
       <c r="N186" s="1">
@@ -17806,7 +17734,7 @@
         <v>0</v>
       </c>
       <c r="P186" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q186" s="28">
         <v>1</v>
@@ -17846,7 +17774,7 @@
         <v>384</v>
       </c>
       <c r="B187" s="30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C187" s="30">
         <f t="shared" si="6"/>
@@ -17863,7 +17791,7 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I187" s="1" t="s">
         <v>44</v>
@@ -17873,7 +17801,7 @@
       </c>
       <c r="K187" s="28"/>
       <c r="L187" s="28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M187" s="28"/>
       <c r="N187" s="1">
@@ -17883,7 +17811,7 @@
         <v>0</v>
       </c>
       <c r="P187" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Q187" s="28">
         <v>1</v>
@@ -17923,7 +17851,7 @@
         <v>384</v>
       </c>
       <c r="B188" s="30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C188" s="30">
         <f t="shared" si="6"/>
@@ -17940,17 +17868,17 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I188" s="1" t="s">
         <v>147</v>
       </c>
       <c r="J188" s="28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K188" s="28"/>
       <c r="L188" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M188" s="28"/>
       <c r="N188" s="1">
@@ -17960,7 +17888,7 @@
         <v>0</v>
       </c>
       <c r="P188" s="28" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q188" s="28">
         <v>1</v>
@@ -17999,7 +17927,7 @@
         <v>384</v>
       </c>
       <c r="B189" s="30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C189" s="30">
         <f t="shared" si="6"/>
@@ -18016,7 +17944,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I189" s="1" t="s">
         <v>50</v>
@@ -18026,7 +17954,7 @@
       </c>
       <c r="K189" s="28"/>
       <c r="L189" s="28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M189" s="28"/>
       <c r="N189" s="1">
@@ -18036,7 +17964,7 @@
         <v>0</v>
       </c>
       <c r="P189" s="28" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q189" s="28">
         <v>1</v>
@@ -18075,7 +18003,7 @@
         <v>384</v>
       </c>
       <c r="B190" s="30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C190" s="30">
         <f t="shared" si="6"/>
@@ -18092,7 +18020,7 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I190" s="1" t="s">
         <v>50</v>
@@ -18102,7 +18030,7 @@
       </c>
       <c r="K190" s="28"/>
       <c r="L190" s="28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M190" s="28"/>
       <c r="N190" s="1">
@@ -18112,7 +18040,7 @@
         <v>0</v>
       </c>
       <c r="P190" s="28" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q190" s="28">
         <v>1</v>
@@ -18151,7 +18079,7 @@
         <v>384</v>
       </c>
       <c r="B191" s="30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C191" s="30">
         <f t="shared" si="6"/>
@@ -18168,17 +18096,17 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J191" s="28" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K191" s="28"/>
       <c r="L191" s="28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M191" s="32"/>
       <c r="N191" s="1">
@@ -18188,7 +18116,7 @@
         <v>0</v>
       </c>
       <c r="P191" s="28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q191" s="28">
         <v>1</v>
@@ -18227,7 +18155,7 @@
         <v>384</v>
       </c>
       <c r="B192" s="30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C192" s="30">
         <f t="shared" si="6"/>
@@ -18244,17 +18172,17 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J192" s="28" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K192" s="28"/>
       <c r="L192" s="28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M192" s="32"/>
       <c r="N192" s="1">
@@ -18264,7 +18192,7 @@
         <v>0</v>
       </c>
       <c r="P192" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q192" s="28">
         <v>1</v>
@@ -18303,7 +18231,7 @@
         <v>384</v>
       </c>
       <c r="B193" s="30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C193" s="30">
         <f t="shared" si="6"/>
@@ -18320,7 +18248,7 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I193" s="1" t="s">
         <v>50</v>
@@ -18330,7 +18258,7 @@
       </c>
       <c r="K193" s="28"/>
       <c r="L193" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M193" s="28"/>
       <c r="N193" s="1">
@@ -18340,7 +18268,7 @@
         <v>0</v>
       </c>
       <c r="P193" s="28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q193" s="28">
         <v>1</v>
@@ -18379,7 +18307,7 @@
         <v>384</v>
       </c>
       <c r="B194" s="30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C194" s="30">
         <f t="shared" si="6"/>
@@ -18396,17 +18324,17 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I194" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="J194" s="28" t="s">
         <v>483</v>
-      </c>
-      <c r="J194" s="28" t="s">
-        <v>484</v>
       </c>
       <c r="K194" s="28"/>
       <c r="L194" s="30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M194" s="28"/>
       <c r="N194" s="28">
@@ -18416,7 +18344,7 @@
         <v>0</v>
       </c>
       <c r="P194" s="28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q194" s="28">
         <v>1</v>
@@ -18455,7 +18383,7 @@
         <v>384</v>
       </c>
       <c r="B195" s="30" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C195" s="30">
         <f t="shared" si="6"/>
@@ -18472,17 +18400,17 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I195" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M195" s="28"/>
       <c r="N195" s="28">
@@ -18492,7 +18420,7 @@
         <v>0</v>
       </c>
       <c r="P195" s="28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="Q195" s="28">
         <v>1</v>
@@ -18530,10 +18458,10 @@
     </row>
     <row r="196" spans="1:45" ht="16">
       <c r="A196" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="B196" s="30" t="s">
         <v>491</v>
-      </c>
-      <c r="B196" s="30" t="s">
-        <v>492</v>
       </c>
       <c r="C196" s="30">
         <f t="shared" si="6"/>
@@ -18550,17 +18478,17 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I196" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J196" s="28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K196" s="28"/>
       <c r="L196" s="28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M196" s="28"/>
       <c r="N196" s="1">
@@ -18570,7 +18498,7 @@
         <v>0</v>
       </c>
       <c r="P196" s="28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Q196" s="28">
         <v>1</v>
@@ -18606,10 +18534,10 @@
     </row>
     <row r="197" spans="1:45" ht="16">
       <c r="A197" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="B197" s="30" t="s">
         <v>491</v>
-      </c>
-      <c r="B197" s="30" t="s">
-        <v>492</v>
       </c>
       <c r="C197" s="30">
         <f t="shared" si="6"/>
@@ -18626,17 +18554,17 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I197" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J197" s="28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K197" s="28"/>
       <c r="L197" s="28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M197" s="28"/>
       <c r="N197" s="1">
@@ -18646,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="P197" s="28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q197" s="28">
         <v>1</v>
@@ -18682,10 +18610,10 @@
     </row>
     <row r="198" spans="1:45" ht="16">
       <c r="A198" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="B198" s="30" t="s">
         <v>491</v>
-      </c>
-      <c r="B198" s="30" t="s">
-        <v>492</v>
       </c>
       <c r="C198" s="30">
         <f t="shared" si="6"/>
@@ -18702,17 +18630,17 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I198" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J198" s="28" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K198" s="28"/>
       <c r="L198" s="30" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M198" s="28"/>
       <c r="N198" s="1">
@@ -18722,7 +18650,7 @@
         <v>0</v>
       </c>
       <c r="P198" s="28" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q198" s="28">
         <v>1</v>
@@ -18758,10 +18686,10 @@
     </row>
     <row r="199" spans="1:45" ht="16">
       <c r="A199" s="30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B199" s="30" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C199" s="30">
         <f t="shared" si="6"/>
@@ -18778,17 +18706,17 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I199" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J199" s="28" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K199" s="28"/>
       <c r="L199" s="28" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M199" s="32"/>
       <c r="N199" s="1">
@@ -18798,7 +18726,7 @@
         <v>0</v>
       </c>
       <c r="P199" s="28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Q199" s="28">
         <v>1</v>
@@ -18834,10 +18762,10 @@
     </row>
     <row r="200" spans="1:45" ht="16">
       <c r="A200" s="30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B200" s="30" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C200" s="30">
         <f t="shared" si="6"/>
@@ -18854,17 +18782,17 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I200" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J200" s="28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K200" s="28"/>
       <c r="L200" s="28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M200" s="32"/>
       <c r="N200" s="1">
@@ -18874,7 +18802,7 @@
         <v>0</v>
       </c>
       <c r="P200" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q200" s="28">
         <v>1</v>
@@ -18910,10 +18838,10 @@
     </row>
     <row r="201" spans="1:45" ht="16">
       <c r="A201" s="30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B201" s="30" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C201" s="30">
         <f t="shared" si="6"/>
@@ -18930,17 +18858,17 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I201" s="28" t="s">
         <v>50</v>
       </c>
       <c r="J201" s="28" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K201" s="28"/>
       <c r="L201" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M201" s="28"/>
       <c r="N201" s="1">
@@ -18950,7 +18878,7 @@
         <v>0</v>
       </c>
       <c r="P201" s="28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q201" s="28">
         <v>1</v>
@@ -18986,10 +18914,10 @@
     </row>
     <row r="202" spans="1:45" ht="19">
       <c r="A202" s="30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B202" s="30" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C202" s="30">
         <f t="shared" si="6"/>
@@ -19006,17 +18934,17 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I202" s="25" t="s">
         <v>88</v>
       </c>
       <c r="J202" s="28" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K202" s="28"/>
       <c r="L202" s="30" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M202" s="30"/>
       <c r="N202" s="1">
@@ -19026,7 +18954,7 @@
         <v>0</v>
       </c>
       <c r="P202" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Q202" s="28">
         <v>1</v>
@@ -19062,10 +18990,10 @@
     </row>
     <row r="203" spans="1:45" ht="16">
       <c r="A203" s="30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B203" s="30" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C203" s="30">
         <f t="shared" si="6"/>
@@ -19082,17 +19010,17 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I203" s="12" t="s">
         <v>50</v>
       </c>
       <c r="J203" s="28" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K203" s="28"/>
       <c r="L203" s="26" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M203" s="26"/>
       <c r="N203" s="1">
@@ -19102,7 +19030,7 @@
         <v>0</v>
       </c>
       <c r="P203" s="28" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Q203" s="28">
         <v>1</v>
@@ -19138,10 +19066,10 @@
     </row>
     <row r="204" spans="1:45" ht="16">
       <c r="A204" s="30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B204" s="30" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C204" s="30">
         <f t="shared" si="6"/>
@@ -19158,17 +19086,17 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I204" s="12" t="s">
         <v>50</v>
       </c>
       <c r="J204" s="28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K204" s="28"/>
       <c r="L204" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M204" s="28"/>
       <c r="N204" s="1">
@@ -19178,7 +19106,7 @@
         <v>0</v>
       </c>
       <c r="P204" s="28" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Q204" s="28">
         <v>1</v>
@@ -19214,10 +19142,10 @@
     </row>
     <row r="205" spans="1:45" ht="16">
       <c r="A205" s="30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B205" s="30" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C205" s="30">
         <f t="shared" si="6"/>
@@ -19234,7 +19162,7 @@
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I205" s="12" t="s">
         <v>50</v>
@@ -19244,7 +19172,7 @@
       </c>
       <c r="K205" s="28"/>
       <c r="L205" s="28" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M205" s="28"/>
       <c r="N205" s="1">
@@ -19254,7 +19182,7 @@
         <v>0</v>
       </c>
       <c r="P205" s="28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Q205" s="28">
         <v>1</v>
@@ -19290,10 +19218,10 @@
     </row>
     <row r="206" spans="1:45" ht="16">
       <c r="A206" s="30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B206" s="30" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C206" s="30">
         <f t="shared" si="6"/>
@@ -19310,7 +19238,7 @@
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I206" s="12" t="s">
         <v>50</v>
@@ -19320,7 +19248,7 @@
       </c>
       <c r="K206" s="28"/>
       <c r="L206" s="28" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M206" s="28"/>
       <c r="N206" s="1">
@@ -19330,7 +19258,7 @@
         <v>0</v>
       </c>
       <c r="P206" s="28" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Q206" s="28">
         <v>1</v>
@@ -19366,10 +19294,10 @@
     </row>
     <row r="207" spans="1:45" ht="16">
       <c r="A207" s="30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B207" s="30" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C207" s="30">
         <f t="shared" si="6"/>
@@ -19386,7 +19314,7 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I207" s="12" t="s">
         <v>50</v>
@@ -19396,7 +19324,7 @@
       </c>
       <c r="K207" s="28"/>
       <c r="L207" s="28" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M207" s="28"/>
       <c r="N207" s="1">
@@ -19406,7 +19334,7 @@
         <v>0</v>
       </c>
       <c r="P207" s="28" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="Q207" s="28">
         <v>1</v>
@@ -19442,10 +19370,10 @@
     </row>
     <row r="208" spans="1:45" ht="16">
       <c r="A208" s="30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B208" s="30" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C208" s="30">
         <f t="shared" si="6"/>
@@ -19462,7 +19390,7 @@
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I208" s="12" t="s">
         <v>50</v>
@@ -19472,7 +19400,7 @@
       </c>
       <c r="K208" s="28"/>
       <c r="L208" s="28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M208" s="28"/>
       <c r="N208" s="1">
@@ -19482,7 +19410,7 @@
         <v>0</v>
       </c>
       <c r="P208" s="28" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q208" s="28">
         <v>1</v>
@@ -19518,10 +19446,10 @@
     </row>
     <row r="209" spans="1:43" ht="16">
       <c r="A209" s="30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B209" s="30" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C209" s="30">
         <f t="shared" si="6"/>
@@ -19538,7 +19466,7 @@
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I209" s="12" t="s">
         <v>50</v>
@@ -19548,7 +19476,7 @@
       </c>
       <c r="K209" s="28"/>
       <c r="L209" s="28" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M209" s="28"/>
       <c r="N209" s="1">
@@ -19558,7 +19486,7 @@
         <v>0</v>
       </c>
       <c r="P209" s="28" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q209" s="28">
         <v>1</v>
@@ -19594,10 +19522,10 @@
     </row>
     <row r="210" spans="1:43" ht="16">
       <c r="A210" s="30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B210" s="30" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C210" s="30">
         <f t="shared" si="6"/>
@@ -19614,7 +19542,7 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I210" s="12" t="s">
         <v>50</v>
@@ -19624,7 +19552,7 @@
       </c>
       <c r="K210" s="28"/>
       <c r="L210" s="28" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M210" s="28"/>
       <c r="N210" s="1">
@@ -19634,7 +19562,7 @@
         <v>0</v>
       </c>
       <c r="P210" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q210" s="28">
         <v>1</v>
@@ -19670,10 +19598,10 @@
     </row>
     <row r="211" spans="1:43" ht="16">
       <c r="A211" s="30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B211" s="30" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C211" s="30">
         <f t="shared" ref="C211:C237" si="12">_xlfn.NUMBERVALUE(LEFT(P211,2))</f>
@@ -19690,17 +19618,17 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I211" s="12" t="s">
         <v>160</v>
       </c>
       <c r="J211" s="28" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K211" s="28"/>
       <c r="L211" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M211" s="28"/>
       <c r="N211" s="1">
@@ -19710,7 +19638,7 @@
         <v>0</v>
       </c>
       <c r="P211" s="28" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Q211" s="28">
         <v>1</v>
@@ -19746,10 +19674,10 @@
     </row>
     <row r="212" spans="1:43" ht="16">
       <c r="A212" s="30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B212" s="30" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C212" s="30">
         <f t="shared" si="12"/>
@@ -19766,26 +19694,26 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I212" s="12" t="s">
         <v>160</v>
       </c>
       <c r="J212" s="28" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K212" s="28"/>
       <c r="L212" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="N212" s="1">
+        <v>0</v>
+      </c>
+      <c r="O212" s="1">
+        <v>0</v>
+      </c>
+      <c r="P212" s="28" t="s">
         <v>536</v>
-      </c>
-      <c r="N212" s="1">
-        <v>0</v>
-      </c>
-      <c r="O212" s="1">
-        <v>0</v>
-      </c>
-      <c r="P212" s="28" t="s">
-        <v>537</v>
       </c>
       <c r="Q212" s="30">
         <v>0</v>
@@ -19793,10 +19721,10 @@
     </row>
     <row r="213" spans="1:43" ht="16">
       <c r="A213" s="30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B213" s="30" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C213" s="30">
         <f t="shared" si="12"/>
@@ -19813,17 +19741,17 @@
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I213" s="12" t="s">
         <v>147</v>
       </c>
       <c r="J213" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K213" s="28"/>
       <c r="L213" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M213" s="19"/>
       <c r="N213" s="1">
@@ -19833,7 +19761,7 @@
         <v>0</v>
       </c>
       <c r="P213" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Q213" s="28">
         <v>1</v>
@@ -19869,10 +19797,10 @@
     </row>
     <row r="214" spans="1:43" ht="16">
       <c r="A214" s="30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B214" s="30" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C214" s="30">
         <f t="shared" si="12"/>
@@ -19889,17 +19817,17 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I214" s="12" t="s">
         <v>160</v>
       </c>
       <c r="J214" s="28" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K214" s="28"/>
       <c r="L214" s="28" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M214" s="32"/>
       <c r="N214" s="1">
@@ -19909,7 +19837,7 @@
         <v>0</v>
       </c>
       <c r="P214" s="12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Q214" s="28">
         <v>1</v>
@@ -19945,10 +19873,10 @@
     </row>
     <row r="215" spans="1:43" ht="16">
       <c r="A215" s="30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B215" s="30" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C215" s="30">
         <f t="shared" si="12"/>
@@ -19965,19 +19893,19 @@
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I215" s="12"/>
       <c r="J215" s="28"/>
       <c r="K215" s="28"/>
       <c r="L215" s="28" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M215" s="32"/>
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
       <c r="P215" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q215" s="28">
         <v>0</v>
@@ -20011,10 +19939,10 @@
     </row>
     <row r="216" spans="1:43" ht="16">
       <c r="A216" s="30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B216" s="30" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C216" s="30">
         <f t="shared" si="12"/>
@@ -20031,19 +19959,19 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I216" s="12"/>
       <c r="J216" s="28"/>
       <c r="K216" s="28"/>
       <c r="L216" s="28" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M216" s="32"/>
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
       <c r="P216" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q216" s="28">
         <v>0</v>
@@ -20077,10 +20005,10 @@
     </row>
     <row r="217" spans="1:43" ht="16">
       <c r="A217" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="B217" s="30" t="s">
         <v>548</v>
-      </c>
-      <c r="B217" s="30" t="s">
-        <v>549</v>
       </c>
       <c r="C217" s="30">
         <f t="shared" si="12"/>
@@ -20097,17 +20025,17 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I217" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J217" s="28" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K217" s="28"/>
       <c r="L217" s="28" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M217" s="28"/>
       <c r="N217" s="28">
@@ -20117,7 +20045,7 @@
         <v>0</v>
       </c>
       <c r="P217" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="Q217" s="28">
         <v>1</v>
@@ -20153,7 +20081,7 @@
     </row>
     <row r="218" spans="1:43" ht="16">
       <c r="A218" s="30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B218" s="30" t="s">
         <v>240</v>
@@ -20173,17 +20101,17 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J218" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K218" s="28"/>
       <c r="L218" s="32" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M218" s="30"/>
       <c r="N218" s="1">
@@ -20193,7 +20121,7 @@
         <v>0</v>
       </c>
       <c r="P218" s="28" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="Q218" s="28">
         <v>1</v>
@@ -20229,7 +20157,7 @@
     </row>
     <row r="219" spans="1:43" ht="16">
       <c r="A219" s="30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B219" s="30" t="s">
         <v>240</v>
@@ -20249,17 +20177,17 @@
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J219" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K219" s="28"/>
       <c r="L219" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M219" s="30"/>
       <c r="N219" s="1">
@@ -20269,7 +20197,7 @@
         <v>0</v>
       </c>
       <c r="P219" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="Q219" s="28">
         <v>0</v>
@@ -20303,7 +20231,7 @@
     </row>
     <row r="220" spans="1:43" ht="16">
       <c r="A220" s="30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B220" s="30" t="s">
         <v>240</v>
@@ -20323,7 +20251,7 @@
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I220" s="1" t="s">
         <v>88</v>
@@ -20333,7 +20261,7 @@
       </c>
       <c r="K220" s="28"/>
       <c r="L220" s="30" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M220" s="30"/>
       <c r="N220" s="1">
@@ -20343,7 +20271,7 @@
         <v>1</v>
       </c>
       <c r="P220" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="Q220" s="28">
         <v>1</v>
@@ -20379,7 +20307,7 @@
     </row>
     <row r="221" spans="1:43" ht="16">
       <c r="A221" s="30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B221" s="30" t="s">
         <v>240</v>
@@ -20399,7 +20327,7 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I221" s="1" t="s">
         <v>147</v>
@@ -20409,7 +20337,7 @@
       </c>
       <c r="K221" s="28"/>
       <c r="L221" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M221" s="30"/>
       <c r="N221" s="1">
@@ -20419,7 +20347,7 @@
         <v>1</v>
       </c>
       <c r="P221" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Q221" s="28">
         <v>1</v>
@@ -20455,10 +20383,10 @@
     </row>
     <row r="222" spans="1:43" ht="16">
       <c r="A222" s="30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B222" s="30" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C222" s="30">
         <f t="shared" si="12"/>
@@ -20475,17 +20403,17 @@
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J222" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K222" s="28"/>
       <c r="L222" s="30" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M222" s="30"/>
       <c r="N222" s="1">
@@ -20495,7 +20423,7 @@
         <v>0</v>
       </c>
       <c r="P222" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="Q222" s="28">
         <v>1</v>
@@ -20531,10 +20459,10 @@
     </row>
     <row r="223" spans="1:43" ht="16">
       <c r="A223" s="30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B223" s="30" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C223" s="30">
         <f t="shared" si="12"/>
@@ -20551,17 +20479,17 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J223" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K223" s="28"/>
       <c r="L223" s="30" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M223" s="30"/>
       <c r="N223" s="1">
@@ -20571,7 +20499,7 @@
         <v>0</v>
       </c>
       <c r="P223" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="Q223" s="28">
         <v>0</v>
@@ -20605,10 +20533,10 @@
     </row>
     <row r="224" spans="1:43" ht="16">
       <c r="A224" s="30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B224" s="30" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C224" s="30">
         <f t="shared" si="12"/>
@@ -20625,7 +20553,7 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I224" s="1" t="s">
         <v>88</v>
@@ -20635,7 +20563,7 @@
       </c>
       <c r="K224" s="28"/>
       <c r="L224" s="30" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M224" s="30"/>
       <c r="N224" s="1">
@@ -20645,7 +20573,7 @@
         <v>1</v>
       </c>
       <c r="P224" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Q224" s="28">
         <v>1</v>
@@ -20681,10 +20609,10 @@
     </row>
     <row r="225" spans="1:43" ht="16">
       <c r="A225" s="30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B225" s="30" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C225" s="30">
         <f t="shared" si="12"/>
@@ -20701,7 +20629,7 @@
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I225" s="1" t="s">
         <v>147</v>
@@ -20711,7 +20639,7 @@
       </c>
       <c r="K225" s="28"/>
       <c r="L225" s="30" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M225" s="30"/>
       <c r="N225" s="1">
@@ -20721,7 +20649,7 @@
         <v>1</v>
       </c>
       <c r="P225" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Q225" s="28">
         <v>0</v>
@@ -20755,10 +20683,10 @@
     </row>
     <row r="226" spans="1:43" ht="16">
       <c r="A226" s="30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B226" s="30" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C226" s="30">
         <f t="shared" si="12"/>
@@ -20775,7 +20703,7 @@
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I226" s="1" t="s">
         <v>160</v>
@@ -20785,7 +20713,7 @@
       </c>
       <c r="K226" s="28"/>
       <c r="L226" s="30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M226" s="30"/>
       <c r="N226" s="1">
@@ -20795,7 +20723,7 @@
         <v>0</v>
       </c>
       <c r="P226" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="Q226" s="28">
         <v>1</v>
@@ -20831,10 +20759,10 @@
     </row>
     <row r="227" spans="1:43" ht="16">
       <c r="A227" s="30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B227" s="30" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C227" s="30">
         <f t="shared" si="12"/>
@@ -20851,17 +20779,17 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J227" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K227" s="28"/>
       <c r="L227" s="30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M227" s="30"/>
       <c r="N227" s="1">
@@ -20871,7 +20799,7 @@
         <v>0</v>
       </c>
       <c r="P227" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q227" s="28">
         <v>0</v>
@@ -20905,10 +20833,10 @@
     </row>
     <row r="228" spans="1:43" ht="16">
       <c r="A228" s="30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B228" s="30" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C228" s="30">
         <f t="shared" si="12"/>
@@ -20925,7 +20853,7 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I228" s="1" t="s">
         <v>88</v>
@@ -20935,7 +20863,7 @@
       </c>
       <c r="K228" s="28"/>
       <c r="L228" s="30" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M228" s="30"/>
       <c r="N228" s="1">
@@ -20945,7 +20873,7 @@
         <v>1</v>
       </c>
       <c r="P228" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q228" s="28">
         <v>1</v>
@@ -20981,10 +20909,10 @@
     </row>
     <row r="229" spans="1:43" ht="16">
       <c r="A229" s="30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B229" s="28" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C229" s="30">
         <f t="shared" si="12"/>
@@ -21001,7 +20929,7 @@
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I229" s="28" t="s">
         <v>147</v>
@@ -21011,7 +20939,7 @@
       </c>
       <c r="K229" s="28"/>
       <c r="L229" s="28" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M229" s="30"/>
       <c r="N229" s="28">
@@ -21021,7 +20949,7 @@
         <v>1</v>
       </c>
       <c r="P229" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="Q229" s="28">
         <v>1</v>
@@ -21057,10 +20985,10 @@
     </row>
     <row r="230" spans="1:43" ht="16">
       <c r="A230" s="30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B230" s="28" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C230" s="30">
         <f t="shared" si="12"/>
@@ -21077,7 +21005,7 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="H230" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I230" s="28" t="s">
         <v>160</v>
@@ -21087,7 +21015,7 @@
       </c>
       <c r="K230" s="28"/>
       <c r="L230" s="28" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M230" s="30"/>
       <c r="N230" s="28">
@@ -21097,7 +21025,7 @@
         <v>0</v>
       </c>
       <c r="P230" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="Q230" s="28">
         <v>1</v>
@@ -21133,10 +21061,10 @@
     </row>
     <row r="231" spans="1:43" ht="16">
       <c r="A231" s="28" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B231" s="28" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C231" s="30">
         <f t="shared" si="12"/>
@@ -21153,17 +21081,17 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I231" s="28" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J231" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K231" s="28"/>
       <c r="L231" s="28" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M231" s="30"/>
       <c r="N231" s="28">
@@ -21173,7 +21101,7 @@
         <v>0</v>
       </c>
       <c r="P231" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="Q231" s="28">
         <v>0</v>
@@ -21207,10 +21135,10 @@
     </row>
     <row r="232" spans="1:43" ht="16">
       <c r="A232" s="28" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B232" s="28" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C232" s="30">
         <f t="shared" si="12"/>
@@ -21227,7 +21155,7 @@
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I232" s="28" t="s">
         <v>88</v>
@@ -21237,7 +21165,7 @@
       </c>
       <c r="K232" s="28"/>
       <c r="L232" s="28" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M232" s="30"/>
       <c r="N232" s="28">
@@ -21247,7 +21175,7 @@
         <v>1</v>
       </c>
       <c r="P232" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="Q232" s="28">
         <v>1</v>
@@ -21283,10 +21211,10 @@
     </row>
     <row r="233" spans="1:43" ht="16">
       <c r="A233" s="28" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B233" s="28" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C233" s="30">
         <f t="shared" si="12"/>
@@ -21303,7 +21231,7 @@
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I233" s="28" t="s">
         <v>147</v>
@@ -21313,7 +21241,7 @@
       </c>
       <c r="K233" s="28"/>
       <c r="L233" s="28" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M233" s="30"/>
       <c r="N233" s="28">
@@ -21323,7 +21251,7 @@
         <v>1</v>
       </c>
       <c r="P233" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q233" s="28">
         <v>1</v>
@@ -21359,10 +21287,10 @@
     </row>
     <row r="234" spans="1:43" ht="16">
       <c r="A234" s="28" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B234" s="28" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C234" s="30">
         <f t="shared" si="12"/>
@@ -21379,7 +21307,7 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I234" s="28" t="s">
         <v>160</v>
@@ -21389,7 +21317,7 @@
       </c>
       <c r="K234" s="28"/>
       <c r="L234" s="28" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M234" s="30"/>
       <c r="N234" s="28">
@@ -21399,7 +21327,7 @@
         <v>0</v>
       </c>
       <c r="P234" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Q234" s="28">
         <v>1</v>
@@ -21435,10 +21363,10 @@
     </row>
     <row r="235" spans="1:43" ht="16">
       <c r="A235" s="28" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B235" s="28" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C235" s="30">
         <f t="shared" si="12"/>
@@ -21455,17 +21383,17 @@
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I235" s="28" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J235" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K235" s="28"/>
       <c r="L235" s="28" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M235" s="28"/>
       <c r="N235" s="28">
@@ -21475,7 +21403,7 @@
         <v>0</v>
       </c>
       <c r="P235" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Q235" s="28">
         <v>0</v>
@@ -21509,10 +21437,10 @@
     </row>
     <row r="236" spans="1:43" ht="16">
       <c r="A236" s="28" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B236" s="28" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C236" s="30">
         <f t="shared" si="12"/>
@@ -21529,7 +21457,7 @@
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I236" s="28" t="s">
         <v>88</v>
@@ -21539,7 +21467,7 @@
       </c>
       <c r="K236" s="28"/>
       <c r="L236" s="28" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M236" s="28"/>
       <c r="N236" s="28">
@@ -21549,7 +21477,7 @@
         <v>1</v>
       </c>
       <c r="P236" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Q236" s="28">
         <v>1</v>
@@ -21585,10 +21513,10 @@
     </row>
     <row r="237" spans="1:43" ht="16">
       <c r="A237" s="28" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B237" s="28" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C237" s="30">
         <f t="shared" si="12"/>
@@ -21605,7 +21533,7 @@
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I237" s="28" t="s">
         <v>147</v>
@@ -21615,7 +21543,7 @@
       </c>
       <c r="K237" s="28"/>
       <c r="L237" s="28" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M237" s="28"/>
       <c r="N237" s="28">
@@ -21625,7 +21553,7 @@
         <v>1</v>
       </c>
       <c r="P237" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q237" s="28">
         <v>1</v>

--- a/updated_script/Graphtext_032619.xlsx
+++ b/updated_script/Graphtext_032619.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A9D00D-74D0-F748-9D5F-4BECF203B89D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF6A7A9-D1D2-DF4E-B758-0495476C9E25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="666">
   <si>
     <t>section</t>
   </si>
@@ -941,9 +941,6 @@
     <t>040307.csv</t>
   </si>
   <si>
-    <t>$.2s</t>
-  </si>
-  <si>
     <t>Baum et al., Trends in Student Aid 2016.</t>
   </si>
   <si>
@@ -1326,9 +1323,6 @@
   </si>
   <si>
     <t>050302.csv</t>
-  </si>
-  <si>
-    <t>$.2f</t>
   </si>
   <si>
     <t xml:space="preserve">United States Department of Labor, Wage and Hour Division. https://www.dol.gov/whd/minwage/america.htm#Consolidated. </t>
@@ -1960,6 +1954,9 @@
     <t>EFC</t>
   </si>
   <si>
+    <t>National Postsecondary Student Aid Study 2016.</t>
+  </si>
+  <si>
     <t>unsure of years in title… 11-12? Not more recent?, also added x label, y label…needed? NOTE: I tried to get the 9's to not wrap by messing with margins for y and overall…neither worked.</t>
   </si>
   <si>
@@ -2048,6 +2045,30 @@
   </si>
   <si>
     <t>no source?</t>
+  </si>
+  <si>
+    <t>missing notes?</t>
+  </si>
+  <si>
+    <t>Parental income</t>
+  </si>
+  <si>
+    <t>All full-time dependent students</t>
+  </si>
+  <si>
+    <t>wideSmallMultiple, overrideTickCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes? Does category order matter? </t>
+  </si>
+  <si>
+    <t>Missing two categories? (public two-year, for-profit)…if its only going to be one bar, I have to fix the category name in graph.jsx</t>
+  </si>
+  <si>
+    <t>Public four-year in-state</t>
+  </si>
+  <si>
+    <t>Percent</t>
   </si>
 </sst>
 </file>
@@ -2600,9 +2621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O161" sqref="O161"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U195" sqref="U195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2648,7 +2669,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>7</v>
@@ -2778,7 +2799,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>44</v>
@@ -2855,7 +2876,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>50</v>
@@ -2930,7 +2951,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>50</v>
@@ -3005,7 +3026,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>56</v>
@@ -3084,7 +3105,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>50</v>
@@ -3161,7 +3182,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>50</v>
@@ -3238,7 +3259,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>50</v>
@@ -3315,7 +3336,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>50</v>
@@ -3392,7 +3413,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>50</v>
@@ -3469,7 +3490,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>50</v>
@@ -3546,7 +3567,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>50</v>
@@ -3625,7 +3646,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>50</v>
@@ -3702,7 +3723,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>50</v>
@@ -3779,7 +3800,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>50</v>
@@ -3857,7 +3878,7 @@
         <v>87</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>87</v>
@@ -3947,7 +3968,7 @@
         <v>87</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>87</v>
@@ -4037,7 +4058,7 @@
         <v>87</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>87</v>
@@ -4127,7 +4148,7 @@
         <v>87</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>87</v>
@@ -4217,7 +4238,7 @@
         <v>87</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>87</v>
@@ -4307,7 +4328,7 @@
         <v>87</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>87</v>
@@ -4397,7 +4418,7 @@
         <v>87</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>87</v>
@@ -4487,7 +4508,7 @@
         <v>87</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>87</v>
@@ -4559,7 +4580,7 @@
         <v>87</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>87</v>
@@ -4630,7 +4651,7 @@
         <v>87</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>87</v>
@@ -4701,7 +4722,7 @@
         <v>87</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>87</v>
@@ -4775,7 +4796,7 @@
         <v>117</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>56</v>
@@ -4947,7 +4968,7 @@
         <v>117</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>44</v>
@@ -5027,7 +5048,7 @@
         <v>87</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>87</v>
@@ -5114,7 +5135,7 @@
         <v>87</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>87</v>
@@ -5204,7 +5225,7 @@
         <v>87</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>87</v>
@@ -5294,7 +5315,7 @@
         <v>87</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>87</v>
@@ -5381,7 +5402,7 @@
         <v>87</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>87</v>
@@ -5471,10 +5492,10 @@
         <v>87</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="I35" s="30" t="s">
         <v>44</v>
@@ -5551,10 +5572,10 @@
         <v>87</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="I36" s="28" t="s">
         <v>44</v>
@@ -5632,10 +5653,10 @@
         <v>87</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I37" s="35" t="s">
         <v>160</v>
@@ -5713,10 +5734,10 @@
         <v>87</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I38" s="28" t="s">
         <v>56</v>
@@ -5797,13 +5818,13 @@
         <v>3</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I39" s="28" t="s">
         <v>44</v>
@@ -5885,10 +5906,10 @@
         <v>87</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I40" s="28" t="s">
         <v>44</v>
@@ -5966,10 +5987,10 @@
         <v>87</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I41" s="28" t="s">
         <v>44</v>
@@ -6047,10 +6068,10 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="37" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I42" s="28" t="s">
         <v>50</v>
@@ -6126,10 +6147,10 @@
         <v>87</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I43" s="28" t="s">
         <v>160</v>
@@ -6203,10 +6224,10 @@
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I44" s="28" t="s">
         <v>44</v>
@@ -6282,10 +6303,10 @@
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="37" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I45" s="28" t="s">
         <v>44</v>
@@ -6366,7 +6387,7 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I46" s="28" t="s">
         <v>56</v>
@@ -6444,10 +6465,10 @@
         <v>87</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>608</v>
       </c>
       <c r="I47" s="30" t="s">
         <v>147</v>
@@ -6525,7 +6546,7 @@
         <v>87</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>87</v>
@@ -6538,7 +6559,7 @@
         <v>177</v>
       </c>
       <c r="L48" s="38" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M48" s="30"/>
       <c r="N48" s="30">
@@ -6613,7 +6634,7 @@
         <v>87</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>87</v>
@@ -6701,7 +6722,7 @@
         <v>87</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>87</v>
@@ -6787,7 +6808,7 @@
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="37" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>87</v>
@@ -6877,10 +6898,10 @@
         <v>87</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I52" s="28" t="s">
         <v>56</v>
@@ -6921,7 +6942,7 @@
       <c r="AC52" s="28"/>
       <c r="AD52" s="28"/>
       <c r="AE52" s="38" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AF52" s="28"/>
       <c r="AG52" s="28"/>
@@ -6960,10 +6981,10 @@
         <v>87</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I53" s="28" t="s">
         <v>56</v>
@@ -7042,7 +7063,7 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I54" s="28" t="s">
         <v>50</v>
@@ -7073,7 +7094,7 @@
       <c r="S54" s="38"/>
       <c r="T54" s="28"/>
       <c r="U54" s="38" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="V54" s="28"/>
       <c r="W54" s="28"/>
@@ -7637,7 +7658,7 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I61" s="28" t="s">
         <v>56</v>
@@ -7718,7 +7739,7 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I62" s="28" t="s">
         <v>56</v>
@@ -7795,13 +7816,13 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G63" s="37" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="I63" s="30" t="s">
         <v>50</v>
@@ -7873,13 +7894,13 @@
         <v>2</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G64" s="37" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="I64" s="30" t="s">
         <v>50</v>
@@ -7953,7 +7974,7 @@
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>87</v>
@@ -8006,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="AE65" s="40" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AF65" s="28"/>
       <c r="AG65" s="28"/>
@@ -8041,7 +8062,7 @@
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>87</v>
@@ -8094,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="AE66" s="40" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AF66" s="28"/>
       <c r="AG66" s="28"/>
@@ -8129,7 +8150,7 @@
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>87</v>
@@ -8182,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="AE67" s="40" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AF67" s="28"/>
       <c r="AG67" s="28"/>
@@ -8217,7 +8238,7 @@
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>87</v>
@@ -8270,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="AE68" s="40" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AF68" s="28"/>
       <c r="AG68" s="28"/>
@@ -8307,7 +8328,7 @@
         <v>87</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>87</v>
@@ -8319,7 +8340,7 @@
         <v>291</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L69" s="28" t="s">
         <v>232</v>
@@ -8396,7 +8417,7 @@
         <v>87</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>87</v>
@@ -8408,7 +8429,7 @@
         <v>291</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L70" s="28" t="s">
         <v>234</v>
@@ -8486,7 +8507,7 @@
         <v>87</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>87</v>
@@ -8498,7 +8519,7 @@
         <v>291</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L71" s="28" t="s">
         <v>236</v>
@@ -8576,7 +8597,7 @@
         <v>87</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>87</v>
@@ -8588,7 +8609,7 @@
         <v>291</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>238</v>
@@ -8645,7 +8666,7 @@
         <v>87</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>87</v>
@@ -8657,7 +8678,7 @@
         <v>291</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>240</v>
@@ -8713,7 +8734,7 @@
         <v>87</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>87</v>
@@ -8725,7 +8746,7 @@
         <v>291</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L74" s="28" t="s">
         <v>232</v>
@@ -8781,7 +8802,7 @@
         <v>87</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>87</v>
@@ -8793,7 +8814,7 @@
         <v>291</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L75" s="28" t="s">
         <v>234</v>
@@ -8805,7 +8826,7 @@
         <v>0</v>
       </c>
       <c r="P75" s="14" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="Q75" s="28">
         <v>0</v>
@@ -8849,7 +8870,7 @@
         <v>87</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>87</v>
@@ -8861,7 +8882,7 @@
         <v>291</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L76" s="28" t="s">
         <v>236</v>
@@ -8873,7 +8894,7 @@
         <v>0</v>
       </c>
       <c r="P76" s="14" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Q76" s="28">
         <v>0</v>
@@ -8917,7 +8938,7 @@
         <v>87</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>87</v>
@@ -8929,7 +8950,7 @@
         <v>291</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L77" s="7" t="s">
         <v>238</v>
@@ -8985,7 +9006,7 @@
         <v>87</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>87</v>
@@ -8997,7 +9018,7 @@
         <v>291</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L78" s="7" t="s">
         <v>240</v>
@@ -9053,7 +9074,7 @@
         <v>87</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>87</v>
@@ -9065,7 +9086,7 @@
         <v>291</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L79" s="28" t="s">
         <v>232</v>
@@ -9121,7 +9142,7 @@
         <v>87</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>87</v>
@@ -9133,7 +9154,7 @@
         <v>291</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L80" s="28" t="s">
         <v>234</v>
@@ -9189,7 +9210,7 @@
         <v>87</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>87</v>
@@ -9201,7 +9222,7 @@
         <v>291</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L81" s="28" t="s">
         <v>236</v>
@@ -9257,7 +9278,7 @@
         <v>87</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>87</v>
@@ -9269,7 +9290,7 @@
         <v>291</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>238</v>
@@ -9325,7 +9346,7 @@
         <v>87</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>87</v>
@@ -9337,7 +9358,7 @@
         <v>291</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>240</v>
@@ -9393,7 +9414,7 @@
         <v>87</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>87</v>
@@ -9405,7 +9426,7 @@
         <v>291</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L84" s="28" t="s">
         <v>232</v>
@@ -9461,7 +9482,7 @@
         <v>87</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>87</v>
@@ -9473,7 +9494,7 @@
         <v>291</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L85" s="28" t="s">
         <v>234</v>
@@ -9529,7 +9550,7 @@
         <v>87</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>87</v>
@@ -9541,7 +9562,7 @@
         <v>291</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L86" s="28" t="s">
         <v>236</v>
@@ -9597,7 +9618,7 @@
         <v>87</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>87</v>
@@ -9609,7 +9630,7 @@
         <v>291</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L87" s="7" t="s">
         <v>238</v>
@@ -9665,7 +9686,7 @@
         <v>87</v>
       </c>
       <c r="G88" s="37" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>87</v>
@@ -9677,7 +9698,7 @@
         <v>291</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L88" s="7" t="s">
         <v>240</v>
@@ -9736,10 +9757,10 @@
         <v>87</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I89" s="30" t="s">
         <v>44</v>
@@ -9769,10 +9790,10 @@
       </c>
       <c r="T89" s="28"/>
       <c r="U89" s="40" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="V89" s="40" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="W89" s="28"/>
       <c r="X89" s="28"/>
@@ -9823,7 +9844,7 @@
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I90" s="30" t="s">
         <v>160</v>
@@ -10347,7 +10368,7 @@
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I96" s="30" t="s">
         <v>44</v>
@@ -10423,10 +10444,10 @@
         <v>87</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I97" s="30" t="s">
         <v>50</v>
@@ -10502,7 +10523,7 @@
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="37" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>87</v>
@@ -10676,10 +10697,10 @@
         <v>87</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I100" s="30" t="s">
         <v>50</v>
@@ -10756,10 +10777,10 @@
       </c>
       <c r="F101" s="44"/>
       <c r="G101" s="44" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H101" s="44" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I101" s="44" t="s">
         <v>50</v>
@@ -10833,10 +10854,10 @@
       </c>
       <c r="F102" s="44"/>
       <c r="G102" s="44" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H102" s="44" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I102" s="44" t="s">
         <v>50</v>
@@ -10911,10 +10932,10 @@
       </c>
       <c r="F103" s="44"/>
       <c r="G103" s="44" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H103" s="44" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I103" s="44" t="s">
         <v>50</v>
@@ -10989,10 +11010,10 @@
       </c>
       <c r="F104" s="44"/>
       <c r="G104" s="44" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H104" s="44" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I104" s="44" t="s">
         <v>50</v>
@@ -11046,7 +11067,7 @@
         <v>87</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>87</v>
@@ -11099,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="AE105" s="40" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AF105" s="28"/>
       <c r="AG105" s="28"/>
@@ -11136,7 +11157,7 @@
         <v>87</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>87</v>
@@ -11151,7 +11172,7 @@
         <v>292</v>
       </c>
       <c r="L106" s="40" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M106" s="28"/>
       <c r="N106" s="30">
@@ -11188,7 +11209,7 @@
         <v>0</v>
       </c>
       <c r="AE106" s="40" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AF106" s="28"/>
       <c r="AG106" s="28"/>
@@ -11225,7 +11246,7 @@
         <v>87</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>87</v>
@@ -11240,7 +11261,7 @@
         <v>292</v>
       </c>
       <c r="L107" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M107" s="28"/>
       <c r="N107" s="30">
@@ -11278,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="AE107" s="40" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AF107" s="28"/>
       <c r="AG107" s="28"/>
@@ -11315,7 +11336,7 @@
         <v>87</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>87</v>
@@ -11368,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="AE108" s="40" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AF108" s="28"/>
       <c r="AG108" s="28"/>
@@ -11405,7 +11426,7 @@
         <v>87</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>87</v>
@@ -11420,7 +11441,7 @@
         <v>292</v>
       </c>
       <c r="L109" s="40" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M109" s="28"/>
       <c r="N109" s="30">
@@ -11458,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="AE109" s="40" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AF109" s="28"/>
       <c r="AG109" s="28"/>
@@ -11495,7 +11516,7 @@
         <v>87</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>87</v>
@@ -11510,7 +11531,7 @@
         <v>292</v>
       </c>
       <c r="L110" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M110" s="28"/>
       <c r="N110" s="30">
@@ -11548,7 +11569,7 @@
         <v>0</v>
       </c>
       <c r="AE110" s="40" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AF110" s="28"/>
       <c r="AG110" s="28"/>
@@ -11586,7 +11607,7 @@
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I111" s="30" t="s">
         <v>56</v>
@@ -11663,17 +11684,17 @@
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I112" s="30" t="s">
         <v>160</v>
       </c>
       <c r="J112" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K112" s="28"/>
       <c r="L112" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M112" s="28"/>
       <c r="N112" s="30">
@@ -11683,7 +11704,7 @@
         <v>0</v>
       </c>
       <c r="P112" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q112" s="28">
         <v>0</v>
@@ -11740,17 +11761,17 @@
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I113" s="30" t="s">
         <v>56</v>
       </c>
       <c r="J113" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K113" s="28"/>
       <c r="L113" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M113" s="28"/>
       <c r="N113" s="30">
@@ -11760,7 +11781,7 @@
         <v>0</v>
       </c>
       <c r="P113" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q113" s="28">
         <v>1</v>
@@ -11800,7 +11821,7 @@
         <v>254</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C114" s="30">
         <f t="shared" si="3"/>
@@ -11819,17 +11840,17 @@
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I114" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J114" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K114" s="13"/>
       <c r="L114" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M114" s="22"/>
       <c r="N114" s="30">
@@ -11839,7 +11860,7 @@
         <v>0</v>
       </c>
       <c r="P114" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q114" s="28">
         <v>1</v>
@@ -11879,7 +11900,7 @@
         <v>254</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C115" s="30">
         <f t="shared" si="3"/>
@@ -11897,20 +11918,20 @@
         <v>87</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I115" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J115" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K115" s="13"/>
       <c r="L115" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M115" s="22"/>
       <c r="N115" s="30">
@@ -11920,7 +11941,7 @@
         <v>0</v>
       </c>
       <c r="P115" s="28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q115" s="28">
         <v>1</v>
@@ -11960,7 +11981,7 @@
         <v>254</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C116" s="30">
         <f t="shared" si="3"/>
@@ -11988,10 +12009,10 @@
         <v>291</v>
       </c>
       <c r="K116" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L116" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M116" s="28"/>
       <c r="N116" s="30">
@@ -12001,7 +12022,7 @@
         <v>0</v>
       </c>
       <c r="P116" s="28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q116" s="28">
         <v>1</v>
@@ -12048,7 +12069,7 @@
         <v>254</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C117" s="30">
         <f t="shared" si="3"/>
@@ -12076,10 +12097,10 @@
         <v>291</v>
       </c>
       <c r="K117" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L117" s="28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M117" s="28"/>
       <c r="N117" s="30">
@@ -12089,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="P117" s="28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q117" s="28">
         <v>1</v>
@@ -12136,7 +12157,7 @@
         <v>254</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C118" s="30">
         <f t="shared" si="3"/>
@@ -12164,10 +12185,10 @@
         <v>291</v>
       </c>
       <c r="K118" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L118" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M118" s="28"/>
       <c r="N118" s="30">
@@ -12177,7 +12198,7 @@
         <v>0</v>
       </c>
       <c r="P118" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q118" s="28">
         <v>1</v>
@@ -12224,7 +12245,7 @@
         <v>254</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C119" s="30">
         <f t="shared" si="3"/>
@@ -12252,10 +12273,10 @@
         <v>291</v>
       </c>
       <c r="K119" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L119" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M119" s="28"/>
       <c r="N119" s="30">
@@ -12265,7 +12286,7 @@
         <v>0</v>
       </c>
       <c r="P119" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q119" s="28">
         <v>1</v>
@@ -12312,7 +12333,7 @@
         <v>254</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C120" s="30">
         <f t="shared" si="3"/>
@@ -12340,10 +12361,10 @@
         <v>291</v>
       </c>
       <c r="K120" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L120" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M120" s="28"/>
       <c r="N120" s="30">
@@ -12353,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="P120" s="28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q120" s="28">
         <v>1</v>
@@ -12400,7 +12421,7 @@
         <v>254</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C121" s="30">
         <f t="shared" si="3"/>
@@ -12425,13 +12446,13 @@
         <v>44</v>
       </c>
       <c r="J121" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="K121" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="K121" s="28" t="s">
-        <v>329</v>
-      </c>
       <c r="L121" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M121" s="28"/>
       <c r="N121" s="30">
@@ -12441,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="P121" s="28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q121" s="28">
         <v>1</v>
@@ -12488,7 +12509,7 @@
         <v>254</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C122" s="30">
         <f t="shared" si="3"/>
@@ -12513,13 +12534,13 @@
         <v>44</v>
       </c>
       <c r="J122" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="K122" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="K122" s="28" t="s">
-        <v>329</v>
-      </c>
       <c r="L122" s="28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N122" s="30">
         <v>1</v>
@@ -12528,7 +12549,7 @@
         <v>0</v>
       </c>
       <c r="P122" s="28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q122" s="28">
         <v>1</v>
@@ -12557,7 +12578,7 @@
         <v>254</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C123" s="30">
         <f t="shared" si="3"/>
@@ -12582,13 +12603,13 @@
         <v>44</v>
       </c>
       <c r="J123" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="K123" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="K123" s="28" t="s">
-        <v>329</v>
-      </c>
       <c r="L123" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M123" s="28"/>
       <c r="N123" s="30">
@@ -12598,7 +12619,7 @@
         <v>0</v>
       </c>
       <c r="P123" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q123" s="28">
         <v>1</v>
@@ -12645,7 +12666,7 @@
         <v>254</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C124" s="30">
         <f t="shared" si="3"/>
@@ -12670,13 +12691,13 @@
         <v>44</v>
       </c>
       <c r="J124" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="K124" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="K124" s="28" t="s">
-        <v>329</v>
-      </c>
       <c r="L124" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M124" s="28"/>
       <c r="N124" s="30">
@@ -12686,7 +12707,7 @@
         <v>0</v>
       </c>
       <c r="P124" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q124" s="28">
         <v>1</v>
@@ -12733,7 +12754,7 @@
         <v>254</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C125" s="30">
         <f t="shared" si="3"/>
@@ -12758,13 +12779,13 @@
         <v>44</v>
       </c>
       <c r="J125" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="K125" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="K125" s="28" t="s">
-        <v>329</v>
-      </c>
       <c r="L125" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M125" s="28"/>
       <c r="N125" s="30">
@@ -12774,7 +12795,7 @@
         <v>0</v>
       </c>
       <c r="P125" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q125" s="28">
         <v>1</v>
@@ -12821,7 +12842,7 @@
         <v>254</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C126" s="30">
         <f t="shared" si="3"/>
@@ -12840,17 +12861,17 @@
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I126" s="41" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J126" s="13" t="s">
         <v>301</v>
       </c>
       <c r="K126" s="13"/>
       <c r="L126" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M126" s="28"/>
       <c r="N126" s="30">
@@ -12860,7 +12881,7 @@
         <v>0</v>
       </c>
       <c r="P126" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q126" s="28">
         <v>1</v>
@@ -12904,7 +12925,7 @@
         <v>254</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C127" s="30">
         <f t="shared" si="3"/>
@@ -12923,7 +12944,7 @@
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I127" s="30" t="s">
         <v>44</v>
@@ -12933,7 +12954,7 @@
       </c>
       <c r="K127" s="28"/>
       <c r="L127" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M127" s="30"/>
       <c r="N127" s="30">
@@ -12943,7 +12964,7 @@
         <v>0</v>
       </c>
       <c r="P127" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q127" s="28">
         <v>1</v>
@@ -12953,7 +12974,7 @@
       </c>
       <c r="T127" s="28"/>
       <c r="U127" s="40" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="V127" s="28"/>
       <c r="W127" s="28"/>
@@ -12982,7 +13003,7 @@
         <v>254</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C128" s="30">
         <f t="shared" si="3"/>
@@ -13000,10 +13021,10 @@
         <v>87</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I128" s="30" t="s">
         <v>50</v>
@@ -13012,10 +13033,10 @@
         <v>89</v>
       </c>
       <c r="K128" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L128" s="30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M128" s="30"/>
       <c r="N128" s="30">
@@ -13025,7 +13046,7 @@
         <v>1</v>
       </c>
       <c r="P128" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q128" s="28">
         <v>1</v>
@@ -13062,7 +13083,7 @@
         <v>254</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C129" s="30">
         <f t="shared" si="3"/>
@@ -13080,20 +13101,20 @@
         <v>87</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I129" s="30" t="s">
         <v>50</v>
       </c>
       <c r="J129" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K129" s="11"/>
       <c r="L129" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M129" s="28"/>
       <c r="N129" s="30">
@@ -13103,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="P129" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q129" s="28">
         <v>1</v>
@@ -13114,7 +13135,7 @@
       <c r="S129" s="28"/>
       <c r="T129" s="28"/>
       <c r="U129" s="40" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="V129" s="28"/>
       <c r="W129" s="28"/>
@@ -13143,7 +13164,7 @@
         <v>254</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C130" s="30">
         <f t="shared" si="3"/>
@@ -13168,13 +13189,13 @@
         <v>50</v>
       </c>
       <c r="J130" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K130" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L130" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M130" s="28"/>
       <c r="N130" s="30">
@@ -13184,7 +13205,7 @@
         <v>0</v>
       </c>
       <c r="P130" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q130" s="28">
         <v>1</v>
@@ -13231,7 +13252,7 @@
         <v>254</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C131" s="30">
         <f t="shared" si="3"/>
@@ -13256,13 +13277,13 @@
         <v>50</v>
       </c>
       <c r="J131" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K131" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L131" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M131" s="28"/>
       <c r="N131" s="30">
@@ -13272,7 +13293,7 @@
         <v>0</v>
       </c>
       <c r="P131" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q131" s="28">
         <v>1</v>
@@ -13319,7 +13340,7 @@
         <v>254</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C132" s="30">
         <f t="shared" si="3"/>
@@ -13344,13 +13365,13 @@
         <v>50</v>
       </c>
       <c r="J132" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K132" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L132" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M132" s="28"/>
       <c r="N132" s="30">
@@ -13360,7 +13381,7 @@
         <v>0</v>
       </c>
       <c r="P132" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q132" s="28">
         <v>1</v>
@@ -13407,7 +13428,7 @@
         <v>254</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C133" s="30">
         <f t="shared" si="3"/>
@@ -13435,10 +13456,10 @@
         <v>63</v>
       </c>
       <c r="K133" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L133" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M133" s="28"/>
       <c r="N133" s="30">
@@ -13448,7 +13469,7 @@
         <v>0</v>
       </c>
       <c r="P133" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q133" s="28">
         <v>1</v>
@@ -13480,7 +13501,7 @@
         <v>254</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C134" s="30">
         <f t="shared" si="3"/>
@@ -13508,10 +13529,10 @@
         <v>63</v>
       </c>
       <c r="K134" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L134" s="28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M134" s="28"/>
       <c r="N134" s="30">
@@ -13521,7 +13542,7 @@
         <v>0</v>
       </c>
       <c r="P134" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q134" s="28">
         <v>1</v>
@@ -13553,7 +13574,7 @@
         <v>254</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C135" s="30">
         <f t="shared" si="3"/>
@@ -13581,10 +13602,10 @@
         <v>63</v>
       </c>
       <c r="K135" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L135" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M135" s="28"/>
       <c r="N135" s="30">
@@ -13594,7 +13615,7 @@
         <v>0</v>
       </c>
       <c r="P135" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q135" s="28">
         <v>1</v>
@@ -13643,7 +13664,7 @@
         <v>254</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C136" s="30">
         <f t="shared" si="3"/>
@@ -13671,10 +13692,10 @@
         <v>63</v>
       </c>
       <c r="K136" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L136" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M136" s="28"/>
       <c r="N136" s="30">
@@ -13684,7 +13705,7 @@
         <v>0</v>
       </c>
       <c r="P136" s="28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q136" s="28">
         <v>1</v>
@@ -13716,7 +13737,7 @@
         <v>254</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C137" s="30">
         <f t="shared" si="3"/>
@@ -13744,10 +13765,10 @@
         <v>63</v>
       </c>
       <c r="K137" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L137" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M137" s="28"/>
       <c r="N137" s="30">
@@ -13757,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="P137" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q137" s="28">
         <v>1</v>
@@ -13804,7 +13825,7 @@
         <v>254</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C138" s="30">
         <f t="shared" si="3"/>
@@ -13832,10 +13853,10 @@
         <v>63</v>
       </c>
       <c r="K138" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L138" s="28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M138" s="28"/>
       <c r="N138" s="30">
@@ -13845,7 +13866,7 @@
         <v>0</v>
       </c>
       <c r="P138" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q138" s="28">
         <v>1</v>
@@ -13894,7 +13915,7 @@
         <v>254</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C139" s="30">
         <f t="shared" si="3"/>
@@ -13922,10 +13943,10 @@
         <v>63</v>
       </c>
       <c r="K139" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L139" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M139" s="28"/>
       <c r="N139" s="30">
@@ -13935,7 +13956,7 @@
         <v>0</v>
       </c>
       <c r="P139" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q139" s="28">
         <v>1</v>
@@ -13982,7 +14003,7 @@
         <v>254</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C140" s="30">
         <f t="shared" si="3"/>
@@ -14010,10 +14031,10 @@
         <v>63</v>
       </c>
       <c r="K140" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L140" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M140" s="28"/>
       <c r="N140" s="30">
@@ -14023,7 +14044,7 @@
         <v>0</v>
       </c>
       <c r="P140" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q140" s="28">
         <v>1</v>
@@ -14070,7 +14091,7 @@
         <v>254</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C141" s="30">
         <f t="shared" si="3"/>
@@ -14098,10 +14119,10 @@
         <v>63</v>
       </c>
       <c r="K141" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L141" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M141" s="28"/>
       <c r="N141" s="30">
@@ -14111,7 +14132,7 @@
         <v>0</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q141" s="28">
         <v>1</v>
@@ -14158,7 +14179,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C142" s="30">
         <f t="shared" si="3"/>
@@ -14186,10 +14207,10 @@
         <v>63</v>
       </c>
       <c r="K142" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L142" s="28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M142" s="28"/>
       <c r="N142" s="30">
@@ -14199,7 +14220,7 @@
         <v>0</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q142" s="28">
         <v>1</v>
@@ -14246,7 +14267,7 @@
         <v>254</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C143" s="30">
         <f t="shared" si="3"/>
@@ -14274,10 +14295,10 @@
         <v>63</v>
       </c>
       <c r="K143" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L143" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M143" s="28"/>
       <c r="N143" s="30">
@@ -14287,7 +14308,7 @@
         <v>0</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q143" s="28">
         <v>1</v>
@@ -14334,7 +14355,7 @@
         <v>254</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C144" s="30">
         <f t="shared" si="3"/>
@@ -14362,10 +14383,10 @@
         <v>63</v>
       </c>
       <c r="K144" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L144" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M144" s="28"/>
       <c r="N144" s="30">
@@ -14375,7 +14396,7 @@
         <v>0</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q144" s="28">
         <v>1</v>
@@ -14422,7 +14443,7 @@
         <v>254</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C145" s="30">
         <f t="shared" si="3"/>
@@ -14450,10 +14471,10 @@
         <v>63</v>
       </c>
       <c r="K145" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L145" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M145" s="19"/>
       <c r="N145" s="30">
@@ -14463,7 +14484,7 @@
         <v>0</v>
       </c>
       <c r="P145" s="28" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Q145" s="28">
         <v>1</v>
@@ -14510,7 +14531,7 @@
         <v>254</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C146" s="30">
         <f t="shared" ref="C146:C210" si="6">_xlfn.NUMBERVALUE(LEFT(P146,2))</f>
@@ -14538,10 +14559,10 @@
         <v>63</v>
       </c>
       <c r="K146" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L146" s="28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M146" s="19"/>
       <c r="N146" s="30">
@@ -14551,7 +14572,7 @@
         <v>0</v>
       </c>
       <c r="P146" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Q146" s="28">
         <v>1</v>
@@ -14600,7 +14621,7 @@
         <v>254</v>
       </c>
       <c r="B147" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C147" s="30">
         <f t="shared" si="6"/>
@@ -14628,10 +14649,10 @@
         <v>63</v>
       </c>
       <c r="K147" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L147" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M147" s="28"/>
       <c r="N147" s="30">
@@ -14641,7 +14662,7 @@
         <v>0</v>
       </c>
       <c r="P147" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Q147" s="28">
         <v>1</v>
@@ -14688,7 +14709,7 @@
         <v>254</v>
       </c>
       <c r="B148" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C148" s="30">
         <f t="shared" si="6"/>
@@ -14716,10 +14737,10 @@
         <v>63</v>
       </c>
       <c r="K148" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L148" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M148" s="28"/>
       <c r="N148" s="30">
@@ -14729,7 +14750,7 @@
         <v>0</v>
       </c>
       <c r="P148" s="28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q148" s="28">
         <v>1</v>
@@ -14776,7 +14797,7 @@
         <v>254</v>
       </c>
       <c r="B149" s="30" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C149" s="30">
         <f t="shared" si="6"/>
@@ -14794,18 +14815,18 @@
         <v>87</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I149" s="41" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J149" s="28"/>
       <c r="K149" s="28"/>
       <c r="L149" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M149" s="28"/>
       <c r="N149" s="30">
@@ -14815,7 +14836,7 @@
         <v>0</v>
       </c>
       <c r="P149" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q149" s="28">
         <v>1</v>
@@ -14827,7 +14848,7 @@
       <c r="T149" s="28"/>
       <c r="U149" s="28"/>
       <c r="V149" s="40" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="W149" s="28"/>
       <c r="X149" s="28"/>
@@ -14857,7 +14878,7 @@
         <v>254</v>
       </c>
       <c r="B150" s="30" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C150" s="30">
         <f t="shared" si="6"/>
@@ -14876,7 +14897,7 @@
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I150" s="30" t="s">
         <v>44</v>
@@ -14884,7 +14905,7 @@
       <c r="J150" s="28"/>
       <c r="K150" s="28"/>
       <c r="L150" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M150" s="28"/>
       <c r="N150" s="30">
@@ -14894,7 +14915,7 @@
         <v>0</v>
       </c>
       <c r="P150" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q150" s="28">
         <v>1</v>
@@ -14934,7 +14955,7 @@
         <v>254</v>
       </c>
       <c r="B151" s="30" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C151" s="30">
         <f t="shared" si="6"/>
@@ -14950,10 +14971,10 @@
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I151" s="30" t="s">
         <v>44</v>
@@ -14961,7 +14982,7 @@
       <c r="J151" s="28"/>
       <c r="K151" s="28"/>
       <c r="L151" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M151" s="28"/>
       <c r="N151" s="30">
@@ -14971,7 +14992,7 @@
         <v>0</v>
       </c>
       <c r="P151" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q151" s="28">
         <v>1</v>
@@ -15009,7 +15030,7 @@
         <v>254</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C152" s="33">
         <f t="shared" ref="C152" si="9">_xlfn.NUMBERVALUE(LEFT(P152,2))</f>
@@ -15025,10 +15046,10 @@
       </c>
       <c r="F152" s="37"/>
       <c r="G152" s="42" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H152" s="37" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I152" s="33" t="s">
         <v>44</v>
@@ -15036,7 +15057,7 @@
       <c r="J152" s="33"/>
       <c r="K152" s="33"/>
       <c r="L152" s="42" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="M152" s="33"/>
       <c r="N152" s="33">
@@ -15046,7 +15067,7 @@
         <v>0</v>
       </c>
       <c r="P152" s="43" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q152" s="28">
         <v>1</v>
@@ -15081,10 +15102,10 @@
     </row>
     <row r="153" spans="1:45" s="5" customFormat="1" ht="16">
       <c r="A153" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="B153" s="30" t="s">
         <v>384</v>
-      </c>
-      <c r="B153" s="30" t="s">
-        <v>385</v>
       </c>
       <c r="C153" s="30">
         <f t="shared" si="6"/>
@@ -15109,13 +15130,13 @@
         <v>44</v>
       </c>
       <c r="J153" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K153" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L153" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M153" s="32"/>
       <c r="N153" s="30">
@@ -15125,7 +15146,7 @@
         <v>0</v>
       </c>
       <c r="P153" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q153" s="28">
         <v>1</v>
@@ -15171,10 +15192,10 @@
     </row>
     <row r="154" spans="1:45" ht="16">
       <c r="A154" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="B154" s="30" t="s">
         <v>384</v>
-      </c>
-      <c r="B154" s="30" t="s">
-        <v>385</v>
       </c>
       <c r="C154" s="30">
         <f t="shared" si="6"/>
@@ -15199,13 +15220,13 @@
         <v>44</v>
       </c>
       <c r="J154" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K154" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L154" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M154" s="32"/>
       <c r="N154" s="30">
@@ -15215,7 +15236,7 @@
         <v>0</v>
       </c>
       <c r="P154" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q154" s="28">
         <v>1</v>
@@ -15259,10 +15280,10 @@
     </row>
     <row r="155" spans="1:45" ht="16">
       <c r="A155" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="B155" s="30" t="s">
         <v>384</v>
-      </c>
-      <c r="B155" s="30" t="s">
-        <v>385</v>
       </c>
       <c r="C155" s="30">
         <f t="shared" si="6"/>
@@ -15287,13 +15308,13 @@
         <v>44</v>
       </c>
       <c r="J155" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K155" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L155" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M155" s="32"/>
       <c r="N155" s="30">
@@ -15303,7 +15324,7 @@
         <v>0</v>
       </c>
       <c r="P155" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q155" s="28">
         <v>1</v>
@@ -15347,10 +15368,10 @@
     </row>
     <row r="156" spans="1:45" ht="16">
       <c r="A156" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="B156" s="30" t="s">
         <v>384</v>
-      </c>
-      <c r="B156" s="30" t="s">
-        <v>385</v>
       </c>
       <c r="C156" s="30">
         <f t="shared" si="6"/>
@@ -15375,13 +15396,13 @@
         <v>44</v>
       </c>
       <c r="J156" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K156" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L156" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M156" s="32"/>
       <c r="N156" s="30">
@@ -15391,7 +15412,7 @@
         <v>0</v>
       </c>
       <c r="P156" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q156" s="28">
         <v>1</v>
@@ -15435,10 +15456,10 @@
     </row>
     <row r="157" spans="1:45" ht="16">
       <c r="A157" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="B157" s="30" t="s">
         <v>384</v>
-      </c>
-      <c r="B157" s="30" t="s">
-        <v>385</v>
       </c>
       <c r="C157" s="30">
         <f t="shared" si="6"/>
@@ -15456,20 +15477,20 @@
         <v>87</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I157" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J157" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K157" s="11"/>
       <c r="L157" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M157" s="32"/>
       <c r="N157" s="30">
@@ -15479,7 +15500,7 @@
         <v>0</v>
       </c>
       <c r="P157" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q157" s="28">
         <v>1</v>
@@ -15516,10 +15537,10 @@
     </row>
     <row r="158" spans="1:45" ht="16">
       <c r="A158" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="B158" s="30" t="s">
         <v>384</v>
-      </c>
-      <c r="B158" s="30" t="s">
-        <v>385</v>
       </c>
       <c r="C158" s="30">
         <f t="shared" si="6"/>
@@ -15537,20 +15558,20 @@
         <v>87</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I158" s="41" t="s">
         <v>44</v>
       </c>
       <c r="J158" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="K158" s="11"/>
       <c r="L158" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M158" s="28"/>
       <c r="N158" s="30">
@@ -15560,7 +15581,7 @@
         <v>0</v>
       </c>
       <c r="P158" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q158" s="28">
         <v>1</v>
@@ -15597,10 +15618,10 @@
     </row>
     <row r="159" spans="1:45" ht="16">
       <c r="A159" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="B159" s="30" t="s">
         <v>384</v>
-      </c>
-      <c r="B159" s="30" t="s">
-        <v>385</v>
       </c>
       <c r="C159" s="30">
         <f t="shared" si="6"/>
@@ -15619,17 +15640,17 @@
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I159" s="30" t="s">
         <v>56</v>
       </c>
       <c r="J159" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K159" s="11"/>
       <c r="L159" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M159" s="28"/>
       <c r="N159" s="28">
@@ -15639,7 +15660,7 @@
         <v>0</v>
       </c>
       <c r="P159" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Q159" s="28">
         <v>1</v>
@@ -15674,10 +15695,10 @@
     </row>
     <row r="160" spans="1:45" ht="16">
       <c r="A160" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="B160" s="28" t="s">
         <v>384</v>
-      </c>
-      <c r="B160" s="28" t="s">
-        <v>385</v>
       </c>
       <c r="C160" s="30">
         <f t="shared" si="6"/>
@@ -15695,20 +15716,20 @@
         <v>87</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I160" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J160" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K160" s="11"/>
       <c r="L160" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M160" s="11"/>
       <c r="N160" s="28">
@@ -15718,7 +15739,7 @@
         <v>0</v>
       </c>
       <c r="P160" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q160" s="28">
         <v>1</v>
@@ -15753,10 +15774,10 @@
     </row>
     <row r="161" spans="1:45" ht="16">
       <c r="A161" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B161" s="30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C161" s="30">
         <f t="shared" si="6"/>
@@ -15775,29 +15796,29 @@
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I161" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J161" s="40" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K161" s="28"/>
       <c r="L161" s="41" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="M161" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="N161" s="28">
+        <v>0</v>
+      </c>
+      <c r="O161" s="28">
+        <v>0</v>
+      </c>
+      <c r="P161" s="28" t="s">
         <v>405</v>
-      </c>
-      <c r="N161" s="28">
-        <v>0</v>
-      </c>
-      <c r="O161" s="28">
-        <v>0</v>
-      </c>
-      <c r="P161" s="28" t="s">
-        <v>406</v>
       </c>
       <c r="Q161" s="28">
         <v>1</v>
@@ -15811,7 +15832,7 @@
       <c r="V161" s="28"/>
       <c r="W161" s="28"/>
       <c r="X161" s="28">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y161" s="28"/>
       <c r="Z161" s="28"/>
@@ -15842,10 +15863,10 @@
     </row>
     <row r="162" spans="1:45" ht="16">
       <c r="A162" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B162" s="30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C162" s="30">
         <f t="shared" si="6"/>
@@ -15864,17 +15885,17 @@
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I162" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J162" s="28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K162" s="28"/>
       <c r="L162" s="30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M162" s="28"/>
       <c r="N162" s="28">
@@ -15884,7 +15905,7 @@
         <v>0</v>
       </c>
       <c r="P162" s="28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q162" s="28">
         <v>1</v>
@@ -15895,7 +15916,7 @@
       <c r="S162" s="28"/>
       <c r="T162" s="28"/>
       <c r="U162" s="40" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="V162" s="28"/>
       <c r="W162" s="28"/>
@@ -15907,7 +15928,7 @@
       <c r="AC162" s="2"/>
       <c r="AD162" s="2"/>
       <c r="AE162" s="40" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AF162" s="28"/>
       <c r="AG162" s="28"/>
@@ -15925,10 +15946,10 @@
     </row>
     <row r="163" spans="1:45" ht="16">
       <c r="A163" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B163" s="30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C163" s="30">
         <f t="shared" si="6"/>
@@ -15947,17 +15968,17 @@
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I163" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J163" s="28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K163" s="28"/>
       <c r="L163" s="30" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M163" s="28"/>
       <c r="N163" s="28">
@@ -15967,7 +15988,7 @@
         <v>0</v>
       </c>
       <c r="P163" s="28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q163" s="28">
         <v>1</v>
@@ -16004,10 +16025,10 @@
     </row>
     <row r="164" spans="1:45" ht="16">
       <c r="A164" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B164" s="30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C164" s="30">
         <f t="shared" si="6"/>
@@ -16025,20 +16046,20 @@
         <v>87</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I164" s="28" t="s">
         <v>147</v>
       </c>
       <c r="J164" s="40" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K164" s="28"/>
       <c r="L164" s="30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M164" s="28"/>
       <c r="N164" s="28">
@@ -16048,7 +16069,7 @@
         <v>0</v>
       </c>
       <c r="P164" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q164" s="28">
         <v>0</v>
@@ -16086,10 +16107,10 @@
     </row>
     <row r="165" spans="1:45" s="5" customFormat="1" ht="16">
       <c r="A165" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B165" s="30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C165" s="30">
         <f t="shared" si="6"/>
@@ -16108,17 +16129,17 @@
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I165" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J165" s="40" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K165" s="28"/>
       <c r="L165" s="30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M165" s="28"/>
       <c r="N165" s="28">
@@ -16128,7 +16149,7 @@
         <v>0</v>
       </c>
       <c r="P165" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Q165" s="28">
         <v>1</v>
@@ -16168,10 +16189,10 @@
     </row>
     <row r="166" spans="1:45" ht="16">
       <c r="A166" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B166" s="30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C166" s="30">
         <f t="shared" si="6"/>
@@ -16190,17 +16211,17 @@
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I166" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J166" s="40" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K166" s="28"/>
       <c r="L166" s="30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M166" s="28"/>
       <c r="N166" s="28">
@@ -16210,7 +16231,7 @@
         <v>0</v>
       </c>
       <c r="P166" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q166" s="28">
         <v>1</v>
@@ -16246,10 +16267,10 @@
     </row>
     <row r="167" spans="1:45" ht="16">
       <c r="A167" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B167" s="30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C167" s="30">
         <f t="shared" si="6"/>
@@ -16267,10 +16288,10 @@
         <v>87</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I167" s="28" t="s">
         <v>160</v>
@@ -16278,7 +16299,7 @@
       <c r="J167" s="28"/>
       <c r="K167" s="28"/>
       <c r="L167" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M167" s="28"/>
       <c r="N167" s="28">
@@ -16288,7 +16309,7 @@
         <v>0</v>
       </c>
       <c r="P167" s="28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q167" s="28">
         <v>1</v>
@@ -16300,7 +16321,7 @@
       <c r="T167" s="28"/>
       <c r="U167" s="40"/>
       <c r="V167" s="40" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="W167" s="28"/>
       <c r="X167" s="28"/>
@@ -16326,10 +16347,10 @@
     </row>
     <row r="168" spans="1:45" ht="16">
       <c r="A168" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B168" s="30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C168" s="30">
         <f t="shared" si="6"/>
@@ -16347,25 +16368,25 @@
         <v>87</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I168" s="30" t="s">
         <v>160</v>
       </c>
       <c r="L168" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="N168" s="30">
+        <v>0</v>
+      </c>
+      <c r="O168" s="30">
+        <v>0</v>
+      </c>
+      <c r="P168" s="28" t="s">
         <v>421</v>
-      </c>
-      <c r="N168" s="30">
-        <v>0</v>
-      </c>
-      <c r="O168" s="30">
-        <v>0</v>
-      </c>
-      <c r="P168" s="28" t="s">
-        <v>422</v>
       </c>
       <c r="Q168" s="28">
         <v>1</v>
@@ -16376,10 +16397,10 @@
     </row>
     <row r="169" spans="1:45" ht="16">
       <c r="A169" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B169" s="30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C169" s="30">
         <f t="shared" si="6"/>
@@ -16398,17 +16419,17 @@
       </c>
       <c r="G169" s="1"/>
       <c r="H169" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I169" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J169" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K169" s="28"/>
       <c r="L169" s="30" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M169" s="28"/>
       <c r="N169" s="28">
@@ -16418,7 +16439,7 @@
         <v>0</v>
       </c>
       <c r="P169" s="30" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Q169" s="28">
         <v>1</v>
@@ -16454,10 +16475,10 @@
     </row>
     <row r="170" spans="1:45" ht="16">
       <c r="A170" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B170" s="30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C170" s="30">
         <f t="shared" si="6"/>
@@ -16471,20 +16492,22 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="F170" s="1"/>
+      <c r="F170" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G170" s="1"/>
       <c r="H170" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I170" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J170" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K170" s="11"/>
       <c r="L170" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M170" s="23"/>
       <c r="N170" s="28">
@@ -16494,7 +16517,7 @@
         <v>0</v>
       </c>
       <c r="P170" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Q170" s="28">
         <v>1</v>
@@ -16530,10 +16553,10 @@
     </row>
     <row r="171" spans="1:45" ht="16">
       <c r="A171" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B171" s="30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C171" s="30">
         <f t="shared" si="6"/>
@@ -16547,20 +16570,22 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="F171" s="1"/>
+      <c r="F171" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I171" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J171" s="28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K171" s="28"/>
       <c r="L171" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M171" s="24"/>
       <c r="N171" s="28">
@@ -16570,27 +16595,31 @@
         <v>0</v>
       </c>
       <c r="P171" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Q171" s="28">
         <v>1</v>
       </c>
       <c r="R171" s="28" t="s">
-        <v>433</v>
+        <v>60</v>
       </c>
       <c r="S171" s="28"/>
       <c r="T171" s="28"/>
       <c r="U171" s="28"/>
       <c r="V171" s="28"/>
       <c r="W171" s="28"/>
-      <c r="X171" s="28"/>
+      <c r="X171" s="28">
+        <v>13</v>
+      </c>
       <c r="Y171" s="28"/>
       <c r="Z171" s="28"/>
       <c r="AA171" s="28"/>
       <c r="AB171" s="28"/>
       <c r="AC171" s="28"/>
       <c r="AD171" s="28"/>
-      <c r="AE171" s="28"/>
+      <c r="AE171" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="AF171" s="28"/>
       <c r="AG171" s="28"/>
       <c r="AH171" s="28"/>
@@ -16606,10 +16635,10 @@
     </row>
     <row r="172" spans="1:45" s="5" customFormat="1" ht="16">
       <c r="A172" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B172" s="30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C172" s="30">
         <f t="shared" si="6"/>
@@ -16623,20 +16652,22 @@
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="F172" s="1"/>
+      <c r="F172" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I172" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J172" s="28" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K172" s="28"/>
       <c r="L172" s="23" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M172" s="19"/>
       <c r="N172" s="28">
@@ -16646,7 +16677,7 @@
         <v>0</v>
       </c>
       <c r="P172" s="28" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="Q172" s="28">
         <v>1</v>
@@ -16670,7 +16701,9 @@
       <c r="AF172" s="28"/>
       <c r="AG172" s="28"/>
       <c r="AH172" s="28"/>
-      <c r="AI172" s="28"/>
+      <c r="AI172" s="28">
+        <v>0</v>
+      </c>
       <c r="AJ172" s="28"/>
       <c r="AK172" s="28"/>
       <c r="AL172" s="28"/>
@@ -16684,10 +16717,10 @@
     </row>
     <row r="173" spans="1:45" ht="16">
       <c r="A173" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B173" s="30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C173" s="30">
         <f t="shared" si="6"/>
@@ -16701,20 +16734,22 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="F173" s="1"/>
+      <c r="F173" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G173" s="1"/>
       <c r="H173" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I173" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="J173" s="28" t="s">
-        <v>63</v>
+      <c r="J173" s="40" t="s">
+        <v>627</v>
       </c>
       <c r="K173" s="28"/>
       <c r="L173" s="28" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M173" s="28"/>
       <c r="N173" s="28">
@@ -16724,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="P173" s="28" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Q173" s="28">
         <v>1</v>
@@ -16760,10 +16795,10 @@
     </row>
     <row r="174" spans="1:45" ht="16">
       <c r="A174" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B174" s="30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C174" s="30">
         <f t="shared" si="6"/>
@@ -16777,20 +16812,22 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="F174" s="1"/>
+      <c r="F174" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G174" s="1"/>
       <c r="H174" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I174" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="J174" s="28" t="s">
-        <v>63</v>
+      <c r="J174" s="40" t="s">
+        <v>627</v>
       </c>
       <c r="K174" s="28"/>
       <c r="L174" s="28" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M174" s="28"/>
       <c r="N174" s="28">
@@ -16800,7 +16837,7 @@
         <v>0</v>
       </c>
       <c r="P174" s="28" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Q174" s="28">
         <v>1</v>
@@ -16836,10 +16873,10 @@
     </row>
     <row r="175" spans="1:45" s="48" customFormat="1" ht="16">
       <c r="A175" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B175" s="33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C175" s="33">
         <f t="shared" si="6"/>
@@ -16855,20 +16892,20 @@
       </c>
       <c r="F175" s="37"/>
       <c r="G175" s="42" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H175" s="37" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I175" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="J175" s="33" t="s">
-        <v>63</v>
+      <c r="J175" s="40" t="s">
+        <v>627</v>
       </c>
       <c r="K175" s="33"/>
       <c r="L175" s="33" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M175" s="46"/>
       <c r="N175" s="33">
@@ -16878,7 +16915,7 @@
         <v>1</v>
       </c>
       <c r="P175" s="43" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="Q175" s="33">
         <v>1</v>
@@ -16918,10 +16955,10 @@
     </row>
     <row r="176" spans="1:45" ht="16">
       <c r="A176" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B176" s="30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C176" s="30">
         <f t="shared" si="6"/>
@@ -16935,20 +16972,24 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
+      <c r="F176" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>658</v>
+      </c>
       <c r="H176" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I176" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="J176" s="28" t="s">
-        <v>63</v>
+      <c r="J176" s="40" t="s">
+        <v>627</v>
       </c>
       <c r="K176" s="28"/>
       <c r="L176" s="28" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M176" s="28"/>
       <c r="N176" s="30">
@@ -16958,7 +16999,7 @@
         <v>0</v>
       </c>
       <c r="P176" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Q176" s="28">
         <v>1</v>
@@ -16993,10 +17034,10 @@
     </row>
     <row r="177" spans="1:45" ht="16">
       <c r="A177" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B177" s="30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C177" s="30">
         <f t="shared" si="6"/>
@@ -17010,20 +17051,24 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="F177" s="1"/>
+      <c r="F177" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G177" s="1"/>
       <c r="H177" s="1" t="s">
-        <v>609</v>
+        <v>87</v>
       </c>
       <c r="I177" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="J177" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="K177" s="28"/>
-      <c r="L177" s="30" t="s">
-        <v>447</v>
+        <v>444</v>
+      </c>
+      <c r="J177" s="40" t="s">
+        <v>627</v>
+      </c>
+      <c r="K177" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="L177" s="28" t="s">
+        <v>318</v>
       </c>
       <c r="M177" s="28"/>
       <c r="N177" s="30">
@@ -17033,16 +17078,13 @@
         <v>0</v>
       </c>
       <c r="P177" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="Q177" s="28">
         <v>1</v>
       </c>
       <c r="R177" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S177" s="28" t="s">
-        <v>319</v>
       </c>
       <c r="T177" s="28"/>
       <c r="U177" s="28"/>
@@ -17052,12 +17094,20 @@
       </c>
       <c r="X177" s="28"/>
       <c r="Y177" s="28"/>
-      <c r="Z177" s="28"/>
+      <c r="Z177" s="28">
+        <v>3</v>
+      </c>
       <c r="AA177" s="28"/>
       <c r="AB177" s="28"/>
-      <c r="AC177" s="28"/>
-      <c r="AD177" s="28"/>
-      <c r="AE177" s="28"/>
+      <c r="AC177" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD177" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE177" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="AF177" s="28"/>
       <c r="AG177" s="28"/>
       <c r="AH177" s="28"/>
@@ -17073,10 +17123,10 @@
     </row>
     <row r="178" spans="1:45" ht="16">
       <c r="A178" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B178" s="30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C178" s="30">
         <f t="shared" si="6"/>
@@ -17090,20 +17140,24 @@
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="F178" s="1"/>
+      <c r="F178" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G178" s="1"/>
       <c r="H178" s="1" t="s">
-        <v>609</v>
+        <v>87</v>
       </c>
       <c r="I178" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="J178" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="K178" s="28"/>
-      <c r="L178" s="30" t="s">
-        <v>447</v>
+        <v>444</v>
+      </c>
+      <c r="J178" s="40" t="s">
+        <v>627</v>
+      </c>
+      <c r="K178" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="L178" s="28" t="s">
+        <v>320</v>
       </c>
       <c r="M178" s="28"/>
       <c r="N178" s="30">
@@ -17113,16 +17167,13 @@
         <v>0</v>
       </c>
       <c r="P178" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Q178" s="28">
         <v>1</v>
       </c>
       <c r="R178" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S178" s="28" t="s">
-        <v>321</v>
       </c>
       <c r="T178" s="28"/>
       <c r="U178" s="28"/>
@@ -17132,12 +17183,20 @@
       </c>
       <c r="X178" s="28"/>
       <c r="Y178" s="28"/>
-      <c r="Z178" s="28"/>
+      <c r="Z178" s="28">
+        <v>3</v>
+      </c>
       <c r="AA178" s="28"/>
       <c r="AB178" s="28"/>
-      <c r="AC178" s="28"/>
-      <c r="AD178" s="28"/>
-      <c r="AE178" s="28"/>
+      <c r="AC178" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD178" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE178" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="AF178" s="28"/>
       <c r="AG178" s="28"/>
       <c r="AH178" s="28"/>
@@ -17153,10 +17212,10 @@
     </row>
     <row r="179" spans="1:45" ht="16">
       <c r="A179" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B179" s="30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C179" s="30">
         <f t="shared" si="6"/>
@@ -17170,20 +17229,24 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="F179" s="1"/>
+      <c r="F179" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G179" s="1"/>
       <c r="H179" s="1" t="s">
-        <v>609</v>
+        <v>87</v>
       </c>
       <c r="I179" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="J179" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="K179" s="28"/>
-      <c r="L179" s="30" t="s">
-        <v>447</v>
+        <v>444</v>
+      </c>
+      <c r="J179" s="40" t="s">
+        <v>627</v>
+      </c>
+      <c r="K179" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="L179" s="28" t="s">
+        <v>322</v>
       </c>
       <c r="M179" s="28"/>
       <c r="N179" s="30">
@@ -17193,16 +17256,13 @@
         <v>0</v>
       </c>
       <c r="P179" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="Q179" s="28">
         <v>1</v>
       </c>
       <c r="R179" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S179" s="28" t="s">
-        <v>323</v>
       </c>
       <c r="T179" s="28"/>
       <c r="U179" s="28"/>
@@ -17212,12 +17272,20 @@
       </c>
       <c r="X179" s="28"/>
       <c r="Y179" s="28"/>
-      <c r="Z179" s="28"/>
+      <c r="Z179" s="28">
+        <v>3</v>
+      </c>
       <c r="AA179" s="28"/>
       <c r="AB179" s="28"/>
-      <c r="AC179" s="28"/>
-      <c r="AD179" s="28"/>
-      <c r="AE179" s="28"/>
+      <c r="AC179" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD179" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE179" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="AF179" s="28"/>
       <c r="AG179" s="28"/>
       <c r="AH179" s="28"/>
@@ -17233,10 +17301,10 @@
     </row>
     <row r="180" spans="1:45" ht="16">
       <c r="A180" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B180" s="30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C180" s="30">
         <f t="shared" si="6"/>
@@ -17250,20 +17318,24 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="F180" s="1"/>
+      <c r="F180" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1" t="s">
-        <v>609</v>
+        <v>87</v>
       </c>
       <c r="I180" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="J180" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="K180" s="28"/>
-      <c r="L180" s="30" t="s">
-        <v>447</v>
+        <v>444</v>
+      </c>
+      <c r="J180" s="40" t="s">
+        <v>627</v>
+      </c>
+      <c r="K180" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="L180" s="28" t="s">
+        <v>450</v>
       </c>
       <c r="M180" s="30"/>
       <c r="N180" s="30">
@@ -17273,29 +17345,36 @@
         <v>0</v>
       </c>
       <c r="P180" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="Q180" s="28">
         <v>1</v>
       </c>
       <c r="R180" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S180" s="28" t="s">
-        <v>452</v>
       </c>
       <c r="T180" s="28"/>
       <c r="U180" s="28"/>
       <c r="V180" s="28"/>
-      <c r="W180" s="28"/>
+      <c r="W180" s="28">
+        <v>10000</v>
+      </c>
       <c r="X180" s="28"/>
       <c r="Y180" s="28"/>
-      <c r="Z180" s="28"/>
+      <c r="Z180" s="28">
+        <v>3</v>
+      </c>
       <c r="AA180" s="28"/>
       <c r="AB180" s="28"/>
-      <c r="AC180" s="28"/>
-      <c r="AD180" s="28"/>
-      <c r="AE180" s="28"/>
+      <c r="AC180" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD180" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE180" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="AF180" s="28"/>
       <c r="AG180" s="28"/>
       <c r="AH180" s="28"/>
@@ -17311,10 +17390,10 @@
     </row>
     <row r="181" spans="1:45" s="5" customFormat="1" ht="16">
       <c r="A181" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B181" s="30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C181" s="30">
         <f t="shared" si="6"/>
@@ -17328,20 +17407,22 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="F181" s="1"/>
+      <c r="F181" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J181" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K181" s="12"/>
       <c r="L181" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M181" s="1"/>
       <c r="N181" s="1">
@@ -17351,27 +17432,31 @@
         <v>0</v>
       </c>
       <c r="P181" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q181" s="28">
         <v>1</v>
       </c>
       <c r="R181" s="28" t="s">
-        <v>304</v>
+        <v>60</v>
       </c>
       <c r="S181" s="28"/>
       <c r="T181" s="28"/>
       <c r="U181" s="28"/>
       <c r="V181" s="28"/>
       <c r="W181" s="28"/>
-      <c r="X181" s="28"/>
+      <c r="X181" s="28">
+        <v>6</v>
+      </c>
       <c r="Y181" s="28"/>
       <c r="Z181" s="28"/>
       <c r="AA181" s="28"/>
       <c r="AB181" s="28"/>
       <c r="AC181" s="28"/>
       <c r="AD181" s="28"/>
-      <c r="AE181" s="28"/>
+      <c r="AE181" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="AF181" s="28"/>
       <c r="AG181" s="28"/>
       <c r="AH181" s="28"/>
@@ -17389,10 +17474,10 @@
     </row>
     <row r="182" spans="1:45" ht="16">
       <c r="A182" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B182" s="30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C182" s="30">
         <f t="shared" si="6"/>
@@ -17406,20 +17491,22 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="F182" s="1"/>
+      <c r="F182" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G182" s="1"/>
       <c r="H182" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I182" s="1" t="s">
         <v>160</v>
       </c>
       <c r="J182" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K182" s="11"/>
       <c r="L182" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M182" s="1"/>
       <c r="N182" s="1">
@@ -17429,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="P182" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q182" s="28">
         <v>1</v>
@@ -17449,7 +17536,9 @@
       <c r="AB182" s="28"/>
       <c r="AC182" s="28"/>
       <c r="AD182" s="28"/>
-      <c r="AE182" s="28"/>
+      <c r="AE182" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="AF182" s="28"/>
       <c r="AG182" s="28"/>
       <c r="AH182" s="28"/>
@@ -17465,10 +17554,10 @@
     </row>
     <row r="183" spans="1:45" ht="16">
       <c r="A183" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B183" s="30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C183" s="30">
         <f t="shared" si="6"/>
@@ -17482,10 +17571,12 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="F183" s="1"/>
+      <c r="F183" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G183" s="1"/>
       <c r="H183" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>160</v>
@@ -17495,7 +17586,7 @@
       </c>
       <c r="K183" s="11"/>
       <c r="L183" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M183" s="28"/>
       <c r="N183" s="1">
@@ -17505,7 +17596,7 @@
         <v>0</v>
       </c>
       <c r="P183" s="12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="Q183" s="28">
         <v>1</v>
@@ -17525,7 +17616,9 @@
       <c r="AB183" s="28"/>
       <c r="AC183" s="28"/>
       <c r="AD183" s="28"/>
-      <c r="AE183" s="28"/>
+      <c r="AE183" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="AF183" s="28"/>
       <c r="AG183" s="28"/>
       <c r="AH183" s="28"/>
@@ -17541,10 +17634,10 @@
     </row>
     <row r="184" spans="1:45" ht="16">
       <c r="A184" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B184" s="30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C184" s="30">
         <f t="shared" si="6"/>
@@ -17558,20 +17651,22 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="F184" s="1"/>
+      <c r="F184" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I184" s="1" t="s">
         <v>160</v>
       </c>
       <c r="J184" s="28" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K184" s="28"/>
       <c r="L184" s="11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M184" s="19"/>
       <c r="N184" s="1">
@@ -17581,7 +17676,7 @@
         <v>0</v>
       </c>
       <c r="P184" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Q184" s="28">
         <v>1</v>
@@ -17601,7 +17696,9 @@
       <c r="AB184" s="28"/>
       <c r="AC184" s="28"/>
       <c r="AD184" s="28"/>
-      <c r="AE184" s="28"/>
+      <c r="AE184" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="AF184" s="28"/>
       <c r="AG184" s="28"/>
       <c r="AH184" s="28"/>
@@ -17617,10 +17714,10 @@
     </row>
     <row r="185" spans="1:45" ht="16">
       <c r="A185" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B185" s="30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C185" s="30">
         <f t="shared" si="6"/>
@@ -17634,20 +17731,24 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="F185" s="1"/>
+      <c r="F185" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G185" s="1"/>
       <c r="H185" s="1" t="s">
-        <v>609</v>
+        <v>87</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J185" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="K185" s="28"/>
-      <c r="L185" s="28" t="s">
-        <v>464</v>
+      <c r="J185" s="40" t="s">
+        <v>627</v>
+      </c>
+      <c r="K185" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="L185" s="10" t="s">
+        <v>660</v>
       </c>
       <c r="M185" s="19"/>
       <c r="N185" s="1">
@@ -17657,7 +17758,7 @@
         <v>0</v>
       </c>
       <c r="P185" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q185" s="28">
         <v>1</v>
@@ -17669,16 +17770,24 @@
       <c r="T185" s="28"/>
       <c r="U185" s="28"/>
       <c r="W185" s="28">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="X185" s="28"/>
       <c r="Y185" s="28"/>
-      <c r="Z185" s="28"/>
+      <c r="Z185" s="28">
+        <v>5</v>
+      </c>
       <c r="AA185" s="28"/>
       <c r="AB185" s="28"/>
-      <c r="AC185" s="28"/>
-      <c r="AD185" s="28"/>
-      <c r="AE185" s="28"/>
+      <c r="AC185" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD185" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE185" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="AF185" s="28"/>
       <c r="AG185" s="28"/>
       <c r="AH185" s="28"/>
@@ -17694,10 +17803,10 @@
     </row>
     <row r="186" spans="1:45" ht="16">
       <c r="A186" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B186" s="30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C186" s="30">
         <f t="shared" si="6"/>
@@ -17711,20 +17820,24 @@
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="F186" s="1"/>
+      <c r="F186" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G186" s="1"/>
       <c r="H186" s="1" t="s">
-        <v>609</v>
+        <v>87</v>
       </c>
       <c r="I186" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J186" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="K186" s="28"/>
-      <c r="L186" s="28" t="s">
-        <v>464</v>
+      <c r="J186" s="40" t="s">
+        <v>627</v>
+      </c>
+      <c r="K186" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="L186" s="10" t="s">
+        <v>659</v>
       </c>
       <c r="M186" s="19"/>
       <c r="N186" s="1">
@@ -17734,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="P186" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q186" s="28">
         <v>1</v>
@@ -17746,16 +17859,24 @@
       <c r="T186" s="28"/>
       <c r="U186" s="28"/>
       <c r="W186" s="28">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="X186" s="28"/>
       <c r="Y186" s="28"/>
-      <c r="Z186" s="28"/>
+      <c r="Z186" s="28">
+        <v>5</v>
+      </c>
       <c r="AA186" s="28"/>
       <c r="AB186" s="28"/>
-      <c r="AC186" s="28"/>
-      <c r="AD186" s="28"/>
-      <c r="AE186" s="28"/>
+      <c r="AC186" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD186" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE186" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="AF186" s="28"/>
       <c r="AG186" s="28"/>
       <c r="AH186" s="28"/>
@@ -17771,10 +17892,10 @@
     </row>
     <row r="187" spans="1:45" ht="16">
       <c r="A187" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B187" s="30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C187" s="30">
         <f t="shared" si="6"/>
@@ -17788,20 +17909,24 @@
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="F187" s="1"/>
+      <c r="F187" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G187" s="1"/>
       <c r="H187" s="1" t="s">
-        <v>609</v>
+        <v>87</v>
       </c>
       <c r="I187" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J187" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="K187" s="28"/>
-      <c r="L187" s="28" t="s">
-        <v>464</v>
+      <c r="J187" s="40" t="s">
+        <v>627</v>
+      </c>
+      <c r="K187" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="L187" s="10" t="s">
+        <v>326</v>
       </c>
       <c r="M187" s="28"/>
       <c r="N187" s="1">
@@ -17811,7 +17936,7 @@
         <v>0</v>
       </c>
       <c r="P187" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Q187" s="28">
         <v>1</v>
@@ -17823,16 +17948,24 @@
       <c r="T187" s="28"/>
       <c r="U187" s="28"/>
       <c r="W187" s="28">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="X187" s="28"/>
       <c r="Y187" s="28"/>
-      <c r="Z187" s="28"/>
+      <c r="Z187" s="28">
+        <v>5</v>
+      </c>
       <c r="AA187" s="28"/>
       <c r="AB187" s="28"/>
-      <c r="AC187" s="28"/>
-      <c r="AD187" s="28"/>
-      <c r="AE187" s="28"/>
+      <c r="AC187" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD187" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE187" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="AF187" s="28"/>
       <c r="AG187" s="28"/>
       <c r="AH187" s="28"/>
@@ -17848,10 +17981,10 @@
     </row>
     <row r="188" spans="1:45" ht="16">
       <c r="A188" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B188" s="30" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C188" s="30">
         <f t="shared" si="6"/>
@@ -17865,20 +17998,21 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
+      <c r="F188" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="H188" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I188" s="1" t="s">
         <v>147</v>
       </c>
       <c r="J188" s="28" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K188" s="28"/>
       <c r="L188" s="28" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M188" s="28"/>
       <c r="N188" s="1">
@@ -17888,7 +18022,7 @@
         <v>0</v>
       </c>
       <c r="P188" s="28" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="Q188" s="28">
         <v>1</v>
@@ -17924,10 +18058,10 @@
     </row>
     <row r="189" spans="1:45" ht="16">
       <c r="A189" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B189" s="30" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C189" s="30">
         <f t="shared" si="6"/>
@@ -17941,10 +18075,14 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
+      <c r="F189" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>662</v>
+      </c>
       <c r="H189" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I189" s="1" t="s">
         <v>50</v>
@@ -17954,7 +18092,7 @@
       </c>
       <c r="K189" s="28"/>
       <c r="L189" s="28" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M189" s="28"/>
       <c r="N189" s="1">
@@ -17964,7 +18102,7 @@
         <v>0</v>
       </c>
       <c r="P189" s="28" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="Q189" s="28">
         <v>1</v>
@@ -18000,10 +18138,10 @@
     </row>
     <row r="190" spans="1:45" ht="16">
       <c r="A190" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B190" s="30" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C190" s="30">
         <f t="shared" si="6"/>
@@ -18018,9 +18156,11 @@
         <v>3</v>
       </c>
       <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
+      <c r="G190" s="1" t="s">
+        <v>663</v>
+      </c>
       <c r="H190" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I190" s="1" t="s">
         <v>50</v>
@@ -18030,7 +18170,7 @@
       </c>
       <c r="K190" s="28"/>
       <c r="L190" s="28" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M190" s="28"/>
       <c r="N190" s="1">
@@ -18040,7 +18180,7 @@
         <v>0</v>
       </c>
       <c r="P190" s="28" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Q190" s="28">
         <v>1</v>
@@ -18076,10 +18216,10 @@
     </row>
     <row r="191" spans="1:45" ht="16">
       <c r="A191" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B191" s="30" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C191" s="30">
         <f t="shared" si="6"/>
@@ -18093,50 +18233,63 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="F191" s="1"/>
+      <c r="F191" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G191" s="1"/>
       <c r="H191" s="1" t="s">
-        <v>608</v>
+        <v>87</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J191" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="K191" s="28"/>
-      <c r="L191" s="28" t="s">
-        <v>477</v>
+        <v>474</v>
+      </c>
+      <c r="K191" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="L191" s="40" t="s">
+        <v>664</v>
       </c>
       <c r="M191" s="32"/>
       <c r="N191" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O191" s="1">
         <v>0</v>
       </c>
       <c r="P191" s="28" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="Q191" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R191" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="S191" s="28"/>
       <c r="T191" s="28"/>
       <c r="U191" s="28"/>
       <c r="V191" s="28"/>
-      <c r="W191" s="28"/>
+      <c r="W191" s="28">
+        <v>300000</v>
+      </c>
       <c r="X191" s="28"/>
       <c r="Y191" s="28"/>
-      <c r="Z191" s="28"/>
+      <c r="Z191" s="28">
+        <v>4</v>
+      </c>
       <c r="AA191" s="28"/>
       <c r="AB191" s="28"/>
-      <c r="AC191" s="28"/>
-      <c r="AD191" s="28"/>
-      <c r="AE191" s="28"/>
+      <c r="AC191" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD191" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE191" s="2" t="s">
+        <v>661</v>
+      </c>
       <c r="AF191" s="28"/>
       <c r="AG191" s="28"/>
       <c r="AH191" s="28"/>
@@ -18152,10 +18305,10 @@
     </row>
     <row r="192" spans="1:45" ht="16">
       <c r="A192" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B192" s="30" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C192" s="30">
         <f t="shared" si="6"/>
@@ -18169,50 +18322,63 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="F192" s="1"/>
+      <c r="F192" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G192" s="1"/>
       <c r="H192" s="1" t="s">
-        <v>608</v>
+        <v>87</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J192" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="K192" s="28"/>
-      <c r="L192" s="28" t="s">
-        <v>477</v>
+        <v>474</v>
+      </c>
+      <c r="K192" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="L192" s="40" t="s">
+        <v>151</v>
       </c>
       <c r="M192" s="32"/>
       <c r="N192" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O192" s="1">
         <v>0</v>
       </c>
       <c r="P192" s="28" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Q192" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R192" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="S192" s="28"/>
       <c r="T192" s="28"/>
       <c r="U192" s="28"/>
       <c r="V192" s="28"/>
-      <c r="W192" s="28"/>
+      <c r="W192" s="28">
+        <v>300000</v>
+      </c>
       <c r="X192" s="28"/>
       <c r="Y192" s="28"/>
-      <c r="Z192" s="28"/>
+      <c r="Z192" s="28">
+        <v>4</v>
+      </c>
       <c r="AA192" s="28"/>
       <c r="AB192" s="28"/>
-      <c r="AC192" s="28"/>
-      <c r="AD192" s="28"/>
-      <c r="AE192" s="28"/>
+      <c r="AC192" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD192" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE192" s="2" t="s">
+        <v>661</v>
+      </c>
       <c r="AF192" s="28"/>
       <c r="AG192" s="28"/>
       <c r="AH192" s="28"/>
@@ -18228,10 +18394,10 @@
     </row>
     <row r="193" spans="1:45" ht="16">
       <c r="A193" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B193" s="30" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C193" s="30">
         <f t="shared" si="6"/>
@@ -18245,10 +18411,12 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="F193" s="1"/>
+      <c r="F193" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G193" s="1"/>
       <c r="H193" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I193" s="1" t="s">
         <v>50</v>
@@ -18258,7 +18426,7 @@
       </c>
       <c r="K193" s="28"/>
       <c r="L193" s="28" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M193" s="28"/>
       <c r="N193" s="1">
@@ -18268,7 +18436,7 @@
         <v>0</v>
       </c>
       <c r="P193" s="28" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Q193" s="28">
         <v>1</v>
@@ -18304,10 +18472,10 @@
     </row>
     <row r="194" spans="1:45" ht="16">
       <c r="A194" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B194" s="30" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C194" s="30">
         <f t="shared" si="6"/>
@@ -18321,20 +18489,22 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="F194" s="1"/>
+      <c r="F194" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G194" s="1"/>
       <c r="H194" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I194" s="28" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J194" s="28" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="K194" s="28"/>
       <c r="L194" s="30" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M194" s="28"/>
       <c r="N194" s="28">
@@ -18344,7 +18514,7 @@
         <v>0</v>
       </c>
       <c r="P194" s="28" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="Q194" s="28">
         <v>1</v>
@@ -18380,10 +18550,10 @@
     </row>
     <row r="195" spans="1:45" s="4" customFormat="1" ht="16">
       <c r="A195" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B195" s="30" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C195" s="30">
         <f t="shared" si="6"/>
@@ -18400,17 +18570,17 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I195" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="27" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="M195" s="28"/>
       <c r="N195" s="28">
@@ -18420,7 +18590,7 @@
         <v>0</v>
       </c>
       <c r="P195" s="28" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="Q195" s="28">
         <v>1</v>
@@ -18430,7 +18600,9 @@
       </c>
       <c r="S195" s="28"/>
       <c r="T195" s="28"/>
-      <c r="U195" s="28"/>
+      <c r="U195" s="40" t="s">
+        <v>665</v>
+      </c>
       <c r="V195" s="28"/>
       <c r="W195" s="28"/>
       <c r="X195" s="28"/>
@@ -18444,7 +18616,9 @@
       <c r="AF195" s="28"/>
       <c r="AG195" s="28"/>
       <c r="AH195" s="28"/>
-      <c r="AI195" s="28"/>
+      <c r="AI195" s="28">
+        <v>16</v>
+      </c>
       <c r="AJ195" s="28"/>
       <c r="AK195" s="28"/>
       <c r="AL195" s="28"/>
@@ -18458,10 +18632,10 @@
     </row>
     <row r="196" spans="1:45" ht="16">
       <c r="A196" s="30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B196" s="30" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C196" s="30">
         <f t="shared" si="6"/>
@@ -18478,17 +18652,17 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I196" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J196" s="28" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K196" s="28"/>
       <c r="L196" s="28" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M196" s="28"/>
       <c r="N196" s="1">
@@ -18498,7 +18672,7 @@
         <v>0</v>
       </c>
       <c r="P196" s="28" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="Q196" s="28">
         <v>1</v>
@@ -18534,10 +18708,10 @@
     </row>
     <row r="197" spans="1:45" ht="16">
       <c r="A197" s="30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B197" s="30" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C197" s="30">
         <f t="shared" si="6"/>
@@ -18554,17 +18728,17 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I197" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J197" s="28" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K197" s="28"/>
       <c r="L197" s="28" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="M197" s="28"/>
       <c r="N197" s="1">
@@ -18574,7 +18748,7 @@
         <v>0</v>
       </c>
       <c r="P197" s="28" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Q197" s="28">
         <v>1</v>
@@ -18610,10 +18784,10 @@
     </row>
     <row r="198" spans="1:45" ht="16">
       <c r="A198" s="30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B198" s="30" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C198" s="30">
         <f t="shared" si="6"/>
@@ -18630,17 +18804,17 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I198" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J198" s="28" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K198" s="28"/>
       <c r="L198" s="30" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M198" s="28"/>
       <c r="N198" s="1">
@@ -18650,7 +18824,7 @@
         <v>0</v>
       </c>
       <c r="P198" s="28" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="Q198" s="28">
         <v>1</v>
@@ -18686,10 +18860,10 @@
     </row>
     <row r="199" spans="1:45" ht="16">
       <c r="A199" s="30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B199" s="30" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C199" s="30">
         <f t="shared" si="6"/>
@@ -18706,17 +18880,17 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I199" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J199" s="28" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K199" s="28"/>
       <c r="L199" s="28" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M199" s="32"/>
       <c r="N199" s="1">
@@ -18726,7 +18900,7 @@
         <v>0</v>
       </c>
       <c r="P199" s="28" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="Q199" s="28">
         <v>1</v>
@@ -18762,10 +18936,10 @@
     </row>
     <row r="200" spans="1:45" ht="16">
       <c r="A200" s="30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B200" s="30" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C200" s="30">
         <f t="shared" si="6"/>
@@ -18782,17 +18956,17 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I200" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J200" s="28" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K200" s="28"/>
       <c r="L200" s="28" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M200" s="32"/>
       <c r="N200" s="1">
@@ -18802,7 +18976,7 @@
         <v>0</v>
       </c>
       <c r="P200" s="28" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="Q200" s="28">
         <v>1</v>
@@ -18838,10 +19012,10 @@
     </row>
     <row r="201" spans="1:45" ht="16">
       <c r="A201" s="30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B201" s="30" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C201" s="30">
         <f t="shared" si="6"/>
@@ -18858,17 +19032,17 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I201" s="28" t="s">
         <v>50</v>
       </c>
       <c r="J201" s="28" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K201" s="28"/>
       <c r="L201" s="32" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M201" s="28"/>
       <c r="N201" s="1">
@@ -18878,7 +19052,7 @@
         <v>0</v>
       </c>
       <c r="P201" s="28" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="Q201" s="28">
         <v>1</v>
@@ -18914,10 +19088,10 @@
     </row>
     <row r="202" spans="1:45" ht="19">
       <c r="A202" s="30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B202" s="30" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C202" s="30">
         <f t="shared" si="6"/>
@@ -18934,17 +19108,17 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I202" s="25" t="s">
         <v>88</v>
       </c>
       <c r="J202" s="28" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K202" s="28"/>
       <c r="L202" s="30" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M202" s="30"/>
       <c r="N202" s="1">
@@ -18954,7 +19128,7 @@
         <v>0</v>
       </c>
       <c r="P202" s="28" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q202" s="28">
         <v>1</v>
@@ -18990,10 +19164,10 @@
     </row>
     <row r="203" spans="1:45" ht="16">
       <c r="A203" s="30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B203" s="30" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C203" s="30">
         <f t="shared" si="6"/>
@@ -19010,17 +19184,17 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I203" s="12" t="s">
         <v>50</v>
       </c>
       <c r="J203" s="28" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K203" s="28"/>
       <c r="L203" s="26" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="M203" s="26"/>
       <c r="N203" s="1">
@@ -19030,7 +19204,7 @@
         <v>0</v>
       </c>
       <c r="P203" s="28" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="Q203" s="28">
         <v>1</v>
@@ -19066,10 +19240,10 @@
     </row>
     <row r="204" spans="1:45" ht="16">
       <c r="A204" s="30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B204" s="30" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C204" s="30">
         <f t="shared" si="6"/>
@@ -19086,17 +19260,17 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I204" s="12" t="s">
         <v>50</v>
       </c>
       <c r="J204" s="28" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K204" s="28"/>
       <c r="L204" s="28" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="M204" s="28"/>
       <c r="N204" s="1">
@@ -19106,7 +19280,7 @@
         <v>0</v>
       </c>
       <c r="P204" s="28" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="Q204" s="28">
         <v>1</v>
@@ -19142,10 +19316,10 @@
     </row>
     <row r="205" spans="1:45" ht="16">
       <c r="A205" s="30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B205" s="30" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C205" s="30">
         <f t="shared" si="6"/>
@@ -19162,7 +19336,7 @@
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I205" s="12" t="s">
         <v>50</v>
@@ -19172,7 +19346,7 @@
       </c>
       <c r="K205" s="28"/>
       <c r="L205" s="28" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="M205" s="28"/>
       <c r="N205" s="1">
@@ -19182,7 +19356,7 @@
         <v>0</v>
       </c>
       <c r="P205" s="28" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="Q205" s="28">
         <v>1</v>
@@ -19218,10 +19392,10 @@
     </row>
     <row r="206" spans="1:45" ht="16">
       <c r="A206" s="30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B206" s="30" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C206" s="30">
         <f t="shared" si="6"/>
@@ -19238,7 +19412,7 @@
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I206" s="12" t="s">
         <v>50</v>
@@ -19248,7 +19422,7 @@
       </c>
       <c r="K206" s="28"/>
       <c r="L206" s="28" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M206" s="28"/>
       <c r="N206" s="1">
@@ -19258,7 +19432,7 @@
         <v>0</v>
       </c>
       <c r="P206" s="28" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="Q206" s="28">
         <v>1</v>
@@ -19294,10 +19468,10 @@
     </row>
     <row r="207" spans="1:45" ht="16">
       <c r="A207" s="30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B207" s="30" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C207" s="30">
         <f t="shared" si="6"/>
@@ -19314,7 +19488,7 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I207" s="12" t="s">
         <v>50</v>
@@ -19324,7 +19498,7 @@
       </c>
       <c r="K207" s="28"/>
       <c r="L207" s="28" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="M207" s="28"/>
       <c r="N207" s="1">
@@ -19334,7 +19508,7 @@
         <v>0</v>
       </c>
       <c r="P207" s="28" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="Q207" s="28">
         <v>1</v>
@@ -19370,10 +19544,10 @@
     </row>
     <row r="208" spans="1:45" ht="16">
       <c r="A208" s="30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B208" s="30" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C208" s="30">
         <f t="shared" si="6"/>
@@ -19390,7 +19564,7 @@
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I208" s="12" t="s">
         <v>50</v>
@@ -19400,7 +19574,7 @@
       </c>
       <c r="K208" s="28"/>
       <c r="L208" s="28" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M208" s="28"/>
       <c r="N208" s="1">
@@ -19410,7 +19584,7 @@
         <v>0</v>
       </c>
       <c r="P208" s="28" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="Q208" s="28">
         <v>1</v>
@@ -19446,10 +19620,10 @@
     </row>
     <row r="209" spans="1:43" ht="16">
       <c r="A209" s="30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B209" s="30" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C209" s="30">
         <f t="shared" si="6"/>
@@ -19466,7 +19640,7 @@
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I209" s="12" t="s">
         <v>50</v>
@@ -19476,7 +19650,7 @@
       </c>
       <c r="K209" s="28"/>
       <c r="L209" s="28" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="M209" s="28"/>
       <c r="N209" s="1">
@@ -19486,7 +19660,7 @@
         <v>0</v>
       </c>
       <c r="P209" s="28" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Q209" s="28">
         <v>1</v>
@@ -19522,10 +19696,10 @@
     </row>
     <row r="210" spans="1:43" ht="16">
       <c r="A210" s="30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B210" s="30" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C210" s="30">
         <f t="shared" si="6"/>
@@ -19542,7 +19716,7 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I210" s="12" t="s">
         <v>50</v>
@@ -19552,7 +19726,7 @@
       </c>
       <c r="K210" s="28"/>
       <c r="L210" s="28" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M210" s="28"/>
       <c r="N210" s="1">
@@ -19562,7 +19736,7 @@
         <v>0</v>
       </c>
       <c r="P210" s="28" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="Q210" s="28">
         <v>1</v>
@@ -19598,10 +19772,10 @@
     </row>
     <row r="211" spans="1:43" ht="16">
       <c r="A211" s="30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B211" s="30" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C211" s="30">
         <f t="shared" ref="C211:C237" si="12">_xlfn.NUMBERVALUE(LEFT(P211,2))</f>
@@ -19618,17 +19792,17 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I211" s="12" t="s">
         <v>160</v>
       </c>
       <c r="J211" s="28" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K211" s="28"/>
       <c r="L211" s="32" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="M211" s="28"/>
       <c r="N211" s="1">
@@ -19638,7 +19812,7 @@
         <v>0</v>
       </c>
       <c r="P211" s="28" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="Q211" s="28">
         <v>1</v>
@@ -19674,10 +19848,10 @@
     </row>
     <row r="212" spans="1:43" ht="16">
       <c r="A212" s="30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B212" s="30" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C212" s="30">
         <f t="shared" si="12"/>
@@ -19694,17 +19868,17 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I212" s="12" t="s">
         <v>160</v>
       </c>
       <c r="J212" s="28" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K212" s="28"/>
       <c r="L212" s="28" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="N212" s="1">
         <v>0</v>
@@ -19713,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="P212" s="28" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="Q212" s="30">
         <v>0</v>
@@ -19721,10 +19895,10 @@
     </row>
     <row r="213" spans="1:43" ht="16">
       <c r="A213" s="30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B213" s="30" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C213" s="30">
         <f t="shared" si="12"/>
@@ -19741,17 +19915,17 @@
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I213" s="12" t="s">
         <v>147</v>
       </c>
       <c r="J213" s="28" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="K213" s="28"/>
       <c r="L213" s="32" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="M213" s="19"/>
       <c r="N213" s="1">
@@ -19761,7 +19935,7 @@
         <v>0</v>
       </c>
       <c r="P213" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="Q213" s="28">
         <v>1</v>
@@ -19797,10 +19971,10 @@
     </row>
     <row r="214" spans="1:43" ht="16">
       <c r="A214" s="30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B214" s="30" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C214" s="30">
         <f t="shared" si="12"/>
@@ -19817,17 +19991,17 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I214" s="12" t="s">
         <v>160</v>
       </c>
       <c r="J214" s="28" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K214" s="28"/>
       <c r="L214" s="28" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="M214" s="32"/>
       <c r="N214" s="1">
@@ -19837,7 +20011,7 @@
         <v>0</v>
       </c>
       <c r="P214" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="Q214" s="28">
         <v>1</v>
@@ -19873,10 +20047,10 @@
     </row>
     <row r="215" spans="1:43" ht="16">
       <c r="A215" s="30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B215" s="30" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C215" s="30">
         <f t="shared" si="12"/>
@@ -19893,19 +20067,19 @@
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I215" s="12"/>
       <c r="J215" s="28"/>
       <c r="K215" s="28"/>
       <c r="L215" s="28" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M215" s="32"/>
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
       <c r="P215" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="Q215" s="28">
         <v>0</v>
@@ -19939,10 +20113,10 @@
     </row>
     <row r="216" spans="1:43" ht="16">
       <c r="A216" s="30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B216" s="30" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C216" s="30">
         <f t="shared" si="12"/>
@@ -19959,19 +20133,19 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I216" s="12"/>
       <c r="J216" s="28"/>
       <c r="K216" s="28"/>
       <c r="L216" s="28" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M216" s="32"/>
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
       <c r="P216" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Q216" s="28">
         <v>0</v>
@@ -20005,10 +20179,10 @@
     </row>
     <row r="217" spans="1:43" ht="16">
       <c r="A217" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B217" s="30" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C217" s="30">
         <f t="shared" si="12"/>
@@ -20025,17 +20199,17 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I217" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J217" s="28" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K217" s="28"/>
       <c r="L217" s="28" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="M217" s="28"/>
       <c r="N217" s="28">
@@ -20045,7 +20219,7 @@
         <v>0</v>
       </c>
       <c r="P217" s="12" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="Q217" s="28">
         <v>1</v>
@@ -20081,7 +20255,7 @@
     </row>
     <row r="218" spans="1:43" ht="16">
       <c r="A218" s="30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B218" s="30" t="s">
         <v>240</v>
@@ -20101,17 +20275,17 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J218" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K218" s="28"/>
       <c r="L218" s="32" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="M218" s="30"/>
       <c r="N218" s="1">
@@ -20121,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="P218" s="28" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="Q218" s="28">
         <v>1</v>
@@ -20157,7 +20331,7 @@
     </row>
     <row r="219" spans="1:43" ht="16">
       <c r="A219" s="30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B219" s="30" t="s">
         <v>240</v>
@@ -20177,17 +20351,17 @@
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J219" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K219" s="28"/>
       <c r="L219" s="30" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M219" s="30"/>
       <c r="N219" s="1">
@@ -20197,7 +20371,7 @@
         <v>0</v>
       </c>
       <c r="P219" s="8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="Q219" s="28">
         <v>0</v>
@@ -20231,7 +20405,7 @@
     </row>
     <row r="220" spans="1:43" ht="16">
       <c r="A220" s="30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B220" s="30" t="s">
         <v>240</v>
@@ -20251,7 +20425,7 @@
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I220" s="1" t="s">
         <v>88</v>
@@ -20261,7 +20435,7 @@
       </c>
       <c r="K220" s="28"/>
       <c r="L220" s="30" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M220" s="30"/>
       <c r="N220" s="1">
@@ -20271,7 +20445,7 @@
         <v>1</v>
       </c>
       <c r="P220" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="Q220" s="28">
         <v>1</v>
@@ -20307,7 +20481,7 @@
     </row>
     <row r="221" spans="1:43" ht="16">
       <c r="A221" s="30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B221" s="30" t="s">
         <v>240</v>
@@ -20327,7 +20501,7 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I221" s="1" t="s">
         <v>147</v>
@@ -20337,7 +20511,7 @@
       </c>
       <c r="K221" s="28"/>
       <c r="L221" s="30" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M221" s="30"/>
       <c r="N221" s="1">
@@ -20347,7 +20521,7 @@
         <v>1</v>
       </c>
       <c r="P221" s="8" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="Q221" s="28">
         <v>1</v>
@@ -20383,10 +20557,10 @@
     </row>
     <row r="222" spans="1:43" ht="16">
       <c r="A222" s="30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B222" s="30" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C222" s="30">
         <f t="shared" si="12"/>
@@ -20403,17 +20577,17 @@
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J222" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K222" s="28"/>
       <c r="L222" s="30" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M222" s="30"/>
       <c r="N222" s="1">
@@ -20423,7 +20597,7 @@
         <v>0</v>
       </c>
       <c r="P222" s="8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="Q222" s="28">
         <v>1</v>
@@ -20459,10 +20633,10 @@
     </row>
     <row r="223" spans="1:43" ht="16">
       <c r="A223" s="30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B223" s="30" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C223" s="30">
         <f t="shared" si="12"/>
@@ -20479,17 +20653,17 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J223" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K223" s="28"/>
       <c r="L223" s="30" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M223" s="30"/>
       <c r="N223" s="1">
@@ -20499,7 +20673,7 @@
         <v>0</v>
       </c>
       <c r="P223" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="Q223" s="28">
         <v>0</v>
@@ -20533,10 +20707,10 @@
     </row>
     <row r="224" spans="1:43" ht="16">
       <c r="A224" s="30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B224" s="30" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C224" s="30">
         <f t="shared" si="12"/>
@@ -20553,7 +20727,7 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I224" s="1" t="s">
         <v>88</v>
@@ -20563,7 +20737,7 @@
       </c>
       <c r="K224" s="28"/>
       <c r="L224" s="30" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M224" s="30"/>
       <c r="N224" s="1">
@@ -20573,7 +20747,7 @@
         <v>1</v>
       </c>
       <c r="P224" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="Q224" s="28">
         <v>1</v>
@@ -20609,10 +20783,10 @@
     </row>
     <row r="225" spans="1:43" ht="16">
       <c r="A225" s="30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B225" s="30" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C225" s="30">
         <f t="shared" si="12"/>
@@ -20629,7 +20803,7 @@
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I225" s="1" t="s">
         <v>147</v>
@@ -20639,7 +20813,7 @@
       </c>
       <c r="K225" s="28"/>
       <c r="L225" s="30" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M225" s="30"/>
       <c r="N225" s="1">
@@ -20649,7 +20823,7 @@
         <v>1</v>
       </c>
       <c r="P225" s="8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="Q225" s="28">
         <v>0</v>
@@ -20683,10 +20857,10 @@
     </row>
     <row r="226" spans="1:43" ht="16">
       <c r="A226" s="30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B226" s="30" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C226" s="30">
         <f t="shared" si="12"/>
@@ -20703,7 +20877,7 @@
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I226" s="1" t="s">
         <v>160</v>
@@ -20713,7 +20887,7 @@
       </c>
       <c r="K226" s="28"/>
       <c r="L226" s="30" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="M226" s="30"/>
       <c r="N226" s="1">
@@ -20723,7 +20897,7 @@
         <v>0</v>
       </c>
       <c r="P226" s="8" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="Q226" s="28">
         <v>1</v>
@@ -20759,10 +20933,10 @@
     </row>
     <row r="227" spans="1:43" ht="16">
       <c r="A227" s="30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B227" s="30" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C227" s="30">
         <f t="shared" si="12"/>
@@ -20779,17 +20953,17 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J227" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K227" s="28"/>
       <c r="L227" s="30" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="M227" s="30"/>
       <c r="N227" s="1">
@@ -20799,7 +20973,7 @@
         <v>0</v>
       </c>
       <c r="P227" s="8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Q227" s="28">
         <v>0</v>
@@ -20833,10 +21007,10 @@
     </row>
     <row r="228" spans="1:43" ht="16">
       <c r="A228" s="30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B228" s="30" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C228" s="30">
         <f t="shared" si="12"/>
@@ -20853,7 +21027,7 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I228" s="1" t="s">
         <v>88</v>
@@ -20863,7 +21037,7 @@
       </c>
       <c r="K228" s="28"/>
       <c r="L228" s="30" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M228" s="30"/>
       <c r="N228" s="1">
@@ -20873,7 +21047,7 @@
         <v>1</v>
       </c>
       <c r="P228" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="Q228" s="28">
         <v>1</v>
@@ -20909,10 +21083,10 @@
     </row>
     <row r="229" spans="1:43" ht="16">
       <c r="A229" s="30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B229" s="28" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C229" s="30">
         <f t="shared" si="12"/>
@@ -20929,7 +21103,7 @@
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I229" s="28" t="s">
         <v>147</v>
@@ -20939,7 +21113,7 @@
       </c>
       <c r="K229" s="28"/>
       <c r="L229" s="28" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M229" s="30"/>
       <c r="N229" s="28">
@@ -20949,7 +21123,7 @@
         <v>1</v>
       </c>
       <c r="P229" s="8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="Q229" s="28">
         <v>1</v>
@@ -20985,10 +21159,10 @@
     </row>
     <row r="230" spans="1:43" ht="16">
       <c r="A230" s="30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B230" s="28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C230" s="30">
         <f t="shared" si="12"/>
@@ -21005,7 +21179,7 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="H230" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I230" s="28" t="s">
         <v>160</v>
@@ -21015,7 +21189,7 @@
       </c>
       <c r="K230" s="28"/>
       <c r="L230" s="28" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M230" s="30"/>
       <c r="N230" s="28">
@@ -21025,7 +21199,7 @@
         <v>0</v>
       </c>
       <c r="P230" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="Q230" s="28">
         <v>1</v>
@@ -21061,10 +21235,10 @@
     </row>
     <row r="231" spans="1:43" ht="16">
       <c r="A231" s="28" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B231" s="28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C231" s="30">
         <f t="shared" si="12"/>
@@ -21081,17 +21255,17 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I231" s="28" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J231" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K231" s="28"/>
       <c r="L231" s="28" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M231" s="30"/>
       <c r="N231" s="28">
@@ -21101,7 +21275,7 @@
         <v>0</v>
       </c>
       <c r="P231" s="8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="Q231" s="28">
         <v>0</v>
@@ -21135,10 +21309,10 @@
     </row>
     <row r="232" spans="1:43" ht="16">
       <c r="A232" s="28" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B232" s="28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C232" s="30">
         <f t="shared" si="12"/>
@@ -21155,7 +21329,7 @@
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I232" s="28" t="s">
         <v>88</v>
@@ -21165,7 +21339,7 @@
       </c>
       <c r="K232" s="28"/>
       <c r="L232" s="28" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M232" s="30"/>
       <c r="N232" s="28">
@@ -21175,7 +21349,7 @@
         <v>1</v>
       </c>
       <c r="P232" s="8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="Q232" s="28">
         <v>1</v>
@@ -21211,10 +21385,10 @@
     </row>
     <row r="233" spans="1:43" ht="16">
       <c r="A233" s="28" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B233" s="28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C233" s="30">
         <f t="shared" si="12"/>
@@ -21231,7 +21405,7 @@
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I233" s="28" t="s">
         <v>147</v>
@@ -21241,7 +21415,7 @@
       </c>
       <c r="K233" s="28"/>
       <c r="L233" s="28" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M233" s="30"/>
       <c r="N233" s="28">
@@ -21251,7 +21425,7 @@
         <v>1</v>
       </c>
       <c r="P233" s="8" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="Q233" s="28">
         <v>1</v>
@@ -21287,10 +21461,10 @@
     </row>
     <row r="234" spans="1:43" ht="16">
       <c r="A234" s="28" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B234" s="28" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C234" s="30">
         <f t="shared" si="12"/>
@@ -21307,7 +21481,7 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I234" s="28" t="s">
         <v>160</v>
@@ -21317,7 +21491,7 @@
       </c>
       <c r="K234" s="28"/>
       <c r="L234" s="28" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="M234" s="30"/>
       <c r="N234" s="28">
@@ -21327,7 +21501,7 @@
         <v>0</v>
       </c>
       <c r="P234" s="8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q234" s="28">
         <v>1</v>
@@ -21363,10 +21537,10 @@
     </row>
     <row r="235" spans="1:43" ht="16">
       <c r="A235" s="28" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B235" s="28" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C235" s="30">
         <f t="shared" si="12"/>
@@ -21383,17 +21557,17 @@
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I235" s="28" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J235" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K235" s="28"/>
       <c r="L235" s="28" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="M235" s="28"/>
       <c r="N235" s="28">
@@ -21403,7 +21577,7 @@
         <v>0</v>
       </c>
       <c r="P235" s="8" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="Q235" s="28">
         <v>0</v>
@@ -21437,10 +21611,10 @@
     </row>
     <row r="236" spans="1:43" ht="16">
       <c r="A236" s="28" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B236" s="28" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C236" s="30">
         <f t="shared" si="12"/>
@@ -21457,7 +21631,7 @@
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I236" s="28" t="s">
         <v>88</v>
@@ -21467,7 +21641,7 @@
       </c>
       <c r="K236" s="28"/>
       <c r="L236" s="28" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M236" s="28"/>
       <c r="N236" s="28">
@@ -21477,7 +21651,7 @@
         <v>1</v>
       </c>
       <c r="P236" s="8" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="Q236" s="28">
         <v>1</v>
@@ -21513,10 +21687,10 @@
     </row>
     <row r="237" spans="1:43" ht="16">
       <c r="A237" s="28" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B237" s="28" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C237" s="30">
         <f t="shared" si="12"/>
@@ -21533,7 +21707,7 @@
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I237" s="28" t="s">
         <v>147</v>
@@ -21543,7 +21717,7 @@
       </c>
       <c r="K237" s="28"/>
       <c r="L237" s="28" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M237" s="28"/>
       <c r="N237" s="28">
@@ -21553,7 +21727,7 @@
         <v>1</v>
       </c>
       <c r="P237" s="8" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="Q237" s="28">
         <v>1</v>
